--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -34,16 +34,16 @@
     <t>Purgatory Passes</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Uplift Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Tickets</t>
   </si>
   <si>
     <t>Purgatory Coaster</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45601</v>
+        <v>45612</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>987</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45604</v>
+        <v>45613</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45605</v>
+        <v>45614</v>
       </c>
       <c r="C4" s="2">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45605</v>
+        <v>45615</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -493,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45612</v>
+        <v>45616</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -507,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="C7" s="2">
-        <v>769</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -538,10 +538,10 @@
         <v>45618</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45619</v>
+        <v>45618</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -566,7 +566,7 @@
         <v>45619</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -594,10 +594,10 @@
         <v>45620</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -633,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C16" s="2">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -650,10 +650,10 @@
         <v>45624</v>
       </c>
       <c r="C17" s="2">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,13 +661,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -678,7 +678,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="2">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -692,10 +692,10 @@
         <v>45626</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="C21" s="2">
-        <v>297</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45626</v>
+        <v>45611</v>
       </c>
       <c r="C22" s="2">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45627</v>
+        <v>45612</v>
       </c>
       <c r="C23" s="2">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -745,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45628</v>
+        <v>45613</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -759,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45612</v>
+        <v>45614</v>
       </c>
       <c r="C26" s="2">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,10 +787,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -801,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="C28" s="2">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,10 +815,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C29" s="2">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -829,13 +829,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="C31" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45616</v>
+        <v>45620</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -871,13 +871,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45617</v>
+        <v>45620</v>
       </c>
       <c r="C33" s="2">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45618</v>
+        <v>45620</v>
       </c>
       <c r="C34" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -899,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -913,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="C36" s="2">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="C38" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="C39" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45623</v>
+        <v>45627</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45624</v>
+        <v>45627</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="C42" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45627</v>
+        <v>45606</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1025,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45627</v>
+        <v>45610</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45627</v>
+        <v>45610</v>
       </c>
       <c r="C45" s="2">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1056,7 +1056,7 @@
         <v>45612</v>
       </c>
       <c r="C46" s="2">
-        <v>987</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1067,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C47" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="C49" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1112,10 +1112,10 @@
         <v>45616</v>
       </c>
       <c r="C50" s="2">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1126,7 +1126,7 @@
         <v>45616</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1140,7 +1140,7 @@
         <v>45617</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1151,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45618</v>
+        <v>45617</v>
       </c>
       <c r="C53" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1168,10 +1168,10 @@
         <v>45618</v>
       </c>
       <c r="C54" s="2">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1182,10 +1182,10 @@
         <v>45619</v>
       </c>
       <c r="C55" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1196,7 +1196,7 @@
         <v>45620</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>541</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1224,10 +1224,10 @@
         <v>45621</v>
       </c>
       <c r="C58" s="2">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1238,10 +1238,10 @@
         <v>45622</v>
       </c>
       <c r="C59" s="2">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1249,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C60" s="2">
-        <v>6</v>
+        <v>991</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1266,7 +1266,7 @@
         <v>45624</v>
       </c>
       <c r="C61" s="2">
-        <v>113</v>
+        <v>340</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>8</v>
@@ -1280,10 +1280,10 @@
         <v>45624</v>
       </c>
       <c r="C62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1291,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C63" s="2">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -1305,13 +1305,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C64" s="2">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C65" s="2">
-        <v>3</v>
+        <v>1024</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
@@ -1333,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45604</v>
+        <v>45627</v>
       </c>
       <c r="C66" s="2">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1347,10 +1347,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45605</v>
+        <v>45601</v>
       </c>
       <c r="C67" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -1361,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="C68" s="2">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C69" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45613</v>
+        <v>45607</v>
       </c>
       <c r="C70" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1403,13 +1403,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="C71" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1431,13 +1431,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C73" s="2">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1445,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C74" s="2">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1459,13 +1459,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45619</v>
+        <v>45617</v>
       </c>
       <c r="C75" s="2">
+        <v>47</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -1487,13 +1487,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C77" s="2">
-        <v>454</v>
+        <v>245</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1501,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C78" s="2">
-        <v>284</v>
+        <v>412</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1518,7 +1518,7 @@
         <v>45622</v>
       </c>
       <c r="C79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -1529,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C80" s="2">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1543,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C81" s="2">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,10 +1557,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
+        <v>957</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>5</v>
@@ -1574,7 +1574,7 @@
         <v>45625</v>
       </c>
       <c r="C83" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -1585,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C84" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -1599,13 +1599,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1613,13 +1613,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C86" s="2">
-        <v>85</v>
+        <v>1018</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C87" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1641,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45601</v>
+        <v>45628</v>
       </c>
       <c r="C88" s="2">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -1655,13 +1655,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45604</v>
+        <v>45601</v>
       </c>
       <c r="C89" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1669,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C90" s="2">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -1683,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45607</v>
+        <v>45605</v>
       </c>
       <c r="C91" s="2">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
@@ -1697,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45613</v>
+        <v>45605</v>
       </c>
       <c r="C92" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>5</v>
@@ -1711,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C93" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1725,13 +1725,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="C94" s="2">
-        <v>60</v>
+        <v>769</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1742,7 +1742,7 @@
         <v>45615</v>
       </c>
       <c r="C95" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>5</v>
@@ -1753,13 +1753,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="C96" s="2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1770,7 +1770,7 @@
         <v>45619</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
@@ -1781,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C98" s="2">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1795,10 +1795,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C99" s="2">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -1809,13 +1809,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C100" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1823,13 +1823,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C101" s="2">
-        <v>349</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1851,13 +1851,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C103" s="2">
-        <v>957</v>
+        <v>125</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1865,10 +1865,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C104" s="2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
@@ -1879,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C105" s="2">
         <v>7</v>
@@ -1893,13 +1893,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C106" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1907,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C107" s="2">
-        <v>1018</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
@@ -1921,13 +1921,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C108" s="2">
+        <v>297</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1935,13 +1935,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45628</v>
+        <v>45626</v>
       </c>
       <c r="C109" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45602</v>
+        <v>45627</v>
       </c>
       <c r="C110" s="2">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45605</v>
+        <v>45628</v>
       </c>
       <c r="C111" s="2">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1977,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C112" s="2">
-        <v>760</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
@@ -1991,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C113" s="2">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
@@ -2005,13 +2005,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45611</v>
+        <v>45606</v>
       </c>
       <c r="C114" s="2">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2019,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C115" s="2">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>6</v>
@@ -2033,10 +2033,10 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="C116" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>5</v>
@@ -2047,13 +2047,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="C117" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2061,13 +2061,13 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45616</v>
+        <v>45615</v>
       </c>
       <c r="C118" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2075,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="C119" s="2">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>5</v>
@@ -2092,10 +2092,10 @@
         <v>45619</v>
       </c>
       <c r="C120" s="2">
-        <v>224</v>
+        <v>623</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2103,10 +2103,10 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C121" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>5</v>
@@ -2120,10 +2120,10 @@
         <v>45621</v>
       </c>
       <c r="C122" s="2">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2131,10 +2131,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C123" s="2">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
@@ -2145,13 +2145,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C124" s="2">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2159,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45625</v>
+        <v>45622</v>
       </c>
       <c r="C125" s="2">
-        <v>707</v>
+        <v>3</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>5</v>
@@ -2173,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C126" s="2">
         <v>1</v>
@@ -2187,13 +2187,13 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C127" s="2">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2201,10 +2201,10 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C128" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>5</v>
@@ -2215,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C129" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>5</v>
@@ -2232,7 +2232,7 @@
         <v>45627</v>
       </c>
       <c r="C130" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2246,7 +2246,7 @@
         <v>45628</v>
       </c>
       <c r="C131" s="2">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -2257,13 +2257,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45605</v>
+        <v>45628</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2271,10 +2271,10 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45606</v>
+        <v>45628</v>
       </c>
       <c r="C133" s="2">
-        <v>499</v>
+        <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>5</v>
@@ -2285,13 +2285,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C134" s="2">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2302,7 +2302,7 @@
         <v>45606</v>
       </c>
       <c r="C135" s="2">
-        <v>6</v>
+        <v>499</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>5</v>
@@ -2313,13 +2313,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45612</v>
+        <v>45606</v>
       </c>
       <c r="C136" s="2">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2327,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45612</v>
+        <v>45606</v>
       </c>
       <c r="C137" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
@@ -2341,13 +2341,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45614</v>
+        <v>45612</v>
       </c>
       <c r="C138" s="2">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2355,10 +2355,10 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>5</v>
@@ -2369,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="C140" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2397,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="C142" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2411,13 +2411,13 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C143" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2425,10 +2425,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45620</v>
+        <v>45618</v>
       </c>
       <c r="C144" s="2">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
@@ -2439,13 +2439,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2453,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C146" s="2">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>5</v>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C147" s="2">
         <v>1</v>
@@ -2481,13 +2481,13 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C148" s="2">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2495,10 +2495,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C149" s="2">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2509,13 +2509,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C150" s="2">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2523,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C151" s="2">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
@@ -2537,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -2551,13 +2551,13 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C153" s="2">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2568,10 +2568,10 @@
         <v>45625</v>
       </c>
       <c r="C154" s="2">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2582,7 +2582,7 @@
         <v>45625</v>
       </c>
       <c r="C155" s="2">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>9</v>
@@ -2593,13 +2593,13 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C156" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2607,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45628</v>
+        <v>45625</v>
       </c>
       <c r="C157" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2621,10 +2621,10 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45606</v>
+        <v>45626</v>
       </c>
       <c r="C158" s="2">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>5</v>
@@ -2635,13 +2635,13 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45610</v>
+        <v>45628</v>
       </c>
       <c r="C159" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2649,13 +2649,13 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="C160" s="2">
         <v>6</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2663,13 +2663,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C161" s="2">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2677,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C162" s="2">
-        <v>12</v>
+        <v>760</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>5</v>
@@ -2691,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45613</v>
+        <v>45606</v>
       </c>
       <c r="C163" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45614</v>
+        <v>45611</v>
       </c>
       <c r="C164" s="2">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2719,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C165" s="2">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>8</v>
@@ -2733,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C166" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>5</v>
@@ -2747,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="C167" s="2">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
@@ -2761,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="C168" s="2">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45618</v>
+        <v>45617</v>
       </c>
       <c r="C169" s="2">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2792,7 +2792,7 @@
         <v>45619</v>
       </c>
       <c r="C170" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>8</v>
@@ -2806,7 +2806,7 @@
         <v>45620</v>
       </c>
       <c r="C171" s="2">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>5</v>
@@ -2820,10 +2820,10 @@
         <v>45621</v>
       </c>
       <c r="C172" s="2">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2831,10 +2831,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="C173" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>5</v>
@@ -2845,13 +2845,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C174" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2859,10 +2859,10 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C175" s="2">
-        <v>991</v>
+        <v>707</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>5</v>
@@ -2873,13 +2873,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C176" s="2">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2887,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C177" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>5</v>
@@ -2901,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C178" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>5</v>
@@ -2915,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="B179" s="2">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="C179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>5</v>
@@ -2929,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="B180" s="2">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="C180" s="2">
-        <v>1024</v>
+        <v>7</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>5</v>
@@ -2943,13 +2943,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C181" s="2">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -40,10 +40,10 @@
     <t>Purgatory Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
 </sst>
 </file>
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>987</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C3" s="2">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -465,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C6" s="2">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="C8" s="2">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -535,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>343</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="C11" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -580,7 +580,7 @@
         <v>45620</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -594,10 +594,10 @@
         <v>45620</v>
       </c>
       <c r="C13" s="2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="C15" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -633,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C16" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -647,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -675,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -689,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -706,7 +706,7 @@
         <v>45627</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45627</v>
+        <v>45604</v>
       </c>
       <c r="C22" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45601</v>
+        <v>45605</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -745,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45604</v>
+        <v>45606</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45605</v>
+        <v>45612</v>
       </c>
       <c r="C25" s="2">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45605</v>
+        <v>45613</v>
       </c>
       <c r="C26" s="2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45613</v>
+        <v>45615</v>
       </c>
       <c r="C28" s="2">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,10 +815,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -829,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>623</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -846,7 +846,7 @@
         <v>45619</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -857,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45619</v>
+        <v>45621</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -871,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45619</v>
+        <v>45622</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>454</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -885,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45620</v>
+        <v>45622</v>
       </c>
       <c r="C34" s="2">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
@@ -902,7 +902,7 @@
         <v>45622</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -913,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -927,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C37" s="2">
-        <v>125</v>
+        <v>426</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="C38" s="2">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>45625</v>
       </c>
       <c r="C39" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45626</v>
+        <v>45628</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45626</v>
+        <v>45628</v>
       </c>
       <c r="C42" s="2">
-        <v>297</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
@@ -1011,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45626</v>
+        <v>45628</v>
       </c>
       <c r="C43" s="2">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45627</v>
+        <v>45601</v>
       </c>
       <c r="C44" s="2">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45628</v>
+        <v>45604</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1053,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C46" s="2">
-        <v>987</v>
+        <v>164</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45613</v>
+        <v>45605</v>
       </c>
       <c r="C47" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1081,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45614</v>
+        <v>45612</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="C49" s="2">
-        <v>167</v>
+        <v>769</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1109,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45616</v>
+        <v>45615</v>
       </c>
       <c r="C50" s="2">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1123,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1137,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45617</v>
+        <v>45619</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1151,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="C53" s="2">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="C54" s="2">
-        <v>343</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C55" s="2">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45620</v>
+        <v>45622</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1221,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="C58" s="2">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1235,10 +1235,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="C59" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1249,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="C60" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1263,13 +1263,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="C61" s="2">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1277,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1291,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C63" s="2">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1308,10 +1308,10 @@
         <v>45626</v>
       </c>
       <c r="C64" s="2">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1322,7 +1322,7 @@
         <v>45627</v>
       </c>
       <c r="C65" s="2">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
@@ -1333,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45606</v>
+        <v>45628</v>
       </c>
       <c r="C66" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -1347,13 +1347,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45610</v>
+        <v>45606</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1364,10 +1364,10 @@
         <v>45610</v>
       </c>
       <c r="C68" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45612</v>
+        <v>45610</v>
       </c>
       <c r="C69" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1392,7 +1392,7 @@
         <v>45612</v>
       </c>
       <c r="C70" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -1403,13 +1403,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C71" s="2">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="C72" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1431,13 +1431,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C73" s="2">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1448,10 +1448,10 @@
         <v>45616</v>
       </c>
       <c r="C74" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1459,10 +1459,10 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="C75" s="2">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>5</v>
@@ -1476,7 +1476,7 @@
         <v>45617</v>
       </c>
       <c r="C76" s="2">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
@@ -1487,13 +1487,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45618</v>
+        <v>45617</v>
       </c>
       <c r="C77" s="2">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1501,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45619</v>
+        <v>45618</v>
       </c>
       <c r="C78" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,13 +1515,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C79" s="2">
-        <v>541</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1529,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C80" s="2">
-        <v>224</v>
+        <v>541</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1546,10 +1546,10 @@
         <v>45621</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1571,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C83" s="2">
-        <v>991</v>
+        <v>3</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1585,13 +1585,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C84" s="2">
-        <v>340</v>
+        <v>991</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1602,10 +1602,10 @@
         <v>45624</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1616,7 +1616,7 @@
         <v>45624</v>
       </c>
       <c r="C86" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>5</v>
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1641,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C88" s="2">
-        <v>1024</v>
+        <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -1655,13 +1655,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C89" s="2">
-        <v>173</v>
+        <v>1024</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1669,13 +1669,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45602</v>
+        <v>45627</v>
       </c>
       <c r="C90" s="2">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1683,13 +1683,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45605</v>
+        <v>45601</v>
       </c>
       <c r="C91" s="2">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1697,13 +1697,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C92" s="2">
-        <v>760</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1711,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C93" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45611</v>
+        <v>45607</v>
       </c>
       <c r="C94" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
@@ -1742,10 +1742,10 @@
         <v>45613</v>
       </c>
       <c r="C95" s="2">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1753,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>5</v>
@@ -1770,10 +1770,10 @@
         <v>45614</v>
       </c>
       <c r="C97" s="2">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1781,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45616</v>
+        <v>45615</v>
       </c>
       <c r="C98" s="2">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1798,10 +1798,10 @@
         <v>45617</v>
       </c>
       <c r="C99" s="2">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1812,10 +1812,10 @@
         <v>45619</v>
       </c>
       <c r="C100" s="2">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1826,10 +1826,10 @@
         <v>45620</v>
       </c>
       <c r="C101" s="2">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1840,10 +1840,10 @@
         <v>45621</v>
       </c>
       <c r="C102" s="2">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C103" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>5</v>
@@ -1868,10 +1868,10 @@
         <v>45623</v>
       </c>
       <c r="C104" s="2">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1879,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C105" s="2">
-        <v>707</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
@@ -1893,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>957</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>5</v>
@@ -1907,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C107" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
@@ -1924,7 +1924,7 @@
         <v>45626</v>
       </c>
       <c r="C108" s="2">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1938,10 +1938,10 @@
         <v>45627</v>
       </c>
       <c r="C109" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1952,7 +1952,7 @@
         <v>45627</v>
       </c>
       <c r="C110" s="2">
-        <v>7</v>
+        <v>1018</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>5</v>
@@ -1963,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C111" s="2">
-        <v>337</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
@@ -1977,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45605</v>
+        <v>45628</v>
       </c>
       <c r="C112" s="2">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
@@ -1991,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C113" s="2">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
@@ -2008,10 +2008,10 @@
         <v>45606</v>
       </c>
       <c r="C114" s="2">
-        <v>117</v>
+        <v>499</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2022,10 +2022,10 @@
         <v>45606</v>
       </c>
       <c r="C115" s="2">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2033,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45612</v>
+        <v>45606</v>
       </c>
       <c r="C116" s="2">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2050,10 +2050,10 @@
         <v>45612</v>
       </c>
       <c r="C117" s="2">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2061,10 +2061,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45614</v>
+        <v>45612</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2075,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="C119" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>5</v>
@@ -2092,10 +2092,10 @@
         <v>45615</v>
       </c>
       <c r="C120" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2106,10 +2106,10 @@
         <v>45615</v>
       </c>
       <c r="C121" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2117,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="C122" s="2">
         <v>2</v>
@@ -2131,13 +2131,13 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45619</v>
+        <v>45618</v>
       </c>
       <c r="C123" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2145,13 +2145,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C124" s="2">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2159,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C125" s="2">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>5</v>
@@ -2187,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C127" s="2">
         <v>1</v>
@@ -2204,10 +2204,10 @@
         <v>45622</v>
       </c>
       <c r="C128" s="2">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2215,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C129" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2229,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2246,7 +2246,7 @@
         <v>45624</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -2257,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C132" s="2">
         <v>1</v>
@@ -2274,10 +2274,10 @@
         <v>45625</v>
       </c>
       <c r="C133" s="2">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2288,10 +2288,10 @@
         <v>45625</v>
       </c>
       <c r="C134" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2302,10 +2302,10 @@
         <v>45625</v>
       </c>
       <c r="C135" s="2">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2313,13 +2313,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C136" s="2">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2327,13 +2327,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45628</v>
+        <v>45626</v>
       </c>
       <c r="C137" s="2">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2341,13 +2341,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45604</v>
+        <v>45628</v>
       </c>
       <c r="C138" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2355,13 +2355,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45605</v>
+        <v>45602</v>
       </c>
       <c r="C139" s="2">
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2369,10 +2369,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C140" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>6</v>
@@ -2383,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C141" s="2">
-        <v>47</v>
+        <v>760</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2397,10 +2397,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45613</v>
+        <v>45606</v>
       </c>
       <c r="C142" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>5</v>
@@ -2411,10 +2411,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C143" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>6</v>
@@ -2425,13 +2425,13 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="C144" s="2">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2439,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C145" s="2">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>5</v>
@@ -2453,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45619</v>
+        <v>45614</v>
       </c>
       <c r="C146" s="2">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>5</v>
@@ -2467,13 +2467,13 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C147" s="2">
+        <v>46</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2481,10 +2481,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45621</v>
+        <v>45617</v>
       </c>
       <c r="C148" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
@@ -2495,13 +2495,13 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C149" s="2">
-        <v>454</v>
+        <v>224</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2509,13 +2509,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C150" s="2">
-        <v>284</v>
+        <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2523,13 +2523,13 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C151" s="2">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2537,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -2551,13 +2551,13 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C153" s="2">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2568,7 +2568,7 @@
         <v>45625</v>
       </c>
       <c r="C154" s="2">
-        <v>1</v>
+        <v>707</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>5</v>
@@ -2579,10 +2579,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C155" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>5</v>
@@ -2593,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C156" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>5</v>
@@ -2607,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45628</v>
+        <v>45626</v>
       </c>
       <c r="C157" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>5</v>
@@ -2621,13 +2621,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C158" s="2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2635,10 +2635,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C159" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2649,10 +2649,10 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45601</v>
+        <v>45628</v>
       </c>
       <c r="C160" s="2">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>5</v>
@@ -2663,13 +2663,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C161" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2677,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45605</v>
+        <v>45612</v>
       </c>
       <c r="C162" s="2">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>5</v>
@@ -2691,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2719,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
@@ -2736,10 +2736,10 @@
         <v>45614</v>
       </c>
       <c r="C166" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2750,7 +2750,7 @@
         <v>45615</v>
       </c>
       <c r="C167" s="2">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
@@ -2761,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="C168" s="2">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45619</v>
+        <v>45617</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2789,13 +2789,13 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45620</v>
+        <v>45618</v>
       </c>
       <c r="C170" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2803,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C171" s="2">
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>5</v>
@@ -2817,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45623</v>
+        <v>45620</v>
       </c>
       <c r="C173" s="2">
-        <v>349</v>
+        <v>3</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2845,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C174" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>5</v>
@@ -2859,10 +2859,10 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C175" s="2">
-        <v>957</v>
+        <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>5</v>
@@ -2873,13 +2873,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C176" s="2">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C177" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2901,13 +2901,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C178" s="2">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2918,7 +2918,7 @@
         <v>45627</v>
       </c>
       <c r="C179" s="2">
-        <v>1018</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>5</v>
@@ -2932,7 +2932,7 @@
         <v>45627</v>
       </c>
       <c r="C180" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>5</v>
@@ -2943,13 +2943,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C181" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="10">
   <si>
     <t>Resort</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Uplift Tickets</t>
-  </si>
-  <si>
     <t>Purgatory Tickets</t>
   </si>
   <si>
     <t>Purgatory Coaster</t>
+  </si>
+  <si>
+    <t>Purgatory Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45612</v>
+        <v>45601</v>
       </c>
       <c r="C2" s="2">
-        <v>987</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45613</v>
+        <v>45601</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45614</v>
+        <v>45602</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45615</v>
+        <v>45604</v>
       </c>
       <c r="C5" s="2">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C6" s="2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45617</v>
+        <v>45605</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45618</v>
+        <v>45605</v>
       </c>
       <c r="C9" s="2">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45618</v>
+        <v>45605</v>
       </c>
       <c r="C10" s="2">
-        <v>343</v>
+        <v>760</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -563,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45619</v>
+        <v>45605</v>
       </c>
       <c r="C11" s="2">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45620</v>
+        <v>45605</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45620</v>
+        <v>45605</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45621</v>
+        <v>45605</v>
       </c>
       <c r="C14" s="2">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,13 +619,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45622</v>
+        <v>45606</v>
       </c>
       <c r="C15" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45624</v>
+        <v>45606</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -647,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45624</v>
+        <v>45606</v>
       </c>
       <c r="C17" s="2">
-        <v>113</v>
+        <v>499</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45624</v>
+        <v>45606</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -675,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45625</v>
+        <v>45606</v>
       </c>
       <c r="C19" s="2">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -689,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45626</v>
+        <v>45606</v>
       </c>
       <c r="C20" s="2">
-        <v>410</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45627</v>
+        <v>45607</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45604</v>
+        <v>45610</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45605</v>
+        <v>45610</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45606</v>
+        <v>45611</v>
       </c>
       <c r="C24" s="2">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -759,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45612</v>
+        <v>45611</v>
       </c>
       <c r="C25" s="2">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C26" s="2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,10 +787,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C27" s="2">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -801,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,10 +815,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="C29" s="2">
-        <v>181</v>
+        <v>987</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -829,13 +829,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45619</v>
+        <v>45612</v>
       </c>
       <c r="C30" s="2">
-        <v>623</v>
+        <v>222</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45619</v>
+        <v>45612</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -857,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45621</v>
+        <v>45612</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -871,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45622</v>
+        <v>45612</v>
       </c>
       <c r="C33" s="2">
-        <v>454</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -885,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45622</v>
+        <v>45613</v>
       </c>
       <c r="C34" s="2">
-        <v>284</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45622</v>
+        <v>45613</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45624</v>
+        <v>45613</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -927,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45625</v>
+        <v>45613</v>
       </c>
       <c r="C37" s="2">
-        <v>426</v>
+        <v>769</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45625</v>
+        <v>45613</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45625</v>
+        <v>45613</v>
       </c>
       <c r="C39" s="2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45627</v>
+        <v>45613</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -983,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45628</v>
+        <v>45613</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -997,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45628</v>
+        <v>45614</v>
       </c>
       <c r="C42" s="2">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45628</v>
+        <v>45614</v>
       </c>
       <c r="C43" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45601</v>
+        <v>45614</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1039,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45604</v>
+        <v>45614</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -1053,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45605</v>
+        <v>45614</v>
       </c>
       <c r="C46" s="2">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45605</v>
+        <v>45614</v>
       </c>
       <c r="C47" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1081,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45612</v>
+        <v>45614</v>
       </c>
       <c r="C48" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C49" s="2">
-        <v>769</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1109,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1123,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
@@ -1137,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C53" s="2">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45620</v>
+        <v>45615</v>
       </c>
       <c r="C55" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,13 +1193,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45622</v>
+        <v>45615</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1207,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45623</v>
+        <v>45615</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1221,13 +1221,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45623</v>
+        <v>45615</v>
       </c>
       <c r="C58" s="2">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1235,10 +1235,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45624</v>
+        <v>45615</v>
       </c>
       <c r="C59" s="2">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1249,13 +1249,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45625</v>
+        <v>45616</v>
       </c>
       <c r="C60" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1263,10 +1263,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45625</v>
+        <v>45616</v>
       </c>
       <c r="C61" s="2">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45626</v>
+        <v>45616</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
@@ -1291,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45626</v>
+        <v>45616</v>
       </c>
       <c r="C63" s="2">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1305,13 +1305,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45626</v>
+        <v>45616</v>
       </c>
       <c r="C64" s="2">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45627</v>
+        <v>45616</v>
       </c>
       <c r="C65" s="2">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
@@ -1333,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45628</v>
+        <v>45616</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -1347,13 +1347,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45606</v>
+        <v>45617</v>
       </c>
       <c r="C67" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1361,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45610</v>
+        <v>45617</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45610</v>
+        <v>45617</v>
       </c>
       <c r="C69" s="2">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45612</v>
+        <v>45617</v>
       </c>
       <c r="C70" s="2">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1403,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45612</v>
+        <v>45617</v>
       </c>
       <c r="C71" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -1417,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45613</v>
+        <v>45617</v>
       </c>
       <c r="C72" s="2">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1431,13 +1431,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45614</v>
+        <v>45618</v>
       </c>
       <c r="C73" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1445,13 +1445,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="C74" s="2">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1459,10 +1459,10 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>5</v>
@@ -1473,13 +1473,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="C76" s="2">
         <v>91</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1487,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="C77" s="2">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -1504,10 +1504,10 @@
         <v>45618</v>
       </c>
       <c r="C78" s="2">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1518,10 +1518,10 @@
         <v>45619</v>
       </c>
       <c r="C79" s="2">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1529,10 +1529,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C80" s="2">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
@@ -1543,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C81" s="2">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
@@ -1557,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1571,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C83" s="2">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1585,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45623</v>
+        <v>45619</v>
       </c>
       <c r="C84" s="2">
-        <v>991</v>
+        <v>623</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -1599,13 +1599,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45624</v>
+        <v>45619</v>
       </c>
       <c r="C85" s="2">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45624</v>
+        <v>45619</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45624</v>
+        <v>45619</v>
       </c>
       <c r="C87" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1641,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45625</v>
+        <v>45619</v>
       </c>
       <c r="C88" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -1655,10 +1655,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45626</v>
+        <v>45620</v>
       </c>
       <c r="C89" s="2">
-        <v>1024</v>
+        <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>5</v>
@@ -1669,13 +1669,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45627</v>
+        <v>45620</v>
       </c>
       <c r="C90" s="2">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1683,13 +1683,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45601</v>
+        <v>45620</v>
       </c>
       <c r="C91" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1697,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45604</v>
+        <v>45620</v>
       </c>
       <c r="C92" s="2">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
@@ -1711,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45605</v>
+        <v>45620</v>
       </c>
       <c r="C93" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1725,13 +1725,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45607</v>
+        <v>45620</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1739,13 +1739,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45613</v>
+        <v>45620</v>
       </c>
       <c r="C95" s="2">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1753,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45613</v>
+        <v>45620</v>
       </c>
       <c r="C96" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>5</v>
@@ -1767,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="C97" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45615</v>
+        <v>45620</v>
       </c>
       <c r="C98" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -1795,13 +1795,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="C99" s="2">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1809,13 +1809,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45619</v>
+        <v>45621</v>
       </c>
       <c r="C100" s="2">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1823,13 +1823,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C101" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1840,7 +1840,7 @@
         <v>45621</v>
       </c>
       <c r="C102" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>5</v>
@@ -1851,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C103" s="2">
-        <v>2</v>
+        <v>412</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>5</v>
@@ -1865,13 +1865,13 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C104" s="2">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1879,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -1893,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="C106" s="2">
-        <v>957</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>5</v>
@@ -1907,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45625</v>
+        <v>45621</v>
       </c>
       <c r="C107" s="2">
         <v>1</v>
@@ -1921,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45626</v>
+        <v>45622</v>
       </c>
       <c r="C108" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45627</v>
+        <v>45622</v>
       </c>
       <c r="C109" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
@@ -1949,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45627</v>
+        <v>45622</v>
       </c>
       <c r="C110" s="2">
-        <v>1018</v>
+        <v>71</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>5</v>
@@ -1963,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45627</v>
+        <v>45622</v>
       </c>
       <c r="C111" s="2">
-        <v>9</v>
+        <v>454</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
@@ -1977,13 +1977,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45628</v>
+        <v>45622</v>
       </c>
       <c r="C112" s="2">
-        <v>88</v>
+        <v>284</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1991,13 +1991,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45605</v>
+        <v>45622</v>
       </c>
       <c r="C113" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2005,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45606</v>
+        <v>45622</v>
       </c>
       <c r="C114" s="2">
-        <v>499</v>
+        <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>5</v>
@@ -2019,13 +2019,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45606</v>
+        <v>45622</v>
       </c>
       <c r="C115" s="2">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2033,10 +2033,10 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45606</v>
+        <v>45622</v>
       </c>
       <c r="C116" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>5</v>
@@ -2047,13 +2047,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45612</v>
+        <v>45623</v>
       </c>
       <c r="C117" s="2">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2061,10 +2061,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45612</v>
+        <v>45623</v>
       </c>
       <c r="C118" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2075,13 +2075,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="C119" s="2">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2089,10 +2089,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45615</v>
+        <v>45623</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>5</v>
@@ -2103,13 +2103,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45615</v>
+        <v>45623</v>
       </c>
       <c r="C121" s="2">
-        <v>36</v>
+        <v>991</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2117,13 +2117,13 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45615</v>
+        <v>45623</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2131,13 +2131,13 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45618</v>
+        <v>45623</v>
       </c>
       <c r="C123" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2145,13 +2145,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45619</v>
+        <v>45623</v>
       </c>
       <c r="C124" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2159,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="C125" s="2">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>5</v>
@@ -2173,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="C126" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>5</v>
@@ -2187,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="C127" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
@@ -2201,13 +2201,13 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2215,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="C129" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>6</v>
@@ -2229,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C130" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2246,7 +2246,7 @@
         <v>45624</v>
       </c>
       <c r="C131" s="2">
-        <v>3</v>
+        <v>957</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -2260,10 +2260,10 @@
         <v>45624</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2271,13 +2271,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C133" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2285,13 +2285,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C134" s="2">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2299,13 +2299,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C135" s="2">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2313,13 +2313,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C136" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2327,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C137" s="2">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
@@ -2341,13 +2341,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45628</v>
+        <v>45624</v>
       </c>
       <c r="C138" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2355,13 +2355,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45602</v>
+        <v>45625</v>
       </c>
       <c r="C139" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2369,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45605</v>
+        <v>45625</v>
       </c>
       <c r="C140" s="2">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2383,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45605</v>
+        <v>45625</v>
       </c>
       <c r="C141" s="2">
-        <v>760</v>
+        <v>159</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2397,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="C142" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2411,13 +2411,13 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45611</v>
+        <v>45625</v>
       </c>
       <c r="C143" s="2">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2425,13 +2425,13 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45613</v>
+        <v>45625</v>
       </c>
       <c r="C144" s="2">
-        <v>153</v>
+        <v>707</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2439,13 +2439,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45614</v>
+        <v>45625</v>
       </c>
       <c r="C145" s="2">
-        <v>2</v>
+        <v>426</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2453,13 +2453,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45614</v>
+        <v>45625</v>
       </c>
       <c r="C146" s="2">
         <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2467,13 +2467,13 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45616</v>
+        <v>45625</v>
       </c>
       <c r="C147" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2481,10 +2481,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45617</v>
+        <v>45625</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
@@ -2495,13 +2495,13 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45619</v>
+        <v>45625</v>
       </c>
       <c r="C149" s="2">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2509,10 +2509,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45620</v>
+        <v>45625</v>
       </c>
       <c r="C150" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>5</v>
@@ -2523,13 +2523,13 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45621</v>
+        <v>45625</v>
       </c>
       <c r="C151" s="2">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2537,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="C152" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -2551,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="C153" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
@@ -2565,13 +2565,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C154" s="2">
-        <v>707</v>
+        <v>297</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2582,10 +2582,10 @@
         <v>45626</v>
       </c>
       <c r="C155" s="2">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2596,7 +2596,7 @@
         <v>45626</v>
       </c>
       <c r="C156" s="2">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>5</v>
@@ -2610,7 +2610,7 @@
         <v>45626</v>
       </c>
       <c r="C157" s="2">
-        <v>37</v>
+        <v>1024</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>5</v>
@@ -2621,13 +2621,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C158" s="2">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2635,10 +2635,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C159" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2649,10 +2649,10 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45628</v>
+        <v>45626</v>
       </c>
       <c r="C160" s="2">
-        <v>337</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>5</v>
@@ -2663,10 +2663,10 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45611</v>
+        <v>45626</v>
       </c>
       <c r="C161" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>5</v>
@@ -2677,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45612</v>
+        <v>45626</v>
       </c>
       <c r="C162" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>5</v>
@@ -2691,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45613</v>
+        <v>45627</v>
       </c>
       <c r="C163" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
@@ -2705,13 +2705,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45614</v>
+        <v>45627</v>
       </c>
       <c r="C164" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2719,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45614</v>
+        <v>45627</v>
       </c>
       <c r="C165" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
@@ -2733,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45614</v>
+        <v>45627</v>
       </c>
       <c r="C166" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>5</v>
@@ -2747,13 +2747,13 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45615</v>
+        <v>45627</v>
       </c>
       <c r="C167" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45616</v>
+        <v>45627</v>
       </c>
       <c r="C168" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45617</v>
+        <v>45627</v>
       </c>
       <c r="C169" s="2">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2789,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45618</v>
+        <v>45627</v>
       </c>
       <c r="C170" s="2">
-        <v>77</v>
+        <v>1018</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
@@ -2803,13 +2803,13 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45620</v>
+        <v>45627</v>
       </c>
       <c r="C171" s="2">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2817,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45620</v>
+        <v>45627</v>
       </c>
       <c r="C172" s="2">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2831,10 +2831,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45620</v>
+        <v>45627</v>
       </c>
       <c r="C173" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>5</v>
@@ -2845,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="C174" s="2">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>5</v>
@@ -2859,10 +2859,10 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="C175" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>5</v>
@@ -2873,13 +2873,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="C176" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="C177" s="2">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2901,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45626</v>
+        <v>45628</v>
       </c>
       <c r="C178" s="2">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>5</v>
@@ -2915,13 +2915,13 @@
         <v>4</v>
       </c>
       <c r="B179" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C179" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2929,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="B180" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C180" s="2">
         <v>1</v>
@@ -2943,13 +2943,797 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C181" s="2">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C182" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C183" s="2">
+        <v>21</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C184" s="2">
+        <v>99</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C185" s="2">
+        <v>368</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C186" s="2">
+        <v>85</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C188" s="2">
+        <v>5</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C189" s="2">
+        <v>20</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C190" s="2">
+        <v>117</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C191" s="2">
+        <v>392</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C192" s="2">
+        <v>90</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C193" s="2">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C194" s="2">
+        <v>3</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C195" s="2">
+        <v>2</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C197" s="2">
+        <v>16</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C198" s="2">
+        <v>86</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C199" s="2">
+        <v>417</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C200" s="2">
+        <v>89</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C201" s="2">
+        <v>2</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C202" s="2">
+        <v>7</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C205" s="2">
+        <v>27</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C206" s="2">
+        <v>114</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C207" s="2">
+        <v>580</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C208" s="2">
+        <v>113</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C209" s="2">
+        <v>5</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C210" s="2">
+        <v>3</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C211" s="2">
+        <v>60</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C212" s="2">
+        <v>62</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C213" s="2">
+        <v>149</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1558</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C215" s="2">
+        <v>295</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C216" s="2">
+        <v>2</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C218" s="2">
+        <v>11</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C221" s="2">
+        <v>3</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C222" s="2">
+        <v>160</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C223" s="2">
+        <v>59</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C224" s="2">
+        <v>168</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1260</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C226" s="2">
+        <v>160</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C227" s="2">
+        <v>5</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C228" s="2">
+        <v>2</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C229" s="2">
+        <v>13</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C230" s="2">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C231" s="2">
+        <v>84</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C232" s="2">
+        <v>360</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C233" s="2">
+        <v>135</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C234" s="2">
+        <v>2</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C235" s="2">
+        <v>2</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C236" s="2">
+        <v>1</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C237" s="2">
+        <v>10</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
-  </si>
-  <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45601</v>
+        <v>45597</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -451,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -465,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -482,10 +479,10 @@
         <v>45604</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -496,7 +493,7 @@
         <v>45604</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -510,10 +507,10 @@
         <v>45604</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C8" s="2">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C9" s="2">
-        <v>58</v>
+        <v>789</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -549,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C10" s="2">
-        <v>760</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -566,10 +563,10 @@
         <v>45605</v>
       </c>
       <c r="C11" s="2">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -580,7 +577,7 @@
         <v>45605</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -594,10 +591,10 @@
         <v>45605</v>
       </c>
       <c r="C13" s="2">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -608,7 +605,7 @@
         <v>45605</v>
       </c>
       <c r="C14" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -619,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C15" s="2">
-        <v>127</v>
+        <v>512</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C16" s="2">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C17" s="2">
-        <v>499</v>
+        <v>187</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -664,10 +661,10 @@
         <v>45606</v>
       </c>
       <c r="C18" s="2">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -678,7 +675,7 @@
         <v>45606</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -692,7 +689,7 @@
         <v>45606</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -703,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -717,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45610</v>
+        <v>45606</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45610</v>
+        <v>45606</v>
       </c>
       <c r="C23" s="2">
-        <v>6</v>
+        <v>549</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45611</v>
+        <v>45606</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45611</v>
+        <v>45606</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C27" s="2">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C28" s="2">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -815,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C29" s="2">
-        <v>987</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C30" s="2">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>904</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -857,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C32" s="2">
-        <v>12</v>
+        <v>473</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C33" s="2">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -899,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C35" s="2">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -913,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C36" s="2">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -927,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C37" s="2">
-        <v>769</v>
+        <v>235</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -941,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C38" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>7</v>
@@ -955,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C39" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45613</v>
+        <v>45609</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -983,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45613</v>
+        <v>45609</v>
       </c>
       <c r="C41" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45614</v>
+        <v>45609</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1011,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45614</v>
+        <v>45609</v>
       </c>
       <c r="C43" s="2">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45614</v>
+        <v>45609</v>
       </c>
       <c r="C44" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45614</v>
+        <v>45609</v>
       </c>
       <c r="C45" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C46" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1095,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1109,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45615</v>
+        <v>45610</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C52" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1151,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C53" s="2">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1165,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C54" s="2">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C55" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1207,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1221,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1235,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C59" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1249,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="C60" s="2">
-        <v>15</v>
+        <v>614</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1263,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="C61" s="2">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1277,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="C62" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1291,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C63" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1305,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C64" s="2">
         <v>3</v>
@@ -1319,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1333,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C66" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -1347,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45617</v>
+        <v>45613</v>
       </c>
       <c r="C67" s="2">
-        <v>10</v>
+        <v>606</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1361,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45617</v>
+        <v>45613</v>
       </c>
       <c r="C68" s="2">
-        <v>91</v>
+        <v>468</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45617</v>
+        <v>45613</v>
       </c>
       <c r="C69" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="C70" s="2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1403,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -1417,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="C72" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1431,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45618</v>
+        <v>45614</v>
       </c>
       <c r="C73" s="2">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1445,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45618</v>
+        <v>45614</v>
       </c>
       <c r="C74" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1459,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45618</v>
+        <v>45614</v>
       </c>
       <c r="C75" s="2">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45618</v>
+        <v>45614</v>
       </c>
       <c r="C76" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1487,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="C77" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -1501,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C79" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -1529,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C80" s="2">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
@@ -1543,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C81" s="2">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C82" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1571,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C83" s="2">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -1585,10 +1582,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C84" s="2">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -1599,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C85" s="2">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1613,10 +1610,10 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>5</v>
@@ -1627,10 +1624,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1641,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C88" s="2">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1655,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45620</v>
+        <v>45616</v>
       </c>
       <c r="C89" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1669,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C90" s="2">
         <v>3</v>
@@ -1683,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C91" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1697,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C92" s="2">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
@@ -1711,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C93" s="2">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1725,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C94" s="2">
-        <v>541</v>
+        <v>272</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -1739,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C95" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>7</v>
@@ -1753,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1767,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45620</v>
+        <v>45618</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
@@ -1781,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45620</v>
+        <v>45618</v>
       </c>
       <c r="C98" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -1795,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C99" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1809,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C100" s="2">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1823,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C101" s="2">
-        <v>78</v>
+        <v>770</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1837,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C102" s="2">
-        <v>75</v>
+        <v>482</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C103" s="2">
-        <v>412</v>
+        <v>60</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1865,13 +1862,13 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C104" s="2">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1879,10 +1876,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C105" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
@@ -1893,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1907,10 +1904,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C107" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
@@ -1921,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>779</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1935,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C109" s="2">
-        <v>88</v>
+        <v>719</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1949,13 +1946,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C110" s="2">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1963,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C111" s="2">
-        <v>454</v>
+        <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
@@ -1977,13 +1974,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C112" s="2">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1991,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C113" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2005,10 +2002,10 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C114" s="2">
-        <v>2</v>
+        <v>670</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>5</v>
@@ -2019,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2033,13 +2030,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C116" s="2">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2047,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45623</v>
+        <v>45620</v>
       </c>
       <c r="C117" s="2">
         <v>1</v>
@@ -2061,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C118" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2075,13 +2072,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C119" s="2">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2089,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C120" s="2">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>5</v>
@@ -2103,13 +2100,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C121" s="2">
-        <v>991</v>
+        <v>77</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2117,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C122" s="2">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2131,13 +2128,13 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C123" s="2">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2145,13 +2142,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C124" s="2">
-        <v>3</v>
+        <v>529</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2159,13 +2156,13 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C125" s="2">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2173,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C126" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>5</v>
@@ -2187,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C127" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
@@ -2201,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C128" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2215,10 +2212,10 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C129" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>6</v>
@@ -2229,10 +2226,10 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C130" s="2">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2243,10 +2240,10 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C131" s="2">
-        <v>957</v>
+        <v>415</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -2257,10 +2254,10 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C132" s="2">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>7</v>
@@ -2271,13 +2268,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C133" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2285,10 +2282,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C134" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>5</v>
@@ -2299,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
@@ -2313,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C136" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>5</v>
@@ -2327,10 +2324,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C137" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
@@ -2341,10 +2338,10 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C138" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>5</v>
@@ -2355,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C139" s="2">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2369,10 +2366,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C140" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>5</v>
@@ -2383,13 +2380,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C141" s="2">
-        <v>159</v>
+        <v>608</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2397,13 +2394,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C142" s="2">
-        <v>132</v>
+        <v>802</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2411,13 +2408,13 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C143" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2425,10 +2422,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C144" s="2">
-        <v>707</v>
+        <v>3</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
@@ -2439,13 +2436,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C145" s="2">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2453,13 +2450,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C146" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2467,13 +2464,13 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C147" s="2">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2481,10 +2478,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C148" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
@@ -2495,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C149" s="2">
-        <v>4</v>
+        <v>583</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2509,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C150" s="2">
-        <v>1</v>
+        <v>824</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2523,13 +2520,13 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C151" s="2">
-        <v>28</v>
+        <v>326</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2537,10 +2534,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -2551,10 +2548,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C153" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
@@ -2565,13 +2562,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C154" s="2">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2579,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C155" s="2">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2593,10 +2590,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C156" s="2">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>5</v>
@@ -2607,13 +2604,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C157" s="2">
-        <v>1024</v>
+        <v>162</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2621,13 +2618,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C158" s="2">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2635,10 +2632,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C159" s="2">
-        <v>1</v>
+        <v>935</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2649,13 +2646,13 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C160" s="2">
-        <v>9</v>
+        <v>1117</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2663,13 +2660,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C161" s="2">
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2677,10 +2674,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C162" s="2">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>5</v>
@@ -2691,10 +2688,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
@@ -2705,10 +2702,10 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C164" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>5</v>
@@ -2719,13 +2716,13 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C165" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2733,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C166" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>5</v>
@@ -2747,13 +2744,13 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C167" s="2">
-        <v>38</v>
+        <v>757</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2761,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C168" s="2">
-        <v>50</v>
+        <v>785</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2775,13 +2772,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C169" s="2">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2789,10 +2786,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C170" s="2">
-        <v>1018</v>
+        <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
@@ -2806,10 +2803,10 @@
         <v>45627</v>
       </c>
       <c r="C171" s="2">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2820,7 +2817,7 @@
         <v>45627</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>5</v>
@@ -2848,10 +2845,10 @@
         <v>45627</v>
       </c>
       <c r="C174" s="2">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2859,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C175" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>5</v>
@@ -2873,13 +2870,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C176" s="2">
-        <v>15</v>
+        <v>637</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2887,13 +2884,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C177" s="2">
-        <v>88</v>
+        <v>786</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2901,13 +2898,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C178" s="2">
-        <v>337</v>
+        <v>160</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2918,10 +2915,10 @@
         <v>45628</v>
       </c>
       <c r="C179" s="2">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2932,7 +2929,7 @@
         <v>45628</v>
       </c>
       <c r="C180" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>5</v>
@@ -2946,7 +2943,7 @@
         <v>45628</v>
       </c>
       <c r="C181" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>5</v>
@@ -2957,13 +2954,13 @@
         <v>4</v>
       </c>
       <c r="B182" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C182" s="2">
-        <v>-3</v>
+        <v>53</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2971,13 +2968,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C183" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2985,10 +2982,10 @@
         <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C184" s="2">
-        <v>99</v>
+        <v>388</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>5</v>
@@ -2999,13 +2996,13 @@
         <v>4</v>
       </c>
       <c r="B185" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C185" s="2">
-        <v>368</v>
+        <v>476</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3013,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="B186" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C186" s="2">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3030,7 +3027,7 @@
         <v>45629</v>
       </c>
       <c r="C187" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
@@ -3044,7 +3041,7 @@
         <v>45629</v>
       </c>
       <c r="C188" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>5</v>
@@ -3055,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C189" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3069,13 +3066,13 @@
         <v>4</v>
       </c>
       <c r="B190" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C190" s="2">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3083,10 +3080,10 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C191" s="2">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>5</v>
@@ -3097,13 +3094,13 @@
         <v>4</v>
       </c>
       <c r="B192" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C192" s="2">
-        <v>90</v>
+        <v>384</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3111,13 +3108,13 @@
         <v>4</v>
       </c>
       <c r="B193" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C193" s="2">
-        <v>2</v>
+        <v>455</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3125,13 +3122,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C194" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3142,7 +3139,7 @@
         <v>45630</v>
       </c>
       <c r="C195" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>5</v>
@@ -3153,10 +3150,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C196" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>5</v>
@@ -3167,10 +3164,10 @@
         <v>4</v>
       </c>
       <c r="B197" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C197" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>6</v>
@@ -3181,10 +3178,10 @@
         <v>4</v>
       </c>
       <c r="B198" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C198" s="2">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>5</v>
@@ -3195,10 +3192,10 @@
         <v>4</v>
       </c>
       <c r="B199" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C199" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>5</v>
@@ -3209,10 +3206,10 @@
         <v>4</v>
       </c>
       <c r="B200" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C200" s="2">
-        <v>89</v>
+        <v>485</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>7</v>
@@ -3223,13 +3220,13 @@
         <v>4</v>
       </c>
       <c r="B201" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C201" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3240,7 +3237,7 @@
         <v>45631</v>
       </c>
       <c r="C202" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>5</v>
@@ -3251,10 +3248,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C203" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>5</v>
@@ -3265,13 +3262,13 @@
         <v>4</v>
       </c>
       <c r="B204" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C204" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3279,13 +3276,13 @@
         <v>4</v>
       </c>
       <c r="B205" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C205" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3293,10 +3290,10 @@
         <v>4</v>
       </c>
       <c r="B206" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C206" s="2">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>5</v>
@@ -3307,13 +3304,13 @@
         <v>4</v>
       </c>
       <c r="B207" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C207" s="2">
-        <v>580</v>
+        <v>383</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3321,13 +3318,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C208" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3338,7 +3335,7 @@
         <v>45632</v>
       </c>
       <c r="C209" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>5</v>
@@ -3349,13 +3346,13 @@
         <v>4</v>
       </c>
       <c r="B210" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C210" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3363,13 +3360,13 @@
         <v>4</v>
       </c>
       <c r="B211" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C211" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3377,13 +3374,13 @@
         <v>4</v>
       </c>
       <c r="B212" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C212" s="2">
-        <v>62</v>
+        <v>893</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3391,13 +3388,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C213" s="2">
-        <v>149</v>
+        <v>711</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3405,13 +3402,13 @@
         <v>4</v>
       </c>
       <c r="B214" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C214" s="2">
-        <v>1558</v>
+        <v>50</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3422,10 +3419,10 @@
         <v>45633</v>
       </c>
       <c r="C215" s="2">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3436,7 +3433,7 @@
         <v>45633</v>
       </c>
       <c r="C216" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>5</v>
@@ -3450,7 +3447,7 @@
         <v>45633</v>
       </c>
       <c r="C217" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>5</v>
@@ -3464,10 +3461,10 @@
         <v>45633</v>
       </c>
       <c r="C218" s="2">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3475,10 +3472,10 @@
         <v>4</v>
       </c>
       <c r="B219" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C219" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>5</v>
@@ -3489,10 +3486,10 @@
         <v>4</v>
       </c>
       <c r="B220" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C220" s="2">
-        <v>1</v>
+        <v>881</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>5</v>
@@ -3503,13 +3500,13 @@
         <v>4</v>
       </c>
       <c r="B221" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C221" s="2">
-        <v>3</v>
+        <v>1404</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3517,10 +3514,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C222" s="2">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>8</v>
@@ -3534,10 +3531,10 @@
         <v>45634</v>
       </c>
       <c r="C223" s="2">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3548,7 +3545,7 @@
         <v>45634</v>
       </c>
       <c r="C224" s="2">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>5</v>
@@ -3562,7 +3559,7 @@
         <v>45634</v>
       </c>
       <c r="C225" s="2">
-        <v>1260</v>
+        <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>5</v>
@@ -3576,10 +3573,10 @@
         <v>45634</v>
       </c>
       <c r="C226" s="2">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3590,10 +3587,10 @@
         <v>45634</v>
       </c>
       <c r="C227" s="2">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3604,7 +3601,7 @@
         <v>45634</v>
       </c>
       <c r="C228" s="2">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>5</v>
@@ -3618,7 +3615,7 @@
         <v>45634</v>
       </c>
       <c r="C229" s="2">
-        <v>13</v>
+        <v>854</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>5</v>
@@ -3629,13 +3626,13 @@
         <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C230" s="2">
-        <v>25</v>
+        <v>945</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3643,13 +3640,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C231" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3660,7 +3657,7 @@
         <v>45635</v>
       </c>
       <c r="C232" s="2">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>5</v>
@@ -3674,10 +3671,10 @@
         <v>45635</v>
       </c>
       <c r="C233" s="2">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3688,10 +3685,10 @@
         <v>45635</v>
       </c>
       <c r="C234" s="2">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3702,7 +3699,7 @@
         <v>45635</v>
       </c>
       <c r="C235" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>5</v>
@@ -3716,7 +3713,7 @@
         <v>45635</v>
       </c>
       <c r="C236" s="2">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>5</v>
@@ -3730,10 +3727,24 @@
         <v>45635</v>
       </c>
       <c r="C237" s="2">
-        <v>10</v>
+        <v>735</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C238" s="2">
+        <v>2</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="10">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,22 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -451,7 +454,7 @@
         <v>45604</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -462,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45604</v>
+        <v>45612</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45604</v>
+        <v>45613</v>
       </c>
       <c r="C7" s="2">
-        <v>18</v>
+        <v>769</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45604</v>
+        <v>45615</v>
       </c>
       <c r="C8" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -532,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45604</v>
+        <v>45618</v>
       </c>
       <c r="C9" s="2">
-        <v>789</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -546,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45604</v>
+        <v>45619</v>
       </c>
       <c r="C10" s="2">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45605</v>
+        <v>45619</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -574,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45605</v>
+        <v>45619</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -588,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45605</v>
+        <v>45620</v>
       </c>
       <c r="C13" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45605</v>
+        <v>45622</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -616,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45605</v>
+        <v>45623</v>
       </c>
       <c r="C15" s="2">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -630,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45605</v>
+        <v>45623</v>
       </c>
       <c r="C16" s="2">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45605</v>
+        <v>45624</v>
       </c>
       <c r="C17" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -672,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -686,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45606</v>
+        <v>45626</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -700,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45606</v>
+        <v>45626</v>
       </c>
       <c r="C21" s="2">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45606</v>
+        <v>45626</v>
       </c>
       <c r="C22" s="2">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45606</v>
+        <v>45627</v>
       </c>
       <c r="C23" s="2">
-        <v>549</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -742,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45606</v>
+        <v>45628</v>
       </c>
       <c r="C24" s="2">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45606</v>
+        <v>45629</v>
       </c>
       <c r="C25" s="2">
-        <v>211</v>
+        <v>-3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45607</v>
+        <v>45629</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,10 +787,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45607</v>
+        <v>45630</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -798,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45607</v>
+        <v>45631</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -812,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45607</v>
+        <v>45632</v>
       </c>
       <c r="C29" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45607</v>
+        <v>45633</v>
       </c>
       <c r="C30" s="2">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45607</v>
+        <v>45633</v>
       </c>
       <c r="C31" s="2">
-        <v>904</v>
+        <v>1558</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -854,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45607</v>
+        <v>45634</v>
       </c>
       <c r="C32" s="2">
-        <v>473</v>
+        <v>160</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +871,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45607</v>
+        <v>45634</v>
       </c>
       <c r="C33" s="2">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45608</v>
+        <v>45606</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -896,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="C36" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="C37" s="2">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -938,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="C38" s="2">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45608</v>
+        <v>45613</v>
       </c>
       <c r="C39" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
@@ -966,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45609</v>
+        <v>45614</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -980,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45609</v>
+        <v>45616</v>
       </c>
       <c r="C41" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45609</v>
+        <v>45616</v>
       </c>
       <c r="C42" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1008,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45609</v>
+        <v>45617</v>
       </c>
       <c r="C43" s="2">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1022,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45609</v>
+        <v>45617</v>
       </c>
       <c r="C44" s="2">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45609</v>
+        <v>45618</v>
       </c>
       <c r="C45" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45610</v>
+        <v>45619</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45610</v>
+        <v>45620</v>
       </c>
       <c r="C47" s="2">
-        <v>8</v>
+        <v>541</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45610</v>
+        <v>45621</v>
       </c>
       <c r="C48" s="2">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45610</v>
+        <v>45621</v>
       </c>
       <c r="C49" s="2">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1106,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45610</v>
+        <v>45622</v>
       </c>
       <c r="C50" s="2">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45610</v>
+        <v>45623</v>
       </c>
       <c r="C51" s="2">
-        <v>28</v>
+        <v>991</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45611</v>
+        <v>45624</v>
       </c>
       <c r="C52" s="2">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1148,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45611</v>
+        <v>45624</v>
       </c>
       <c r="C53" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1162,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45611</v>
+        <v>45624</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45611</v>
+        <v>45625</v>
       </c>
       <c r="C55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45612</v>
+        <v>45626</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>1024</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1204,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45612</v>
+        <v>45627</v>
       </c>
       <c r="C57" s="2">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1221,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45612</v>
+        <v>45634</v>
       </c>
       <c r="C58" s="2">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,10 +1235,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45612</v>
+        <v>45635</v>
       </c>
       <c r="C59" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1246,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45612</v>
+        <v>45611</v>
       </c>
       <c r="C60" s="2">
-        <v>614</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1263,10 +1266,10 @@
         <v>45612</v>
       </c>
       <c r="C61" s="2">
-        <v>456</v>
+        <v>129</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C62" s="2">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C64" s="2">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -1316,13 +1319,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="C65" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45613</v>
+        <v>45615</v>
       </c>
       <c r="C66" s="2">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -1344,10 +1347,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="C67" s="2">
-        <v>606</v>
+        <v>3</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -1358,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45613</v>
+        <v>45617</v>
       </c>
       <c r="C68" s="2">
-        <v>468</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45613</v>
+        <v>45618</v>
       </c>
       <c r="C69" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="C70" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -1400,13 +1403,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="C72" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45614</v>
+        <v>45621</v>
       </c>
       <c r="C73" s="2">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
@@ -1442,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="C74" s="2">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1456,13 +1459,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="C75" s="2">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,13 +1473,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45614</v>
+        <v>45624</v>
       </c>
       <c r="C76" s="2">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45615</v>
+        <v>45626</v>
       </c>
       <c r="C77" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -1498,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45615</v>
+        <v>45627</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,10 +1515,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45615</v>
+        <v>45627</v>
       </c>
       <c r="C79" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -1526,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45615</v>
+        <v>45627</v>
       </c>
       <c r="C80" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45615</v>
+        <v>45630</v>
       </c>
       <c r="C81" s="2">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45615</v>
+        <v>45633</v>
       </c>
       <c r="C82" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1568,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45616</v>
+        <v>45633</v>
       </c>
       <c r="C83" s="2">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45616</v>
+        <v>45635</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -1596,13 +1599,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45616</v>
+        <v>45602</v>
       </c>
       <c r="C85" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1613,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45616</v>
+        <v>45605</v>
       </c>
       <c r="C86" s="2">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45616</v>
+        <v>45605</v>
       </c>
       <c r="C87" s="2">
-        <v>317</v>
+        <v>760</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1638,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45616</v>
+        <v>45606</v>
       </c>
       <c r="C88" s="2">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,10 +1655,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45616</v>
+        <v>45611</v>
       </c>
       <c r="C89" s="2">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
@@ -1666,13 +1669,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45617</v>
+        <v>45613</v>
       </c>
       <c r="C90" s="2">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1680,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="C91" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
@@ -1694,13 +1697,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="C92" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,13 +1711,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="C93" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1725,7 +1728,7 @@
         <v>45617</v>
       </c>
       <c r="C94" s="2">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -1736,13 +1739,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45617</v>
+        <v>45619</v>
       </c>
       <c r="C95" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1753,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45617</v>
+        <v>45620</v>
       </c>
       <c r="C96" s="2">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="C97" s="2">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1778,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45618</v>
+        <v>45623</v>
       </c>
       <c r="C98" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -1792,13 +1795,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45618</v>
+        <v>45623</v>
       </c>
       <c r="C99" s="2">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1806,10 +1809,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C100" s="2">
-        <v>53</v>
+        <v>707</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
@@ -1820,10 +1823,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45618</v>
+        <v>45626</v>
       </c>
       <c r="C101" s="2">
-        <v>770</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
@@ -1834,13 +1837,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45618</v>
+        <v>45626</v>
       </c>
       <c r="C102" s="2">
-        <v>482</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1848,13 +1851,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45618</v>
+        <v>45626</v>
       </c>
       <c r="C103" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1862,10 +1865,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45619</v>
+        <v>45627</v>
       </c>
       <c r="C104" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
@@ -1876,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45619</v>
+        <v>45627</v>
       </c>
       <c r="C105" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
@@ -1890,13 +1893,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45619</v>
+        <v>45628</v>
       </c>
       <c r="C106" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45619</v>
+        <v>45629</v>
       </c>
       <c r="C107" s="2">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
@@ -1918,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45619</v>
+        <v>45630</v>
       </c>
       <c r="C108" s="2">
-        <v>779</v>
+        <v>3</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1932,13 +1935,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45619</v>
+        <v>45631</v>
       </c>
       <c r="C109" s="2">
-        <v>719</v>
+        <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1946,13 +1949,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45619</v>
+        <v>45631</v>
       </c>
       <c r="C110" s="2">
-        <v>163</v>
+        <v>417</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1960,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45620</v>
+        <v>45632</v>
       </c>
       <c r="C111" s="2">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
@@ -1974,13 +1977,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45620</v>
+        <v>45632</v>
       </c>
       <c r="C112" s="2">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1988,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45620</v>
+        <v>45633</v>
       </c>
       <c r="C113" s="2">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
@@ -2002,13 +2005,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45620</v>
+        <v>45634</v>
       </c>
       <c r="C114" s="2">
-        <v>670</v>
+        <v>59</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2016,13 +2019,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45620</v>
+        <v>45634</v>
       </c>
       <c r="C115" s="2">
-        <v>681</v>
+        <v>1260</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45620</v>
+        <v>45635</v>
       </c>
       <c r="C116" s="2">
-        <v>298</v>
+        <v>84</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2044,10 +2047,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45620</v>
+        <v>45635</v>
       </c>
       <c r="C117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>5</v>
@@ -2058,10 +2061,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45621</v>
+        <v>45601</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2072,13 +2075,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45621</v>
+        <v>45604</v>
       </c>
       <c r="C119" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2086,10 +2089,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45621</v>
+        <v>45605</v>
       </c>
       <c r="C120" s="2">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>5</v>
@@ -2100,13 +2103,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45621</v>
+        <v>45607</v>
       </c>
       <c r="C121" s="2">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,10 +2117,10 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="C122" s="2">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>5</v>
@@ -2128,10 +2131,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="C123" s="2">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
@@ -2142,13 +2145,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="C124" s="2">
-        <v>529</v>
+        <v>60</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2156,13 +2159,13 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45621</v>
+        <v>45615</v>
       </c>
       <c r="C125" s="2">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2170,13 +2173,13 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45622</v>
+        <v>45617</v>
       </c>
       <c r="C126" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2184,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C127" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
@@ -2198,13 +2201,13 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C128" s="2">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2212,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C129" s="2">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2229,7 +2232,7 @@
         <v>45622</v>
       </c>
       <c r="C130" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2240,13 +2243,13 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C131" s="2">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2254,13 +2257,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C132" s="2">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2268,13 +2271,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="C133" s="2">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2282,10 +2285,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C134" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>5</v>
@@ -2296,10 +2299,10 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="C135" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>5</v>
@@ -2310,13 +2313,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45623</v>
+        <v>45627</v>
       </c>
       <c r="C136" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2324,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45623</v>
+        <v>45627</v>
       </c>
       <c r="C137" s="2">
-        <v>12</v>
+        <v>1018</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
@@ -2338,10 +2341,10 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45623</v>
+        <v>45627</v>
       </c>
       <c r="C138" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>5</v>
@@ -2352,13 +2355,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="C139" s="2">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2366,10 +2369,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="C140" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>5</v>
@@ -2380,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45623</v>
+        <v>45630</v>
       </c>
       <c r="C141" s="2">
-        <v>608</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2394,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45623</v>
+        <v>45630</v>
       </c>
       <c r="C142" s="2">
-        <v>802</v>
+        <v>392</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2408,13 +2411,13 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45623</v>
+        <v>45630</v>
       </c>
       <c r="C143" s="2">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2422,10 +2425,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45624</v>
+        <v>45630</v>
       </c>
       <c r="C144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
@@ -2436,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45624</v>
+        <v>45631</v>
       </c>
       <c r="C145" s="2">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>5</v>
@@ -2450,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45624</v>
+        <v>45632</v>
       </c>
       <c r="C146" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>5</v>
@@ -2464,13 +2467,13 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45624</v>
+        <v>45633</v>
       </c>
       <c r="C147" s="2">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2478,10 +2481,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45624</v>
+        <v>45633</v>
       </c>
       <c r="C148" s="2">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
@@ -2492,10 +2495,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45624</v>
+        <v>45634</v>
       </c>
       <c r="C149" s="2">
-        <v>583</v>
+        <v>168</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2506,13 +2509,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45624</v>
+        <v>45605</v>
       </c>
       <c r="C150" s="2">
-        <v>824</v>
+        <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2520,13 +2523,13 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45624</v>
+        <v>45606</v>
       </c>
       <c r="C151" s="2">
-        <v>326</v>
+        <v>499</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2534,13 +2537,13 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45625</v>
+        <v>45606</v>
       </c>
       <c r="C152" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2548,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45625</v>
+        <v>45606</v>
       </c>
       <c r="C153" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
@@ -2562,13 +2565,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45625</v>
+        <v>45612</v>
       </c>
       <c r="C154" s="2">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2576,10 +2579,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45625</v>
+        <v>45612</v>
       </c>
       <c r="C155" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>5</v>
@@ -2590,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45625</v>
+        <v>45614</v>
       </c>
       <c r="C156" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>5</v>
@@ -2604,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45625</v>
+        <v>45615</v>
       </c>
       <c r="C157" s="2">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2618,13 +2621,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45625</v>
+        <v>45615</v>
       </c>
       <c r="C158" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2632,10 +2635,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45625</v>
+        <v>45615</v>
       </c>
       <c r="C159" s="2">
-        <v>935</v>
+        <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2646,13 +2649,13 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45625</v>
+        <v>45618</v>
       </c>
       <c r="C160" s="2">
-        <v>1117</v>
+        <v>2</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2660,13 +2663,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45625</v>
+        <v>45619</v>
       </c>
       <c r="C161" s="2">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2674,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45625</v>
+        <v>45620</v>
       </c>
       <c r="C162" s="2">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>5</v>
@@ -2688,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45626</v>
+        <v>45621</v>
       </c>
       <c r="C163" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
@@ -2702,10 +2705,10 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45626</v>
+        <v>45621</v>
       </c>
       <c r="C164" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>5</v>
@@ -2716,13 +2719,13 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45626</v>
+        <v>45622</v>
       </c>
       <c r="C165" s="2">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2730,13 +2733,13 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45626</v>
+        <v>45622</v>
       </c>
       <c r="C166" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2744,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45626</v>
+        <v>45623</v>
       </c>
       <c r="C167" s="2">
-        <v>757</v>
+        <v>124</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
@@ -2758,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C168" s="2">
-        <v>785</v>
+        <v>3</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2772,13 +2775,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C169" s="2">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2786,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C170" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
@@ -2800,13 +2803,13 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C171" s="2">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2814,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C172" s="2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2828,13 +2831,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C173" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2842,13 +2845,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C174" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2856,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C175" s="2">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2870,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C176" s="2">
-        <v>637</v>
+        <v>99</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>5</v>
@@ -2884,13 +2887,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C177" s="2">
-        <v>786</v>
+        <v>368</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2898,13 +2901,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="C178" s="2">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2912,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="B179" s="2">
-        <v>45628</v>
+        <v>45632</v>
       </c>
       <c r="C179" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>5</v>
@@ -2926,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="B180" s="2">
-        <v>45628</v>
+        <v>45632</v>
       </c>
       <c r="C180" s="2">
-        <v>2</v>
+        <v>580</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>5</v>
@@ -2940,10 +2943,10 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45628</v>
+        <v>45635</v>
       </c>
       <c r="C181" s="2">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>5</v>
@@ -2954,13 +2957,13 @@
         <v>4</v>
       </c>
       <c r="B182" s="2">
-        <v>45628</v>
+        <v>45635</v>
       </c>
       <c r="C182" s="2">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2968,10 +2971,10 @@
         <v>4</v>
       </c>
       <c r="B183" s="2">
-        <v>45628</v>
+        <v>45604</v>
       </c>
       <c r="C183" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>5</v>
@@ -2982,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>45628</v>
+        <v>45605</v>
       </c>
       <c r="C184" s="2">
-        <v>388</v>
+        <v>6</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>5</v>
@@ -2996,13 +2999,13 @@
         <v>4</v>
       </c>
       <c r="B185" s="2">
-        <v>45628</v>
+        <v>45606</v>
       </c>
       <c r="C185" s="2">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3010,10 +3013,10 @@
         <v>4</v>
       </c>
       <c r="B186" s="2">
-        <v>45628</v>
+        <v>45612</v>
       </c>
       <c r="C186" s="2">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>8</v>
@@ -3024,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="B187" s="2">
-        <v>45629</v>
+        <v>45613</v>
       </c>
       <c r="C187" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
@@ -3038,13 +3041,13 @@
         <v>4</v>
       </c>
       <c r="B188" s="2">
-        <v>45629</v>
+        <v>45615</v>
       </c>
       <c r="C188" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3052,13 +3055,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="2">
-        <v>45629</v>
+        <v>45615</v>
       </c>
       <c r="C189" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3066,13 +3069,13 @@
         <v>4</v>
       </c>
       <c r="B190" s="2">
-        <v>45629</v>
+        <v>45616</v>
       </c>
       <c r="C190" s="2">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3080,10 +3083,10 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>45629</v>
+        <v>45619</v>
       </c>
       <c r="C191" s="2">
-        <v>40</v>
+        <v>623</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>5</v>
@@ -3094,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="B192" s="2">
-        <v>45629</v>
+        <v>45619</v>
       </c>
       <c r="C192" s="2">
-        <v>384</v>
+        <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>5</v>
@@ -3108,13 +3111,13 @@
         <v>4</v>
       </c>
       <c r="B193" s="2">
-        <v>45629</v>
+        <v>45621</v>
       </c>
       <c r="C193" s="2">
-        <v>455</v>
+        <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3122,13 +3125,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="2">
-        <v>45629</v>
+        <v>45622</v>
       </c>
       <c r="C194" s="2">
-        <v>29</v>
+        <v>454</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3136,13 +3139,13 @@
         <v>4</v>
       </c>
       <c r="B195" s="2">
-        <v>45630</v>
+        <v>45622</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3150,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="2">
-        <v>45630</v>
+        <v>45622</v>
       </c>
       <c r="C196" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>5</v>
@@ -3164,13 +3167,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="2">
-        <v>45630</v>
+        <v>45624</v>
       </c>
       <c r="C197" s="2">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3178,13 +3181,13 @@
         <v>4</v>
       </c>
       <c r="B198" s="2">
-        <v>45630</v>
+        <v>45625</v>
       </c>
       <c r="C198" s="2">
-        <v>51</v>
+        <v>426</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3192,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="B199" s="2">
-        <v>45630</v>
+        <v>45625</v>
       </c>
       <c r="C199" s="2">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>5</v>
@@ -3206,13 +3209,13 @@
         <v>4</v>
       </c>
       <c r="B200" s="2">
-        <v>45630</v>
+        <v>45625</v>
       </c>
       <c r="C200" s="2">
-        <v>485</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3220,13 +3223,13 @@
         <v>4</v>
       </c>
       <c r="B201" s="2">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="C201" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3234,10 +3237,10 @@
         <v>4</v>
       </c>
       <c r="B202" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C202" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>5</v>
@@ -3248,13 +3251,13 @@
         <v>4</v>
       </c>
       <c r="B203" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C203" s="2">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3262,13 +3265,13 @@
         <v>4</v>
       </c>
       <c r="B204" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C204" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3279,7 +3282,7 @@
         <v>45631</v>
       </c>
       <c r="C205" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>5</v>
@@ -3293,10 +3296,10 @@
         <v>45631</v>
       </c>
       <c r="C206" s="2">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3304,13 +3307,13 @@
         <v>4</v>
       </c>
       <c r="B207" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C207" s="2">
-        <v>383</v>
+        <v>3</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3318,13 +3321,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C208" s="2">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3332,13 +3335,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="C209" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3346,13 +3349,13 @@
         <v>4</v>
       </c>
       <c r="B210" s="2">
-        <v>45632</v>
+        <v>45612</v>
       </c>
       <c r="C210" s="2">
-        <v>60</v>
+        <v>987</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3360,10 +3363,10 @@
         <v>4</v>
       </c>
       <c r="B211" s="2">
-        <v>45632</v>
+        <v>45613</v>
       </c>
       <c r="C211" s="2">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>5</v>
@@ -3374,10 +3377,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="2">
-        <v>45632</v>
+        <v>45614</v>
       </c>
       <c r="C212" s="2">
-        <v>893</v>
+        <v>4</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>5</v>
@@ -3388,13 +3391,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="2">
-        <v>45632</v>
+        <v>45615</v>
       </c>
       <c r="C213" s="2">
-        <v>711</v>
+        <v>167</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3402,13 +3405,13 @@
         <v>4</v>
       </c>
       <c r="B214" s="2">
-        <v>45632</v>
+        <v>45616</v>
       </c>
       <c r="C214" s="2">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3416,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="B215" s="2">
-        <v>45633</v>
+        <v>45616</v>
       </c>
       <c r="C215" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>5</v>
@@ -3430,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="B216" s="2">
-        <v>45633</v>
+        <v>45617</v>
       </c>
       <c r="C216" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>5</v>
@@ -3444,13 +3447,13 @@
         <v>4</v>
       </c>
       <c r="B217" s="2">
-        <v>45633</v>
+        <v>45618</v>
       </c>
       <c r="C217" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3458,13 +3461,13 @@
         <v>4</v>
       </c>
       <c r="B218" s="2">
-        <v>45633</v>
+        <v>45618</v>
       </c>
       <c r="C218" s="2">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3472,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="B219" s="2">
-        <v>45633</v>
+        <v>45619</v>
       </c>
       <c r="C219" s="2">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>5</v>
@@ -3486,10 +3489,10 @@
         <v>4</v>
       </c>
       <c r="B220" s="2">
-        <v>45633</v>
+        <v>45620</v>
       </c>
       <c r="C220" s="2">
-        <v>881</v>
+        <v>2</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>5</v>
@@ -3500,13 +3503,13 @@
         <v>4</v>
       </c>
       <c r="B221" s="2">
-        <v>45633</v>
+        <v>45620</v>
       </c>
       <c r="C221" s="2">
-        <v>1404</v>
+        <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3514,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="2">
-        <v>45633</v>
+        <v>45621</v>
       </c>
       <c r="C222" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>8</v>
@@ -3528,10 +3531,10 @@
         <v>4</v>
       </c>
       <c r="B223" s="2">
-        <v>45634</v>
+        <v>45622</v>
       </c>
       <c r="C223" s="2">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>5</v>
@@ -3542,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="B224" s="2">
-        <v>45634</v>
+        <v>45624</v>
       </c>
       <c r="C224" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>5</v>
@@ -3556,13 +3559,13 @@
         <v>4</v>
       </c>
       <c r="B225" s="2">
-        <v>45634</v>
+        <v>45624</v>
       </c>
       <c r="C225" s="2">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3570,13 +3573,13 @@
         <v>4</v>
       </c>
       <c r="B226" s="2">
-        <v>45634</v>
+        <v>45624</v>
       </c>
       <c r="C226" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3584,13 +3587,13 @@
         <v>4</v>
       </c>
       <c r="B227" s="2">
-        <v>45634</v>
+        <v>45625</v>
       </c>
       <c r="C227" s="2">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3598,13 +3601,13 @@
         <v>4</v>
       </c>
       <c r="B228" s="2">
-        <v>45634</v>
+        <v>45626</v>
       </c>
       <c r="C228" s="2">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3612,10 +3615,10 @@
         <v>4</v>
       </c>
       <c r="B229" s="2">
-        <v>45634</v>
+        <v>45627</v>
       </c>
       <c r="C229" s="2">
-        <v>854</v>
+        <v>3</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>5</v>
@@ -3626,13 +3629,13 @@
         <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>45634</v>
+        <v>45629</v>
       </c>
       <c r="C230" s="2">
-        <v>945</v>
+        <v>85</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3640,13 +3643,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C231" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3654,10 +3657,10 @@
         <v>4</v>
       </c>
       <c r="B232" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C232" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>5</v>
@@ -3668,10 +3671,10 @@
         <v>4</v>
       </c>
       <c r="B233" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C233" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>5</v>
@@ -3682,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B234" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C234" s="2">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3696,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="B235" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C235" s="2">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>5</v>
@@ -3710,13 +3713,13 @@
         <v>4</v>
       </c>
       <c r="B236" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C236" s="2">
-        <v>504</v>
+        <v>160</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3727,24 +3730,10 @@
         <v>45635</v>
       </c>
       <c r="C237" s="2">
-        <v>735</v>
+        <v>135</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" s="2">
-        <v>45635</v>
-      </c>
-      <c r="C238" s="2">
-        <v>2</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="10">
   <si>
     <t>Resort</t>
   </si>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45606</v>
+        <v>45636</v>
       </c>
       <c r="C34" s="2">
-        <v>5</v>
+        <v>397</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45610</v>
+        <v>45612</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45610</v>
+        <v>45613</v>
       </c>
       <c r="C36" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45612</v>
+        <v>45614</v>
       </c>
       <c r="C37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -941,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="C38" s="2">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -955,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="C39" s="2">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C40" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -983,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="C41" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="C42" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="C43" s="2">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1025,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45617</v>
+        <v>45619</v>
       </c>
       <c r="C44" s="2">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45618</v>
+        <v>45620</v>
       </c>
       <c r="C45" s="2">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C46" s="2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C47" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="C48" s="2">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1109,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="C50" s="2">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C51" s="2">
-        <v>991</v>
+        <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="C52" s="2">
-        <v>340</v>
+        <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45624</v>
+        <v>45627</v>
       </c>
       <c r="C54" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45625</v>
+        <v>45629</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,13 +1193,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45626</v>
+        <v>45632</v>
       </c>
       <c r="C56" s="2">
-        <v>1024</v>
+        <v>113</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1207,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45627</v>
+        <v>45633</v>
       </c>
       <c r="C57" s="2">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1221,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C58" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1249,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45611</v>
+        <v>45634</v>
       </c>
       <c r="C60" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1263,13 +1263,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45612</v>
+        <v>45634</v>
       </c>
       <c r="C61" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1277,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45613</v>
+        <v>45635</v>
       </c>
       <c r="C62" s="2">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1291,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45614</v>
+        <v>45604</v>
       </c>
       <c r="C63" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45614</v>
+        <v>45605</v>
       </c>
       <c r="C64" s="2">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -1319,13 +1319,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1333,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C66" s="2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1347,10 +1347,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -1361,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="C68" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
@@ -1375,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="C69" s="2">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45620</v>
+        <v>45616</v>
       </c>
       <c r="C70" s="2">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -1403,13 +1403,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C71" s="2">
-        <v>81</v>
+        <v>623</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1417,10 +1417,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C72" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
@@ -1434,7 +1434,7 @@
         <v>45621</v>
       </c>
       <c r="C73" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
@@ -1445,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C74" s="2">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1459,13 +1459,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C75" s="2">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,13 +1473,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C76" s="2">
         <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1487,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C77" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -1501,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -1529,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C80" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1543,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="C81" s="2">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45633</v>
+        <v>45628</v>
       </c>
       <c r="C82" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1571,10 +1571,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45633</v>
+        <v>45628</v>
       </c>
       <c r="C83" s="2">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -1585,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -1599,13 +1599,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45602</v>
+        <v>45631</v>
       </c>
       <c r="C85" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1613,13 +1613,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45605</v>
+        <v>45631</v>
       </c>
       <c r="C86" s="2">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45605</v>
+        <v>45634</v>
       </c>
       <c r="C87" s="2">
-        <v>760</v>
+        <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1641,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45606</v>
+        <v>45634</v>
       </c>
       <c r="C88" s="2">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -1655,10 +1655,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45611</v>
+        <v>45635</v>
       </c>
       <c r="C89" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
@@ -1669,13 +1669,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45613</v>
+        <v>45636</v>
       </c>
       <c r="C90" s="2">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1683,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="C91" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
@@ -1697,13 +1697,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C92" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1711,13 +1711,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45616</v>
+        <v>45610</v>
       </c>
       <c r="C93" s="2">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C94" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -1739,13 +1739,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45619</v>
+        <v>45612</v>
       </c>
       <c r="C95" s="2">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1753,13 +1753,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45620</v>
+        <v>45613</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1767,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="C97" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1781,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45623</v>
+        <v>45616</v>
       </c>
       <c r="C98" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1795,10 +1795,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45623</v>
+        <v>45616</v>
       </c>
       <c r="C99" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -1809,10 +1809,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C100" s="2">
-        <v>707</v>
+        <v>91</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
@@ -1823,10 +1823,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45626</v>
+        <v>45617</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
@@ -1837,13 +1837,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45626</v>
+        <v>45618</v>
       </c>
       <c r="C102" s="2">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,13 +1851,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45626</v>
+        <v>45619</v>
       </c>
       <c r="C103" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1865,10 +1865,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45627</v>
+        <v>45620</v>
       </c>
       <c r="C104" s="2">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
@@ -1879,13 +1879,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45627</v>
+        <v>45621</v>
       </c>
       <c r="C105" s="2">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1893,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="C106" s="2">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>5</v>
@@ -1907,13 +1907,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45629</v>
+        <v>45622</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1921,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45630</v>
+        <v>45623</v>
       </c>
       <c r="C108" s="2">
-        <v>3</v>
+        <v>991</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1935,13 +1935,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45631</v>
+        <v>45624</v>
       </c>
       <c r="C109" s="2">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1949,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45631</v>
+        <v>45624</v>
       </c>
       <c r="C110" s="2">
-        <v>417</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>5</v>
@@ -1963,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45632</v>
+        <v>45624</v>
       </c>
       <c r="C111" s="2">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
@@ -1977,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="C112" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
@@ -1991,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45633</v>
+        <v>45626</v>
       </c>
       <c r="C113" s="2">
-        <v>2</v>
+        <v>1024</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
@@ -2005,13 +2005,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45634</v>
+        <v>45627</v>
       </c>
       <c r="C114" s="2">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2022,7 +2022,7 @@
         <v>45634</v>
       </c>
       <c r="C115" s="2">
-        <v>1260</v>
+        <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>5</v>
@@ -2036,7 +2036,7 @@
         <v>45635</v>
       </c>
       <c r="C116" s="2">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>5</v>
@@ -2047,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C117" s="2">
         <v>2</v>
@@ -2509,13 +2509,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45605</v>
+        <v>45636</v>
       </c>
       <c r="C150" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2523,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45606</v>
+        <v>45636</v>
       </c>
       <c r="C151" s="2">
-        <v>499</v>
+        <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
@@ -2537,13 +2537,13 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45606</v>
+        <v>45602</v>
       </c>
       <c r="C152" s="2">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2551,13 +2551,13 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C153" s="2">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2565,13 +2565,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C154" s="2">
-        <v>222</v>
+        <v>760</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2579,10 +2579,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45612</v>
+        <v>45606</v>
       </c>
       <c r="C155" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>5</v>
@@ -2593,13 +2593,13 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45614</v>
+        <v>45611</v>
       </c>
       <c r="C156" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2607,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="C157" s="2">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2621,13 +2621,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="C158" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2635,10 +2635,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="C159" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2649,13 +2649,13 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45618</v>
+        <v>45616</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2663,13 +2663,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45619</v>
+        <v>45617</v>
       </c>
       <c r="C161" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2677,13 +2677,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C162" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2691,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
@@ -2708,10 +2708,10 @@
         <v>45621</v>
       </c>
       <c r="C164" s="2">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2719,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C165" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
@@ -2733,13 +2733,13 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C166" s="2">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2747,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C167" s="2">
-        <v>124</v>
+        <v>707</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
@@ -2761,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C168" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>5</v>
@@ -2775,10 +2775,10 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>5</v>
@@ -2789,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C170" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
@@ -2803,13 +2803,13 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="C171" s="2">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2817,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="C172" s="2">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="C173" s="2">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2845,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="C174" s="2">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>5</v>
@@ -2859,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45628</v>
+        <v>45630</v>
       </c>
       <c r="C175" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2873,13 +2873,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C176" s="2">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2887,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C177" s="2">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>5</v>
@@ -2901,13 +2901,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="C178" s="2">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2918,7 +2918,7 @@
         <v>45632</v>
       </c>
       <c r="C179" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>5</v>
@@ -2929,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="B180" s="2">
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="C180" s="2">
-        <v>580</v>
+        <v>2</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>5</v>
@@ -2943,13 +2943,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C181" s="2">
-        <v>360</v>
+        <v>59</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2957,10 +2957,10 @@
         <v>4</v>
       </c>
       <c r="B182" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C182" s="2">
-        <v>10</v>
+        <v>1260</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>5</v>
@@ -2971,10 +2971,10 @@
         <v>4</v>
       </c>
       <c r="B183" s="2">
-        <v>45604</v>
+        <v>45635</v>
       </c>
       <c r="C183" s="2">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>5</v>
@@ -2985,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>45605</v>
+        <v>45635</v>
       </c>
       <c r="C184" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>5</v>
@@ -2999,13 +2999,13 @@
         <v>4</v>
       </c>
       <c r="B185" s="2">
-        <v>45606</v>
+        <v>45636</v>
       </c>
       <c r="C185" s="2">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3013,13 +3013,13 @@
         <v>4</v>
       </c>
       <c r="B186" s="2">
-        <v>45612</v>
+        <v>45611</v>
       </c>
       <c r="C186" s="2">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3027,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="B187" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C187" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
@@ -3041,13 +3041,13 @@
         <v>4</v>
       </c>
       <c r="B188" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="C188" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3055,13 +3055,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="2">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="C189" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3069,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="B190" s="2">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C190" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>5</v>
@@ -3083,10 +3083,10 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>45619</v>
+        <v>45614</v>
       </c>
       <c r="C191" s="2">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>5</v>
@@ -3097,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="B192" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C192" s="2">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>5</v>
@@ -3111,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="B193" s="2">
-        <v>45621</v>
+        <v>45616</v>
       </c>
       <c r="C193" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>5</v>
@@ -3125,13 +3125,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="2">
-        <v>45622</v>
+        <v>45617</v>
       </c>
       <c r="C194" s="2">
-        <v>454</v>
+        <v>10</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3139,13 +3139,13 @@
         <v>4</v>
       </c>
       <c r="B195" s="2">
-        <v>45622</v>
+        <v>45618</v>
       </c>
       <c r="C195" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3153,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="B196" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C196" s="2">
         <v>3</v>
@@ -3167,13 +3167,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="2">
-        <v>45624</v>
+        <v>45620</v>
       </c>
       <c r="C197" s="2">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3181,13 +3181,13 @@
         <v>4</v>
       </c>
       <c r="B198" s="2">
-        <v>45625</v>
+        <v>45620</v>
       </c>
       <c r="C198" s="2">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3195,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="B199" s="2">
-        <v>45625</v>
+        <v>45621</v>
       </c>
       <c r="C199" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>5</v>
@@ -3209,10 +3209,10 @@
         <v>4</v>
       </c>
       <c r="B200" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C200" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>5</v>
@@ -3223,13 +3223,13 @@
         <v>4</v>
       </c>
       <c r="B201" s="2">
-        <v>45627</v>
+        <v>45623</v>
       </c>
       <c r="C201" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3237,13 +3237,13 @@
         <v>4</v>
       </c>
       <c r="B202" s="2">
-        <v>45628</v>
+        <v>45624</v>
       </c>
       <c r="C202" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3251,13 +3251,13 @@
         <v>4</v>
       </c>
       <c r="B203" s="2">
-        <v>45628</v>
+        <v>45626</v>
       </c>
       <c r="C203" s="2">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3265,10 +3265,10 @@
         <v>4</v>
       </c>
       <c r="B204" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C204" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>5</v>
@@ -3279,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="2">
-        <v>45631</v>
+        <v>45627</v>
       </c>
       <c r="C205" s="2">
         <v>1</v>
@@ -3293,13 +3293,13 @@
         <v>4</v>
       </c>
       <c r="B206" s="2">
-        <v>45631</v>
+        <v>45627</v>
       </c>
       <c r="C206" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3307,13 +3307,13 @@
         <v>4</v>
       </c>
       <c r="B207" s="2">
-        <v>45634</v>
+        <v>45630</v>
       </c>
       <c r="C207" s="2">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3321,13 +3321,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C208" s="2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3335,13 +3335,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C209" s="2">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3349,10 +3349,10 @@
         <v>4</v>
       </c>
       <c r="B210" s="2">
-        <v>45612</v>
+        <v>45635</v>
       </c>
       <c r="C210" s="2">
-        <v>987</v>
+        <v>2</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>5</v>
@@ -3363,13 +3363,13 @@
         <v>4</v>
       </c>
       <c r="B211" s="2">
-        <v>45613</v>
+        <v>45636</v>
       </c>
       <c r="C211" s="2">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3377,10 +3377,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="2">
-        <v>45614</v>
+        <v>45605</v>
       </c>
       <c r="C212" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>5</v>
@@ -3391,10 +3391,10 @@
         <v>4</v>
       </c>
       <c r="B213" s="2">
-        <v>45615</v>
+        <v>45606</v>
       </c>
       <c r="C213" s="2">
-        <v>167</v>
+        <v>499</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>5</v>
@@ -3405,13 +3405,13 @@
         <v>4</v>
       </c>
       <c r="B214" s="2">
-        <v>45616</v>
+        <v>45606</v>
       </c>
       <c r="C214" s="2">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3419,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="B215" s="2">
-        <v>45616</v>
+        <v>45606</v>
       </c>
       <c r="C215" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>5</v>
@@ -3433,13 +3433,13 @@
         <v>4</v>
       </c>
       <c r="B216" s="2">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C216" s="2">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3447,13 +3447,13 @@
         <v>4</v>
       </c>
       <c r="B217" s="2">
-        <v>45618</v>
+        <v>45612</v>
       </c>
       <c r="C217" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3461,10 +3461,10 @@
         <v>4</v>
       </c>
       <c r="B218" s="2">
-        <v>45618</v>
+        <v>45614</v>
       </c>
       <c r="C218" s="2">
-        <v>343</v>
+        <v>3</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>5</v>
@@ -3475,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="B219" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C219" s="2">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>5</v>
@@ -3489,13 +3489,13 @@
         <v>4</v>
       </c>
       <c r="B220" s="2">
-        <v>45620</v>
+        <v>45615</v>
       </c>
       <c r="C220" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3503,10 +3503,10 @@
         <v>4</v>
       </c>
       <c r="B221" s="2">
-        <v>45620</v>
+        <v>45615</v>
       </c>
       <c r="C221" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>5</v>
@@ -3517,13 +3517,13 @@
         <v>4</v>
       </c>
       <c r="B222" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C222" s="2">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3531,13 +3531,13 @@
         <v>4</v>
       </c>
       <c r="B223" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C223" s="2">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3545,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="B224" s="2">
-        <v>45624</v>
+        <v>45620</v>
       </c>
       <c r="C224" s="2">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>5</v>
@@ -3559,13 +3559,13 @@
         <v>4</v>
       </c>
       <c r="B225" s="2">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="C225" s="2">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3573,13 +3573,13 @@
         <v>4</v>
       </c>
       <c r="B226" s="2">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="C226" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3587,10 +3587,10 @@
         <v>4</v>
       </c>
       <c r="B227" s="2">
-        <v>45625</v>
+        <v>45622</v>
       </c>
       <c r="C227" s="2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>5</v>
@@ -3601,13 +3601,13 @@
         <v>4</v>
       </c>
       <c r="B228" s="2">
-        <v>45626</v>
+        <v>45622</v>
       </c>
       <c r="C228" s="2">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3615,10 +3615,10 @@
         <v>4</v>
       </c>
       <c r="B229" s="2">
-        <v>45627</v>
+        <v>45623</v>
       </c>
       <c r="C229" s="2">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>5</v>
@@ -3629,13 +3629,13 @@
         <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>45629</v>
+        <v>45624</v>
       </c>
       <c r="C230" s="2">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3643,13 +3643,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="2">
-        <v>45632</v>
+        <v>45624</v>
       </c>
       <c r="C231" s="2">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3657,10 +3657,10 @@
         <v>4</v>
       </c>
       <c r="B232" s="2">
-        <v>45633</v>
+        <v>45625</v>
       </c>
       <c r="C232" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>5</v>
@@ -3671,13 +3671,13 @@
         <v>4</v>
       </c>
       <c r="B233" s="2">
-        <v>45633</v>
+        <v>45625</v>
       </c>
       <c r="C233" s="2">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3685,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B234" s="2">
-        <v>45634</v>
+        <v>45625</v>
       </c>
       <c r="C234" s="2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3699,13 +3699,13 @@
         <v>4</v>
       </c>
       <c r="B235" s="2">
-        <v>45634</v>
+        <v>45625</v>
       </c>
       <c r="C235" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3713,13 +3713,13 @@
         <v>4</v>
       </c>
       <c r="B236" s="2">
-        <v>45634</v>
+        <v>45626</v>
       </c>
       <c r="C236" s="2">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3727,13 +3727,111 @@
         <v>4</v>
       </c>
       <c r="B237" s="2">
+        <v>45628</v>
+      </c>
+      <c r="C237" s="2">
+        <v>15</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C238" s="2">
+        <v>99</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C239" s="2">
+        <v>368</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C240" s="2">
+        <v>2</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C242" s="2">
+        <v>580</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="2">
         <v>45635</v>
       </c>
-      <c r="C237" s="2">
-        <v>135</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>6</v>
+      <c r="C243" s="2">
+        <v>360</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C244" s="2">
+        <v>10</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -468,10 +465,10 @@
         <v>45605</v>
       </c>
       <c r="C4" s="2">
-        <v>164</v>
+        <v>512</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45605</v>
+        <v>45607</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -493,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C7" s="2">
-        <v>769</v>
+        <v>235</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -521,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -535,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45618</v>
+        <v>45612</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45619</v>
+        <v>45615</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45619</v>
+        <v>45618</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45619</v>
+        <v>45621</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -591,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -605,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -619,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -633,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C16" s="2">
-        <v>125</v>
+        <v>824</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -647,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C17" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -661,10 +658,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -675,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="C19" s="2">
-        <v>4</v>
+        <v>786</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45626</v>
+        <v>45628</v>
       </c>
       <c r="C21" s="2">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="C22" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="C23" s="2">
-        <v>114</v>
+        <v>485</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45628</v>
+        <v>45630</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C25" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45629</v>
+        <v>45633</v>
       </c>
       <c r="C26" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="C27" s="2">
-        <v>117</v>
+        <v>1404</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45631</v>
+        <v>45633</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C29" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C30" s="2">
-        <v>149</v>
+        <v>854</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -843,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="C31" s="2">
-        <v>1558</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -857,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C32" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -871,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45634</v>
+        <v>45604</v>
       </c>
       <c r="C33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -885,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45636</v>
+        <v>45604</v>
       </c>
       <c r="C34" s="2">
-        <v>397</v>
+        <v>789</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -899,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C35" s="2">
-        <v>987</v>
+        <v>237</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45613</v>
+        <v>45606</v>
       </c>
       <c r="C36" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -927,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="C37" s="2">
-        <v>4</v>
+        <v>904</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -941,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45615</v>
+        <v>45609</v>
       </c>
       <c r="C38" s="2">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -958,10 +955,10 @@
         <v>45616</v>
       </c>
       <c r="C39" s="2">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45616</v>
+        <v>45619</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45617</v>
+        <v>45622</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -997,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45618</v>
+        <v>45622</v>
       </c>
       <c r="C42" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45618</v>
+        <v>45623</v>
       </c>
       <c r="C43" s="2">
-        <v>343</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45619</v>
+        <v>45625</v>
       </c>
       <c r="C44" s="2">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1039,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45620</v>
+        <v>45625</v>
       </c>
       <c r="C45" s="2">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45620</v>
+        <v>45625</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1067,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45621</v>
+        <v>45626</v>
       </c>
       <c r="C47" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45622</v>
+        <v>45627</v>
       </c>
       <c r="C48" s="2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1095,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="C49" s="2">
         <v>6</v>
@@ -1109,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="C50" s="2">
-        <v>113</v>
+        <v>476</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>8</v>
@@ -1123,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="C51" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45625</v>
+        <v>45630</v>
       </c>
       <c r="C52" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1151,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45626</v>
+        <v>45630</v>
       </c>
       <c r="C53" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="C54" s="2">
-        <v>3</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C55" s="2">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1196,7 +1193,7 @@
         <v>45632</v>
       </c>
       <c r="C56" s="2">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -1210,7 +1207,7 @@
         <v>45633</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1224,7 +1221,7 @@
         <v>45633</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>881</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1238,7 +1235,7 @@
         <v>45634</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1252,10 +1249,10 @@
         <v>45634</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>945</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1263,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="C61" s="2">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1277,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C62" s="2">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1291,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45604</v>
+        <v>45597</v>
       </c>
       <c r="C63" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -1305,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C64" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1322,10 +1319,10 @@
         <v>45606</v>
       </c>
       <c r="C65" s="2">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1333,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45612</v>
+        <v>45606</v>
       </c>
       <c r="C66" s="2">
-        <v>47</v>
+        <v>549</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1347,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45613</v>
+        <v>45606</v>
       </c>
       <c r="C67" s="2">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1361,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45615</v>
+        <v>45607</v>
       </c>
       <c r="C68" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45615</v>
+        <v>45609</v>
       </c>
       <c r="C69" s="2">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45616</v>
+        <v>45610</v>
       </c>
       <c r="C70" s="2">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1403,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45619</v>
+        <v>45612</v>
       </c>
       <c r="C71" s="2">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -1417,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45619</v>
+        <v>45613</v>
       </c>
       <c r="C72" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
@@ -1431,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1445,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45622</v>
+        <v>45615</v>
       </c>
       <c r="C74" s="2">
-        <v>454</v>
+        <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1459,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45622</v>
+        <v>45615</v>
       </c>
       <c r="C75" s="2">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45622</v>
+        <v>45618</v>
       </c>
       <c r="C76" s="2">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
@@ -1487,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45624</v>
+        <v>45619</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -1501,10 +1498,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45625</v>
+        <v>45619</v>
       </c>
       <c r="C78" s="2">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -1515,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45625</v>
+        <v>45620</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -1529,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45625</v>
+        <v>45621</v>
       </c>
       <c r="C80" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
@@ -1543,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45627</v>
+        <v>45622</v>
       </c>
       <c r="C81" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45628</v>
+        <v>45623</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>5</v>
@@ -1571,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45628</v>
+        <v>45624</v>
       </c>
       <c r="C83" s="2">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1585,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45628</v>
+        <v>45625</v>
       </c>
       <c r="C84" s="2">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1599,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45631</v>
+        <v>45626</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>5</v>
@@ -1613,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45631</v>
+        <v>45626</v>
       </c>
       <c r="C86" s="2">
-        <v>89</v>
+        <v>757</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1627,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="C87" s="2">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1641,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45634</v>
+        <v>45629</v>
       </c>
       <c r="C88" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -1655,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45635</v>
+        <v>45629</v>
       </c>
       <c r="C89" s="2">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1669,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45636</v>
+        <v>45632</v>
       </c>
       <c r="C90" s="2">
-        <v>98</v>
+        <v>893</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -1683,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45606</v>
+        <v>45632</v>
       </c>
       <c r="C91" s="2">
-        <v>5</v>
+        <v>711</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1697,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45610</v>
+        <v>45633</v>
       </c>
       <c r="C92" s="2">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>7</v>
@@ -1711,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45610</v>
+        <v>45635</v>
       </c>
       <c r="C93" s="2">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1725,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45612</v>
+        <v>45635</v>
       </c>
       <c r="C94" s="2">
-        <v>5</v>
+        <v>735</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1739,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45612</v>
+        <v>45636</v>
       </c>
       <c r="C95" s="2">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1753,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45613</v>
+        <v>45604</v>
       </c>
       <c r="C96" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1767,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45614</v>
+        <v>45604</v>
       </c>
       <c r="C97" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
@@ -1781,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C98" s="2">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
@@ -1795,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45616</v>
+        <v>45607</v>
       </c>
       <c r="C99" s="2">
-        <v>4</v>
+        <v>473</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1809,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45617</v>
+        <v>45608</v>
       </c>
       <c r="C100" s="2">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1823,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45617</v>
+        <v>45610</v>
       </c>
       <c r="C101" s="2">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1837,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45618</v>
+        <v>45611</v>
       </c>
       <c r="C102" s="2">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,10 +1848,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45619</v>
+        <v>45613</v>
       </c>
       <c r="C103" s="2">
-        <v>44</v>
+        <v>468</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>8</v>
@@ -1865,13 +1862,13 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45620</v>
+        <v>45614</v>
       </c>
       <c r="C104" s="2">
-        <v>541</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1879,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45621</v>
+        <v>45616</v>
       </c>
       <c r="C105" s="2">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1893,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45621</v>
+        <v>45617</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1907,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45622</v>
+        <v>45618</v>
       </c>
       <c r="C107" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1921,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45623</v>
+        <v>45619</v>
       </c>
       <c r="C108" s="2">
-        <v>991</v>
+        <v>49</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1935,10 +1932,10 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="C109" s="2">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
@@ -1949,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>5</v>
@@ -1963,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C111" s="2">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
@@ -1977,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C112" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
@@ -1991,10 +1988,10 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45626</v>
+        <v>45623</v>
       </c>
       <c r="C113" s="2">
-        <v>1024</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
@@ -2005,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45627</v>
+        <v>45624</v>
       </c>
       <c r="C114" s="2">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2019,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45634</v>
+        <v>45624</v>
       </c>
       <c r="C115" s="2">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2033,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45635</v>
+        <v>45625</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
@@ -2047,10 +2044,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45636</v>
+        <v>45625</v>
       </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>5</v>
@@ -2061,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45601</v>
+        <v>45625</v>
       </c>
       <c r="C118" s="2">
-        <v>1</v>
+        <v>935</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2075,13 +2072,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45604</v>
+        <v>45627</v>
       </c>
       <c r="C119" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2089,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45605</v>
+        <v>45628</v>
       </c>
       <c r="C120" s="2">
-        <v>58</v>
+        <v>388</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>5</v>
@@ -2103,13 +2100,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45607</v>
+        <v>45630</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2117,10 +2114,10 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45613</v>
+        <v>45631</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>5</v>
@@ -2131,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45613</v>
+        <v>45633</v>
       </c>
       <c r="C123" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
@@ -2145,13 +2142,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45614</v>
+        <v>45636</v>
       </c>
       <c r="C124" s="2">
-        <v>60</v>
+        <v>642</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2159,10 +2156,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45615</v>
+        <v>45605</v>
       </c>
       <c r="C125" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>5</v>
@@ -2173,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45617</v>
+        <v>45606</v>
       </c>
       <c r="C126" s="2">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -2187,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45619</v>
+        <v>45607</v>
       </c>
       <c r="C127" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
@@ -2201,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45620</v>
+        <v>45608</v>
       </c>
       <c r="C128" s="2">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2215,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45621</v>
+        <v>45609</v>
       </c>
       <c r="C129" s="2">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2229,10 +2226,10 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45622</v>
+        <v>45610</v>
       </c>
       <c r="C130" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2243,13 +2240,13 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45623</v>
+        <v>45610</v>
       </c>
       <c r="C131" s="2">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2257,13 +2254,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45623</v>
+        <v>45612</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2271,10 +2268,10 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45624</v>
+        <v>45613</v>
       </c>
       <c r="C133" s="2">
-        <v>957</v>
+        <v>3</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>5</v>
@@ -2285,10 +2282,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45625</v>
+        <v>45613</v>
       </c>
       <c r="C134" s="2">
-        <v>1</v>
+        <v>606</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>5</v>
@@ -2299,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45626</v>
+        <v>45615</v>
       </c>
       <c r="C135" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2313,13 +2310,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45627</v>
+        <v>45616</v>
       </c>
       <c r="C136" s="2">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2327,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45627</v>
+        <v>45616</v>
       </c>
       <c r="C137" s="2">
-        <v>1018</v>
+        <v>202</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2341,10 +2338,10 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45627</v>
+        <v>45619</v>
       </c>
       <c r="C138" s="2">
-        <v>9</v>
+        <v>779</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>5</v>
@@ -2355,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45628</v>
+        <v>45619</v>
       </c>
       <c r="C139" s="2">
-        <v>88</v>
+        <v>719</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2369,13 +2366,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45629</v>
+        <v>45620</v>
       </c>
       <c r="C140" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2383,13 +2380,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45630</v>
+        <v>45622</v>
       </c>
       <c r="C141" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2397,13 +2394,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45630</v>
+        <v>45622</v>
       </c>
       <c r="C142" s="2">
-        <v>392</v>
+        <v>560</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2411,10 +2408,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45630</v>
+        <v>45623</v>
       </c>
       <c r="C143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>5</v>
@@ -2425,13 +2422,13 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45630</v>
+        <v>45623</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2439,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45631</v>
+        <v>45625</v>
       </c>
       <c r="C145" s="2">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>5</v>
@@ -2453,13 +2450,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="C146" s="2">
-        <v>1</v>
+        <v>1117</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2467,13 +2464,13 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45633</v>
+        <v>45626</v>
       </c>
       <c r="C147" s="2">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2481,13 +2478,13 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45633</v>
+        <v>45626</v>
       </c>
       <c r="C148" s="2">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2495,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="C149" s="2">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2509,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45636</v>
+        <v>45628</v>
       </c>
       <c r="C150" s="2">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2523,10 +2520,10 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45636</v>
+        <v>45629</v>
       </c>
       <c r="C151" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
@@ -2537,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45602</v>
+        <v>45631</v>
       </c>
       <c r="C152" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2551,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45605</v>
+        <v>45631</v>
       </c>
       <c r="C153" s="2">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2565,10 +2562,10 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45605</v>
+        <v>45634</v>
       </c>
       <c r="C154" s="2">
-        <v>760</v>
+        <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>5</v>
@@ -2579,10 +2576,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45606</v>
+        <v>45634</v>
       </c>
       <c r="C155" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>5</v>
@@ -2593,13 +2590,13 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45611</v>
+        <v>45635</v>
       </c>
       <c r="C156" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2607,13 +2604,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45613</v>
+        <v>45636</v>
       </c>
       <c r="C157" s="2">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2621,13 +2618,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45614</v>
+        <v>45605</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2635,10 +2632,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="C159" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2649,13 +2646,13 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45616</v>
+        <v>45607</v>
       </c>
       <c r="C160" s="2">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2663,13 +2660,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45617</v>
+        <v>45608</v>
       </c>
       <c r="C161" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2677,13 +2674,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45619</v>
+        <v>45609</v>
       </c>
       <c r="C162" s="2">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2691,10 +2688,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45620</v>
+        <v>45609</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
@@ -2705,13 +2702,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45621</v>
+        <v>45611</v>
       </c>
       <c r="C164" s="2">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2719,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45623</v>
+        <v>45612</v>
       </c>
       <c r="C165" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
@@ -2733,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45623</v>
+        <v>45612</v>
       </c>
       <c r="C166" s="2">
-        <v>18</v>
+        <v>614</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>5</v>
@@ -2747,10 +2744,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45625</v>
+        <v>45614</v>
       </c>
       <c r="C167" s="2">
-        <v>707</v>
+        <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
@@ -2761,10 +2758,10 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45626</v>
+        <v>45615</v>
       </c>
       <c r="C168" s="2">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>5</v>
@@ -2775,10 +2772,10 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45626</v>
+        <v>45617</v>
       </c>
       <c r="C169" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>5</v>
@@ -2789,13 +2786,13 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45626</v>
+        <v>45620</v>
       </c>
       <c r="C170" s="2">
-        <v>37</v>
+        <v>681</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2803,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45627</v>
+        <v>45620</v>
       </c>
       <c r="C171" s="2">
         <v>1</v>
@@ -2817,13 +2814,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45627</v>
+        <v>45623</v>
       </c>
       <c r="C172" s="2">
-        <v>7</v>
+        <v>802</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2831,13 +2828,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45628</v>
+        <v>45624</v>
       </c>
       <c r="C173" s="2">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2845,13 +2842,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45629</v>
+        <v>45626</v>
       </c>
       <c r="C174" s="2">
-        <v>5</v>
+        <v>785</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2859,7 +2856,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="C175" s="2">
         <v>3</v>
@@ -2873,13 +2870,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45631</v>
+        <v>45627</v>
       </c>
       <c r="C176" s="2">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2887,10 +2884,10 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="C177" s="2">
-        <v>417</v>
+        <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>5</v>
@@ -2901,13 +2898,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C178" s="2">
-        <v>114</v>
+        <v>455</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2915,10 +2912,10 @@
         <v>4</v>
       </c>
       <c r="B179" s="2">
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="C179" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>5</v>
@@ -2929,13 +2926,13 @@
         <v>4</v>
       </c>
       <c r="B180" s="2">
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C180" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2943,13 +2940,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45634</v>
+        <v>45631</v>
       </c>
       <c r="C181" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2957,10 +2954,10 @@
         <v>4</v>
       </c>
       <c r="B182" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C182" s="2">
-        <v>1260</v>
+        <v>68</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>5</v>
@@ -2971,10 +2968,10 @@
         <v>4</v>
       </c>
       <c r="B183" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C183" s="2">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>5</v>
@@ -2985,13 +2982,13 @@
         <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C184" s="2">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2999,10 +2996,10 @@
         <v>4</v>
       </c>
       <c r="B185" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C185" s="2">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>5</v>
@@ -3013,10 +3010,10 @@
         <v>4</v>
       </c>
       <c r="B186" s="2">
-        <v>45611</v>
+        <v>45636</v>
       </c>
       <c r="C186" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>5</v>
@@ -3027,10 +3024,10 @@
         <v>4</v>
       </c>
       <c r="B187" s="2">
-        <v>45612</v>
+        <v>45604</v>
       </c>
       <c r="C187" s="2">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
@@ -3041,10 +3038,10 @@
         <v>4</v>
       </c>
       <c r="B188" s="2">
-        <v>45613</v>
+        <v>45606</v>
       </c>
       <c r="C188" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>5</v>
@@ -3055,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="2">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="C189" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3069,13 +3066,13 @@
         <v>4</v>
       </c>
       <c r="B190" s="2">
-        <v>45614</v>
+        <v>45609</v>
       </c>
       <c r="C190" s="2">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3083,13 +3080,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C191" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3097,13 +3094,13 @@
         <v>4</v>
       </c>
       <c r="B192" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C192" s="2">
-        <v>67</v>
+        <v>456</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3111,13 +3108,13 @@
         <v>4</v>
       </c>
       <c r="B193" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C193" s="2">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3125,13 +3122,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="2">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="C194" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3139,10 +3136,10 @@
         <v>4</v>
       </c>
       <c r="B195" s="2">
-        <v>45618</v>
+        <v>45614</v>
       </c>
       <c r="C195" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>5</v>
@@ -3153,13 +3150,13 @@
         <v>4</v>
       </c>
       <c r="B196" s="2">
-        <v>45620</v>
+        <v>45615</v>
       </c>
       <c r="C196" s="2">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3167,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="2">
-        <v>45620</v>
+        <v>45616</v>
       </c>
       <c r="C197" s="2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3181,13 +3178,13 @@
         <v>4</v>
       </c>
       <c r="B198" s="2">
-        <v>45620</v>
+        <v>45616</v>
       </c>
       <c r="C198" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3195,10 +3192,10 @@
         <v>4</v>
       </c>
       <c r="B199" s="2">
-        <v>45621</v>
+        <v>45617</v>
       </c>
       <c r="C199" s="2">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>5</v>
@@ -3209,10 +3206,10 @@
         <v>4</v>
       </c>
       <c r="B200" s="2">
-        <v>45623</v>
+        <v>45617</v>
       </c>
       <c r="C200" s="2">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>5</v>
@@ -3223,13 +3220,13 @@
         <v>4</v>
       </c>
       <c r="B201" s="2">
-        <v>45623</v>
+        <v>45618</v>
       </c>
       <c r="C201" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3237,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="B202" s="2">
-        <v>45624</v>
+        <v>45618</v>
       </c>
       <c r="C202" s="2">
-        <v>3</v>
+        <v>482</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3251,10 +3248,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="2">
-        <v>45626</v>
+        <v>45619</v>
       </c>
       <c r="C203" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>5</v>
@@ -3265,10 +3262,10 @@
         <v>4</v>
       </c>
       <c r="B204" s="2">
-        <v>45627</v>
+        <v>45620</v>
       </c>
       <c r="C204" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>5</v>
@@ -3279,10 +3276,10 @@
         <v>4</v>
       </c>
       <c r="B205" s="2">
-        <v>45627</v>
+        <v>45620</v>
       </c>
       <c r="C205" s="2">
-        <v>1</v>
+        <v>670</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>5</v>
@@ -3293,13 +3290,13 @@
         <v>4</v>
       </c>
       <c r="B206" s="2">
-        <v>45627</v>
+        <v>45621</v>
       </c>
       <c r="C206" s="2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3307,13 +3304,13 @@
         <v>4</v>
       </c>
       <c r="B207" s="2">
-        <v>45630</v>
+        <v>45621</v>
       </c>
       <c r="C207" s="2">
-        <v>90</v>
+        <v>529</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3321,13 +3318,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="2">
-        <v>45633</v>
+        <v>45622</v>
       </c>
       <c r="C208" s="2">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3335,13 +3332,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="2">
-        <v>45633</v>
+        <v>45623</v>
       </c>
       <c r="C209" s="2">
-        <v>295</v>
+        <v>608</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3349,10 +3346,10 @@
         <v>4</v>
       </c>
       <c r="B210" s="2">
-        <v>45635</v>
+        <v>45624</v>
       </c>
       <c r="C210" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>5</v>
@@ -3363,13 +3360,13 @@
         <v>4</v>
       </c>
       <c r="B211" s="2">
-        <v>45636</v>
+        <v>45625</v>
       </c>
       <c r="C211" s="2">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3377,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="B212" s="2">
-        <v>45605</v>
+        <v>45625</v>
       </c>
       <c r="C212" s="2">
         <v>1</v>
@@ -3391,10 +3388,10 @@
         <v>4</v>
       </c>
       <c r="B213" s="2">
-        <v>45606</v>
+        <v>45627</v>
       </c>
       <c r="C213" s="2">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>5</v>
@@ -3405,13 +3402,13 @@
         <v>4</v>
       </c>
       <c r="B214" s="2">
-        <v>45606</v>
+        <v>45629</v>
       </c>
       <c r="C214" s="2">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3419,13 +3416,13 @@
         <v>4</v>
       </c>
       <c r="B215" s="2">
-        <v>45606</v>
+        <v>45632</v>
       </c>
       <c r="C215" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3433,13 +3430,13 @@
         <v>4</v>
       </c>
       <c r="B216" s="2">
-        <v>45612</v>
+        <v>45635</v>
       </c>
       <c r="C216" s="2">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3447,13 +3444,13 @@
         <v>4</v>
       </c>
       <c r="B217" s="2">
-        <v>45612</v>
+        <v>45635</v>
       </c>
       <c r="C217" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3461,10 +3458,10 @@
         <v>4</v>
       </c>
       <c r="B218" s="2">
-        <v>45614</v>
+        <v>45605</v>
       </c>
       <c r="C218" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>5</v>
@@ -3475,13 +3472,13 @@
         <v>4</v>
       </c>
       <c r="B219" s="2">
-        <v>45615</v>
+        <v>45605</v>
       </c>
       <c r="C219" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3489,13 +3486,13 @@
         <v>4</v>
       </c>
       <c r="B220" s="2">
-        <v>45615</v>
+        <v>45607</v>
       </c>
       <c r="C220" s="2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3503,10 +3500,10 @@
         <v>4</v>
       </c>
       <c r="B221" s="2">
-        <v>45615</v>
+        <v>45608</v>
       </c>
       <c r="C221" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>5</v>
@@ -3517,13 +3514,13 @@
         <v>4</v>
       </c>
       <c r="B222" s="2">
-        <v>45618</v>
+        <v>45608</v>
       </c>
       <c r="C222" s="2">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3531,13 +3528,13 @@
         <v>4</v>
       </c>
       <c r="B223" s="2">
-        <v>45619</v>
+        <v>45610</v>
       </c>
       <c r="C223" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3545,13 +3542,13 @@
         <v>4</v>
       </c>
       <c r="B224" s="2">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C224" s="2">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3559,10 +3556,10 @@
         <v>4</v>
       </c>
       <c r="B225" s="2">
-        <v>45621</v>
+        <v>45612</v>
       </c>
       <c r="C225" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>5</v>
@@ -3573,10 +3570,10 @@
         <v>4</v>
       </c>
       <c r="B226" s="2">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="C226" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>5</v>
@@ -3587,10 +3584,10 @@
         <v>4</v>
       </c>
       <c r="B227" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="C227" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>5</v>
@@ -3601,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="B228" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="C228" s="2">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>8</v>
@@ -3615,13 +3612,13 @@
         <v>4</v>
       </c>
       <c r="B229" s="2">
-        <v>45623</v>
+        <v>45614</v>
       </c>
       <c r="C229" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3629,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>45624</v>
+        <v>45616</v>
       </c>
       <c r="C230" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>5</v>
@@ -3643,10 +3640,10 @@
         <v>4</v>
       </c>
       <c r="B231" s="2">
-        <v>45624</v>
+        <v>45617</v>
       </c>
       <c r="C231" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>5</v>
@@ -3657,13 +3654,13 @@
         <v>4</v>
       </c>
       <c r="B232" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C232" s="2">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3671,13 +3668,13 @@
         <v>4</v>
       </c>
       <c r="B233" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C233" s="2">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3685,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="B234" s="2">
-        <v>45625</v>
+        <v>45618</v>
       </c>
       <c r="C234" s="2">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3699,13 +3696,13 @@
         <v>4</v>
       </c>
       <c r="B235" s="2">
-        <v>45625</v>
+        <v>45618</v>
       </c>
       <c r="C235" s="2">
-        <v>4</v>
+        <v>770</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3713,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="B236" s="2">
-        <v>45626</v>
+        <v>45620</v>
       </c>
       <c r="C236" s="2">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3727,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="B237" s="2">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="C237" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3741,10 +3738,10 @@
         <v>4</v>
       </c>
       <c r="B238" s="2">
-        <v>45629</v>
+        <v>45621</v>
       </c>
       <c r="C238" s="2">
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>5</v>
@@ -3755,10 +3752,10 @@
         <v>4</v>
       </c>
       <c r="B239" s="2">
-        <v>45629</v>
+        <v>45623</v>
       </c>
       <c r="C239" s="2">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>5</v>
@@ -3769,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="B240" s="2">
-        <v>45631</v>
+        <v>45624</v>
       </c>
       <c r="C240" s="2">
-        <v>2</v>
+        <v>583</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3783,10 +3780,10 @@
         <v>4</v>
       </c>
       <c r="B241" s="2">
-        <v>45632</v>
+        <v>45627</v>
       </c>
       <c r="C241" s="2">
-        <v>1</v>
+        <v>637</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>5</v>
@@ -3797,13 +3794,13 @@
         <v>4</v>
       </c>
       <c r="B242" s="2">
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="C242" s="2">
-        <v>580</v>
+        <v>53</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3811,13 +3808,13 @@
         <v>4</v>
       </c>
       <c r="B243" s="2">
-        <v>45635</v>
+        <v>45631</v>
       </c>
       <c r="C243" s="2">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3825,12 +3822,40 @@
         <v>4</v>
       </c>
       <c r="B244" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C244" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C245" s="2">
+        <v>93</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C246" s="2">
+        <v>39</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45611</v>
+        <v>45604</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C3" s="2">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -465,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45613</v>
+        <v>45605</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -479,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="C6" s="2">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45614</v>
+        <v>45608</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -521,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C8" s="2">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -535,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -566,10 +563,10 @@
         <v>45618</v>
       </c>
       <c r="C11" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -591,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C13" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -619,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="C15" s="2">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -633,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C16" s="2">
+        <v>824</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -675,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>786</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -692,10 +689,10 @@
         <v>45627</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -717,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C22" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -734,10 +731,10 @@
         <v>45630</v>
       </c>
       <c r="C23" s="2">
-        <v>90</v>
+        <v>485</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C24" s="2">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="C25" s="2">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45636</v>
+        <v>45633</v>
       </c>
       <c r="C27" s="2">
-        <v>135</v>
+        <v>1404</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45637</v>
+        <v>45633</v>
       </c>
       <c r="C28" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45604</v>
+        <v>45634</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -829,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45605</v>
+        <v>45634</v>
       </c>
       <c r="C30" s="2">
-        <v>6</v>
+        <v>854</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -843,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45606</v>
+        <v>45636</v>
       </c>
       <c r="C31" s="2">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45612</v>
+        <v>45636</v>
       </c>
       <c r="C32" s="2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -871,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45613</v>
+        <v>45637</v>
       </c>
       <c r="C33" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -885,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45615</v>
+        <v>45637</v>
       </c>
       <c r="C34" s="2">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45615</v>
+        <v>45604</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45616</v>
+        <v>45606</v>
       </c>
       <c r="C36" s="2">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -927,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45619</v>
+        <v>45606</v>
       </c>
       <c r="C37" s="2">
-        <v>623</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45619</v>
+        <v>45609</v>
       </c>
       <c r="C38" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45621</v>
+        <v>45610</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45622</v>
+        <v>45612</v>
       </c>
       <c r="C40" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45622</v>
+        <v>45613</v>
       </c>
       <c r="C41" s="2">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1011,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45624</v>
+        <v>45614</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1025,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45625</v>
+        <v>45615</v>
       </c>
       <c r="C44" s="2">
-        <v>426</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45625</v>
+        <v>45616</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1053,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45625</v>
+        <v>45616</v>
       </c>
       <c r="C46" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45627</v>
+        <v>45617</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1081,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45628</v>
+        <v>45617</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1095,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45628</v>
+        <v>45618</v>
       </c>
       <c r="C49" s="2">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1109,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45628</v>
+        <v>45618</v>
       </c>
       <c r="C50" s="2">
+        <v>482</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45631</v>
+        <v>45619</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1137,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45631</v>
+        <v>45620</v>
       </c>
       <c r="C52" s="2">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45634</v>
+        <v>45620</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>670</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1165,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45634</v>
+        <v>45621</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -1179,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45635</v>
+        <v>45621</v>
       </c>
       <c r="C55" s="2">
-        <v>25</v>
+        <v>529</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45636</v>
+        <v>45622</v>
       </c>
       <c r="C56" s="2">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1207,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45637</v>
+        <v>45623</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>608</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1221,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45637</v>
+        <v>45624</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1235,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="C59" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1249,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45610</v>
+        <v>45625</v>
       </c>
       <c r="C60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1263,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45610</v>
+        <v>45627</v>
       </c>
       <c r="C61" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1277,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45612</v>
+        <v>45629</v>
       </c>
       <c r="C62" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1291,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45612</v>
+        <v>45632</v>
       </c>
       <c r="C63" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1305,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45613</v>
+        <v>45635</v>
       </c>
       <c r="C64" s="2">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1319,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45614</v>
+        <v>45635</v>
       </c>
       <c r="C65" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1333,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45616</v>
+        <v>45605</v>
       </c>
       <c r="C66" s="2">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1347,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45616</v>
+        <v>45606</v>
       </c>
       <c r="C67" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -1361,10 +1358,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45617</v>
+        <v>45607</v>
       </c>
       <c r="C68" s="2">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -1375,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45617</v>
+        <v>45608</v>
       </c>
       <c r="C69" s="2">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45618</v>
+        <v>45609</v>
       </c>
       <c r="C70" s="2">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1403,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45619</v>
+        <v>45609</v>
       </c>
       <c r="C71" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1417,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C72" s="2">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1431,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45621</v>
+        <v>45612</v>
       </c>
       <c r="C73" s="2">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1445,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45621</v>
+        <v>45612</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>614</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1459,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="C75" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45623</v>
+        <v>45615</v>
       </c>
       <c r="C76" s="2">
-        <v>991</v>
+        <v>247</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
@@ -1487,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45624</v>
+        <v>45617</v>
       </c>
       <c r="C77" s="2">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1501,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45624</v>
+        <v>45620</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45624</v>
+        <v>45620</v>
       </c>
       <c r="C79" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -1529,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C80" s="2">
-        <v>2</v>
+        <v>802</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1543,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C81" s="2">
-        <v>1024</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C82" s="2">
-        <v>173</v>
+        <v>785</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1571,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45634</v>
+        <v>45627</v>
       </c>
       <c r="C83" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -1585,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1599,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45636</v>
+        <v>45629</v>
       </c>
       <c r="C85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>5</v>
@@ -1613,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45601</v>
+        <v>45629</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>455</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1627,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45604</v>
+        <v>45630</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -1641,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45605</v>
+        <v>45630</v>
       </c>
       <c r="C88" s="2">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1655,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45605</v>
+        <v>45631</v>
       </c>
       <c r="C89" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1669,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45612</v>
+        <v>45632</v>
       </c>
       <c r="C90" s="2">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -1683,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45613</v>
+        <v>45633</v>
       </c>
       <c r="C91" s="2">
-        <v>769</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
@@ -1697,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45615</v>
+        <v>45634</v>
       </c>
       <c r="C92" s="2">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1711,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45618</v>
+        <v>45635</v>
       </c>
       <c r="C93" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1725,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45619</v>
+        <v>45636</v>
       </c>
       <c r="C94" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -1739,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45619</v>
+        <v>45637</v>
       </c>
       <c r="C95" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1753,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45619</v>
+        <v>45605</v>
       </c>
       <c r="C96" s="2">
         <v>2</v>
@@ -1767,13 +1764,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45620</v>
+        <v>45605</v>
       </c>
       <c r="C97" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1781,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45622</v>
+        <v>45607</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -1795,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45623</v>
+        <v>45608</v>
       </c>
       <c r="C99" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -1809,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45623</v>
+        <v>45608</v>
       </c>
       <c r="C100" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1823,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45624</v>
+        <v>45610</v>
       </c>
       <c r="C101" s="2">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
@@ -1837,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45625</v>
+        <v>45611</v>
       </c>
       <c r="C102" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45625</v>
+        <v>45612</v>
       </c>
       <c r="C103" s="2">
         <v>4</v>
@@ -1865,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45626</v>
+        <v>45613</v>
       </c>
       <c r="C104" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
@@ -1879,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45626</v>
+        <v>45614</v>
       </c>
       <c r="C105" s="2">
-        <v>297</v>
+        <v>2</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1893,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45626</v>
+        <v>45614</v>
       </c>
       <c r="C106" s="2">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1907,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45627</v>
+        <v>45614</v>
       </c>
       <c r="C107" s="2">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1921,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45628</v>
+        <v>45616</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1935,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45629</v>
+        <v>45617</v>
       </c>
       <c r="C109" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1949,13 +1946,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45629</v>
+        <v>45617</v>
       </c>
       <c r="C110" s="2">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1963,13 +1960,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45630</v>
+        <v>45617</v>
       </c>
       <c r="C111" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1977,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45631</v>
+        <v>45618</v>
       </c>
       <c r="C112" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
@@ -1991,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45632</v>
+        <v>45618</v>
       </c>
       <c r="C113" s="2">
-        <v>27</v>
+        <v>770</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2005,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45633</v>
+        <v>45620</v>
       </c>
       <c r="C114" s="2">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2019,10 +2016,10 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45633</v>
+        <v>45621</v>
       </c>
       <c r="C115" s="2">
-        <v>1558</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>5</v>
@@ -2033,13 +2030,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45634</v>
+        <v>45621</v>
       </c>
       <c r="C116" s="2">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2047,10 +2044,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45634</v>
+        <v>45623</v>
       </c>
       <c r="C117" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>5</v>
@@ -2061,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45636</v>
+        <v>45624</v>
       </c>
       <c r="C118" s="2">
-        <v>397</v>
+        <v>583</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2075,13 +2072,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45637</v>
+        <v>45627</v>
       </c>
       <c r="C119" s="2">
-        <v>151</v>
+        <v>637</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2089,13 +2086,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45637</v>
+        <v>45628</v>
       </c>
       <c r="C120" s="2">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2103,13 +2100,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45602</v>
+        <v>45631</v>
       </c>
       <c r="C121" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2117,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45605</v>
+        <v>45634</v>
       </c>
       <c r="C122" s="2">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2131,13 +2128,13 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45605</v>
+        <v>45634</v>
       </c>
       <c r="C123" s="2">
-        <v>760</v>
+        <v>93</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2145,10 +2142,10 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45606</v>
+        <v>45636</v>
       </c>
       <c r="C124" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
@@ -2159,13 +2156,13 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45611</v>
+        <v>45637</v>
       </c>
       <c r="C125" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2173,13 +2170,13 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45613</v>
+        <v>45637</v>
       </c>
       <c r="C126" s="2">
-        <v>153</v>
+        <v>778</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2187,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45614</v>
+        <v>45604</v>
       </c>
       <c r="C127" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
@@ -2201,10 +2198,10 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45614</v>
+        <v>45604</v>
       </c>
       <c r="C128" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>5</v>
@@ -2215,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C129" s="2">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2229,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45617</v>
+        <v>45607</v>
       </c>
       <c r="C130" s="2">
-        <v>4</v>
+        <v>473</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2243,13 +2240,13 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45619</v>
+        <v>45608</v>
       </c>
       <c r="C131" s="2">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2257,13 +2254,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45620</v>
+        <v>45610</v>
       </c>
       <c r="C132" s="2">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2271,13 +2268,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45621</v>
+        <v>45611</v>
       </c>
       <c r="C133" s="2">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2285,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45623</v>
+        <v>45613</v>
       </c>
       <c r="C134" s="2">
-        <v>3</v>
+        <v>468</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2299,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45623</v>
+        <v>45614</v>
       </c>
       <c r="C135" s="2">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2313,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45625</v>
+        <v>45616</v>
       </c>
       <c r="C136" s="2">
-        <v>707</v>
+        <v>3</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>5</v>
@@ -2327,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45626</v>
+        <v>45617</v>
       </c>
       <c r="C137" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2341,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45626</v>
+        <v>45618</v>
       </c>
       <c r="C138" s="2">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2355,10 +2352,10 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45626</v>
+        <v>45619</v>
       </c>
       <c r="C139" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>5</v>
@@ -2369,13 +2366,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45627</v>
+        <v>45621</v>
       </c>
       <c r="C140" s="2">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2383,10 +2380,10 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45627</v>
+        <v>45622</v>
       </c>
       <c r="C141" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>5</v>
@@ -2397,10 +2394,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45628</v>
+        <v>45622</v>
       </c>
       <c r="C142" s="2">
-        <v>337</v>
+        <v>415</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>5</v>
@@ -2411,10 +2408,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45629</v>
+        <v>45623</v>
       </c>
       <c r="C143" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>5</v>
@@ -2425,10 +2422,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45630</v>
+        <v>45623</v>
       </c>
       <c r="C144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
@@ -2439,13 +2436,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45631</v>
+        <v>45624</v>
       </c>
       <c r="C145" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2453,13 +2450,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45631</v>
+        <v>45624</v>
       </c>
       <c r="C146" s="2">
-        <v>417</v>
+        <v>326</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2467,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="C147" s="2">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>5</v>
@@ -2481,10 +2478,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="C148" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
@@ -2495,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45633</v>
+        <v>45625</v>
       </c>
       <c r="C149" s="2">
-        <v>2</v>
+        <v>935</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2509,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45634</v>
+        <v>45627</v>
       </c>
       <c r="C150" s="2">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2523,10 +2520,10 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="C151" s="2">
-        <v>1260</v>
+        <v>388</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
@@ -2537,10 +2534,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45635</v>
+        <v>45630</v>
       </c>
       <c r="C152" s="2">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -2551,10 +2548,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45635</v>
+        <v>45631</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
@@ -2565,10 +2562,10 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45636</v>
+        <v>45633</v>
       </c>
       <c r="C154" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>5</v>
@@ -2579,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="C155" s="2">
-        <v>36</v>
+        <v>642</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2593,13 +2590,13 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45605</v>
+        <v>45637</v>
       </c>
       <c r="C156" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2607,10 +2604,10 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45606</v>
+        <v>45597</v>
       </c>
       <c r="C157" s="2">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>5</v>
@@ -2621,13 +2618,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="C158" s="2">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2638,7 +2635,7 @@
         <v>45606</v>
       </c>
       <c r="C159" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2649,13 +2646,13 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45612</v>
+        <v>45606</v>
       </c>
       <c r="C160" s="2">
-        <v>222</v>
+        <v>549</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2663,13 +2660,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45612</v>
+        <v>45606</v>
       </c>
       <c r="C161" s="2">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2677,13 +2674,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="C162" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2691,13 +2688,13 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45615</v>
+        <v>45609</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2705,13 +2702,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45615</v>
+        <v>45610</v>
       </c>
       <c r="C164" s="2">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2719,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
@@ -2733,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45618</v>
+        <v>45613</v>
       </c>
       <c r="C166" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>5</v>
@@ -2747,13 +2744,13 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45619</v>
+        <v>45613</v>
       </c>
       <c r="C167" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2761,10 +2758,10 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45620</v>
+        <v>45615</v>
       </c>
       <c r="C168" s="2">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>5</v>
@@ -2775,10 +2772,10 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45621</v>
+        <v>45615</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>5</v>
@@ -2789,10 +2786,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C170" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
@@ -2803,10 +2800,10 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C171" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>5</v>
@@ -2817,10 +2814,10 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C172" s="2">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>6</v>
@@ -2831,10 +2828,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45623</v>
+        <v>45620</v>
       </c>
       <c r="C173" s="2">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>5</v>
@@ -2845,10 +2842,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="C174" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>5</v>
@@ -2859,13 +2856,13 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C175" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2873,10 +2870,10 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="C176" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>5</v>
@@ -2887,13 +2884,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C177" s="2">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2904,7 +2901,7 @@
         <v>45625</v>
       </c>
       <c r="C178" s="2">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>6</v>
@@ -2915,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="B179" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C179" s="2">
         <v>4</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2932,7 +2929,7 @@
         <v>45626</v>
       </c>
       <c r="C180" s="2">
-        <v>98</v>
+        <v>757</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>5</v>
@@ -2946,7 +2943,7 @@
         <v>45628</v>
       </c>
       <c r="C181" s="2">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>6</v>
@@ -2960,7 +2957,7 @@
         <v>45629</v>
       </c>
       <c r="C182" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>5</v>
@@ -2974,7 +2971,7 @@
         <v>45629</v>
       </c>
       <c r="C183" s="2">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>5</v>
@@ -2985,13 +2982,13 @@
         <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="C184" s="2">
-        <v>2</v>
+        <v>893</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3002,10 +2999,10 @@
         <v>45632</v>
       </c>
       <c r="C185" s="2">
-        <v>1</v>
+        <v>711</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3013,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="B186" s="2">
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="C186" s="2">
-        <v>580</v>
+        <v>152</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3030,7 +3027,7 @@
         <v>45635</v>
       </c>
       <c r="C187" s="2">
-        <v>360</v>
+        <v>504</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
@@ -3044,10 +3041,10 @@
         <v>45635</v>
       </c>
       <c r="C188" s="2">
-        <v>10</v>
+        <v>735</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3055,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="2">
-        <v>45601</v>
+        <v>45636</v>
       </c>
       <c r="C189" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3069,13 +3066,13 @@
         <v>4</v>
       </c>
       <c r="B190" s="2">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="C190" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3083,13 +3080,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="C191" s="2">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3100,10 +3097,10 @@
         <v>45607</v>
       </c>
       <c r="C192" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3111,10 +3108,10 @@
         <v>4</v>
       </c>
       <c r="B193" s="2">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="C193" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>5</v>
@@ -3125,13 +3122,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="2">
-        <v>45613</v>
+        <v>45609</v>
       </c>
       <c r="C194" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3139,13 +3136,13 @@
         <v>4</v>
       </c>
       <c r="B195" s="2">
-        <v>45614</v>
+        <v>45610</v>
       </c>
       <c r="C195" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3153,10 +3150,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="2">
-        <v>45615</v>
+        <v>45610</v>
       </c>
       <c r="C196" s="2">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>5</v>
@@ -3167,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="2">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C197" s="2">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3181,10 +3178,10 @@
         <v>4</v>
       </c>
       <c r="B198" s="2">
-        <v>45619</v>
+        <v>45613</v>
       </c>
       <c r="C198" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>5</v>
@@ -3195,13 +3192,13 @@
         <v>4</v>
       </c>
       <c r="B199" s="2">
-        <v>45620</v>
+        <v>45613</v>
       </c>
       <c r="C199" s="2">
-        <v>245</v>
+        <v>606</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3209,13 +3206,13 @@
         <v>4</v>
       </c>
       <c r="B200" s="2">
-        <v>45621</v>
+        <v>45615</v>
       </c>
       <c r="C200" s="2">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3223,10 +3220,10 @@
         <v>4</v>
       </c>
       <c r="B201" s="2">
-        <v>45622</v>
+        <v>45616</v>
       </c>
       <c r="C201" s="2">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>5</v>
@@ -3237,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="B202" s="2">
-        <v>45623</v>
+        <v>45616</v>
       </c>
       <c r="C202" s="2">
-        <v>349</v>
+        <v>202</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3251,10 +3248,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="2">
-        <v>45623</v>
+        <v>45619</v>
       </c>
       <c r="C203" s="2">
-        <v>1</v>
+        <v>779</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>5</v>
@@ -3265,13 +3262,13 @@
         <v>4</v>
       </c>
       <c r="B204" s="2">
-        <v>45624</v>
+        <v>45619</v>
       </c>
       <c r="C204" s="2">
-        <v>957</v>
+        <v>719</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3279,13 +3276,13 @@
         <v>4</v>
       </c>
       <c r="B205" s="2">
-        <v>45625</v>
+        <v>45620</v>
       </c>
       <c r="C205" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3293,10 +3290,10 @@
         <v>4</v>
       </c>
       <c r="B206" s="2">
-        <v>45626</v>
+        <v>45622</v>
       </c>
       <c r="C206" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>5</v>
@@ -3307,13 +3304,13 @@
         <v>4</v>
       </c>
       <c r="B207" s="2">
-        <v>45627</v>
+        <v>45622</v>
       </c>
       <c r="C207" s="2">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3321,10 +3318,10 @@
         <v>4</v>
       </c>
       <c r="B208" s="2">
-        <v>45627</v>
+        <v>45623</v>
       </c>
       <c r="C208" s="2">
-        <v>1018</v>
+        <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>5</v>
@@ -3335,13 +3332,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="2">
-        <v>45627</v>
+        <v>45623</v>
       </c>
       <c r="C209" s="2">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3349,10 +3346,10 @@
         <v>4</v>
       </c>
       <c r="B210" s="2">
-        <v>45628</v>
+        <v>45625</v>
       </c>
       <c r="C210" s="2">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>5</v>
@@ -3363,13 +3360,13 @@
         <v>4</v>
       </c>
       <c r="B211" s="2">
-        <v>45629</v>
+        <v>45625</v>
       </c>
       <c r="C211" s="2">
-        <v>1</v>
+        <v>1117</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3377,13 +3374,13 @@
         <v>4</v>
       </c>
       <c r="B212" s="2">
-        <v>45630</v>
+        <v>45626</v>
       </c>
       <c r="C212" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3391,13 +3388,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="2">
-        <v>45630</v>
+        <v>45626</v>
       </c>
       <c r="C213" s="2">
-        <v>392</v>
+        <v>128</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3405,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B214" s="2">
-        <v>45630</v>
+        <v>45628</v>
       </c>
       <c r="C214" s="2">
         <v>2</v>
@@ -3419,10 +3416,10 @@
         <v>4</v>
       </c>
       <c r="B215" s="2">
-        <v>45630</v>
+        <v>45628</v>
       </c>
       <c r="C215" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>5</v>
@@ -3433,10 +3430,10 @@
         <v>4</v>
       </c>
       <c r="B216" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="C216" s="2">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>5</v>
@@ -3447,10 +3444,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C217" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>5</v>
@@ -3461,13 +3458,13 @@
         <v>4</v>
       </c>
       <c r="B218" s="2">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="C218" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3475,10 +3472,10 @@
         <v>4</v>
       </c>
       <c r="B219" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C219" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>5</v>
@@ -3492,7 +3489,7 @@
         <v>45634</v>
       </c>
       <c r="C220" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>5</v>
@@ -3503,10 +3500,10 @@
         <v>4</v>
       </c>
       <c r="B221" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C221" s="2">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>6</v>
@@ -3534,7 +3531,7 @@
         <v>45637</v>
       </c>
       <c r="C223" s="2">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>5</v>
@@ -3545,10 +3542,10 @@
         <v>4</v>
       </c>
       <c r="B224" s="2">
-        <v>45612</v>
+        <v>45604</v>
       </c>
       <c r="C224" s="2">
-        <v>987</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>5</v>
@@ -3559,10 +3556,10 @@
         <v>4</v>
       </c>
       <c r="B225" s="2">
-        <v>45613</v>
+        <v>45604</v>
       </c>
       <c r="C225" s="2">
-        <v>7</v>
+        <v>789</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>5</v>
@@ -3573,13 +3570,13 @@
         <v>4</v>
       </c>
       <c r="B226" s="2">
-        <v>45614</v>
+        <v>45605</v>
       </c>
       <c r="C226" s="2">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3587,10 +3584,10 @@
         <v>4</v>
       </c>
       <c r="B227" s="2">
-        <v>45615</v>
+        <v>45606</v>
       </c>
       <c r="C227" s="2">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>5</v>
@@ -3601,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="B228" s="2">
-        <v>45616</v>
+        <v>45607</v>
       </c>
       <c r="C228" s="2">
-        <v>65</v>
+        <v>904</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>5</v>
@@ -3615,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="B229" s="2">
-        <v>45616</v>
+        <v>45609</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
@@ -3629,13 +3626,13 @@
         <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="C230" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3643,13 +3640,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="2">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="C231" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3657,10 +3654,10 @@
         <v>4</v>
       </c>
       <c r="B232" s="2">
-        <v>45618</v>
+        <v>45622</v>
       </c>
       <c r="C232" s="2">
-        <v>343</v>
+        <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>5</v>
@@ -3671,13 +3668,13 @@
         <v>4</v>
       </c>
       <c r="B233" s="2">
-        <v>45619</v>
+        <v>45622</v>
       </c>
       <c r="C233" s="2">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3685,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="B234" s="2">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="C234" s="2">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3699,10 +3696,10 @@
         <v>4</v>
       </c>
       <c r="B235" s="2">
-        <v>45620</v>
+        <v>45625</v>
       </c>
       <c r="C235" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>5</v>
@@ -3713,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="B236" s="2">
-        <v>45621</v>
+        <v>45625</v>
       </c>
       <c r="C236" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3727,10 +3724,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="2">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="C237" s="2">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>5</v>
@@ -3741,13 +3738,13 @@
         <v>4</v>
       </c>
       <c r="B238" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C238" s="2">
+        <v>302</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3755,13 +3752,13 @@
         <v>4</v>
       </c>
       <c r="B239" s="2">
-        <v>45624</v>
+        <v>45627</v>
       </c>
       <c r="C239" s="2">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3769,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="B240" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="C240" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3783,13 +3780,13 @@
         <v>4</v>
       </c>
       <c r="B241" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="C241" s="2">
-        <v>56</v>
+        <v>476</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3797,13 +3794,13 @@
         <v>4</v>
       </c>
       <c r="B242" s="2">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="C242" s="2">
-        <v>410</v>
+        <v>29</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3811,10 +3808,10 @@
         <v>4</v>
       </c>
       <c r="B243" s="2">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="C243" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>5</v>
@@ -3825,13 +3822,13 @@
         <v>4</v>
       </c>
       <c r="B244" s="2">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C244" s="2">
-        <v>85</v>
+        <v>416</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3839,13 +3836,13 @@
         <v>4</v>
       </c>
       <c r="B245" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C245" s="2">
-        <v>113</v>
+        <v>383</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3853,10 +3850,10 @@
         <v>4</v>
       </c>
       <c r="B246" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C246" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>5</v>
@@ -3867,13 +3864,13 @@
         <v>4</v>
       </c>
       <c r="B247" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C247" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3881,10 +3878,10 @@
         <v>4</v>
       </c>
       <c r="B248" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C248" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>5</v>
@@ -3895,10 +3892,10 @@
         <v>4</v>
       </c>
       <c r="B249" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C249" s="2">
-        <v>1</v>
+        <v>881</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>5</v>
@@ -3912,10 +3909,10 @@
         <v>45634</v>
       </c>
       <c r="C250" s="2">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3923,13 +3920,41 @@
         <v>4</v>
       </c>
       <c r="B251" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C251" s="2">
+        <v>945</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="2">
         <v>45635</v>
       </c>
-      <c r="C251" s="2">
-        <v>135</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>9</v>
+      <c r="C252" s="2">
+        <v>5</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C253" s="2">
+        <v>338</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="10">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,22 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Uplift Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Coaster</t>
+  </si>
+  <si>
+    <t>Purgatory Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45605</v>
+        <v>45612</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -462,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45605</v>
+        <v>45613</v>
       </c>
       <c r="C4" s="2">
-        <v>512</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45607</v>
+        <v>45614</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45607</v>
+        <v>45614</v>
       </c>
       <c r="C6" s="2">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45608</v>
+        <v>45614</v>
       </c>
       <c r="C7" s="2">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -518,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45611</v>
+        <v>45615</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -532,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45612</v>
+        <v>45616</v>
       </c>
       <c r="C9" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,10 +566,10 @@
         <v>45618</v>
       </c>
       <c r="C11" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -588,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C13" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45623</v>
+        <v>45620</v>
       </c>
       <c r="C14" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -616,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -630,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C16" s="2">
-        <v>824</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45626</v>
+        <v>45623</v>
       </c>
       <c r="C17" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +661,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C19" s="2">
-        <v>786</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,10 +692,10 @@
         <v>45627</v>
       </c>
       <c r="C20" s="2">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -714,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45629</v>
+        <v>45627</v>
       </c>
       <c r="C22" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,10 +734,10 @@
         <v>45630</v>
       </c>
       <c r="C23" s="2">
-        <v>485</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="C24" s="2">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45631</v>
+        <v>45633</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -784,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="C27" s="2">
-        <v>1404</v>
+        <v>135</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45633</v>
+        <v>45637</v>
       </c>
       <c r="C28" s="2">
-        <v>118</v>
+        <v>514</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,10 +815,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45634</v>
+        <v>45638</v>
       </c>
       <c r="C29" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -826,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45634</v>
+        <v>45638</v>
       </c>
       <c r="C30" s="2">
-        <v>854</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45636</v>
+        <v>45640</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>1413</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45637</v>
+        <v>45612</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>987</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -882,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45637</v>
+        <v>45613</v>
       </c>
       <c r="C34" s="2">
-        <v>535</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -896,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45604</v>
+        <v>45614</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -910,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45606</v>
+        <v>45615</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -924,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45606</v>
+        <v>45616</v>
       </c>
       <c r="C37" s="2">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45609</v>
+        <v>45616</v>
       </c>
       <c r="C38" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45610</v>
+        <v>45617</v>
       </c>
       <c r="C39" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45612</v>
+        <v>45618</v>
       </c>
       <c r="C40" s="2">
-        <v>456</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45613</v>
+        <v>45618</v>
       </c>
       <c r="C41" s="2">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45614</v>
+        <v>45619</v>
       </c>
       <c r="C42" s="2">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1008,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="C43" s="2">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1022,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45615</v>
+        <v>45620</v>
       </c>
       <c r="C44" s="2">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45616</v>
+        <v>45621</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45616</v>
+        <v>45622</v>
       </c>
       <c r="C46" s="2">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45617</v>
+        <v>45624</v>
       </c>
       <c r="C47" s="2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1078,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45617</v>
+        <v>45624</v>
       </c>
       <c r="C48" s="2">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45618</v>
+        <v>45624</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C50" s="2">
-        <v>482</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45619</v>
+        <v>45626</v>
       </c>
       <c r="C51" s="2">
-        <v>10</v>
+        <v>410</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45620</v>
+        <v>45627</v>
       </c>
       <c r="C52" s="2">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1148,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45620</v>
+        <v>45629</v>
       </c>
       <c r="C53" s="2">
-        <v>670</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45621</v>
+        <v>45632</v>
       </c>
       <c r="C54" s="2">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45621</v>
+        <v>45633</v>
       </c>
       <c r="C55" s="2">
-        <v>529</v>
+        <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45622</v>
+        <v>45633</v>
       </c>
       <c r="C56" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1204,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45623</v>
+        <v>45634</v>
       </c>
       <c r="C57" s="2">
-        <v>608</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1218,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45624</v>
+        <v>45634</v>
       </c>
       <c r="C58" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1232,13 +1235,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45625</v>
+        <v>45634</v>
       </c>
       <c r="C59" s="2">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,13 +1249,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45625</v>
+        <v>45635</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45627</v>
+        <v>45639</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -1274,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45629</v>
+        <v>45639</v>
       </c>
       <c r="C62" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C63" s="2">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="C64" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -1316,13 +1319,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45635</v>
+        <v>45604</v>
       </c>
       <c r="C65" s="2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1333,10 +1336,10 @@
         <v>45605</v>
       </c>
       <c r="C66" s="2">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1347,10 +1350,10 @@
         <v>45606</v>
       </c>
       <c r="C67" s="2">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45607</v>
+        <v>45612</v>
       </c>
       <c r="C68" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45608</v>
+        <v>45613</v>
       </c>
       <c r="C69" s="2">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="C70" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1403,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="C71" s="2">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45611</v>
+        <v>45616</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45612</v>
+        <v>45619</v>
       </c>
       <c r="C73" s="2">
-        <v>37</v>
+        <v>623</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
@@ -1442,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45612</v>
+        <v>45619</v>
       </c>
       <c r="C74" s="2">
-        <v>614</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1456,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45614</v>
+        <v>45621</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -1470,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45615</v>
+        <v>45622</v>
       </c>
       <c r="C76" s="2">
-        <v>247</v>
+        <v>454</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
@@ -1484,13 +1487,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45617</v>
+        <v>45622</v>
       </c>
       <c r="C77" s="2">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45620</v>
+        <v>45622</v>
       </c>
       <c r="C78" s="2">
-        <v>681</v>
+        <v>3</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45620</v>
+        <v>45624</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -1526,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C80" s="2">
-        <v>802</v>
+        <v>426</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="C81" s="2">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C82" s="2">
-        <v>785</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1571,7 +1574,7 @@
         <v>45627</v>
       </c>
       <c r="C83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -1582,13 +1585,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C84" s="2">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1599,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1613,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C86" s="2">
-        <v>455</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -1638,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="C88" s="2">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1655,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C89" s="2">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C90" s="2">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -1680,13 +1683,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="C91" s="2">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,13 +1697,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C92" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C93" s="2">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1722,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C94" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -1736,13 +1739,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C95" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1753,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45605</v>
+        <v>45638</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45605</v>
+        <v>45639</v>
       </c>
       <c r="C97" s="2">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1778,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45607</v>
+        <v>45640</v>
       </c>
       <c r="C98" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -1792,10 +1795,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45608</v>
+        <v>45606</v>
       </c>
       <c r="C99" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -1806,10 +1809,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="C100" s="2">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
@@ -1823,10 +1826,10 @@
         <v>45610</v>
       </c>
       <c r="C101" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1834,13 +1837,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="C102" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,7 +1854,7 @@
         <v>45612</v>
       </c>
       <c r="C103" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>5</v>
@@ -1865,10 +1868,10 @@
         <v>45613</v>
       </c>
       <c r="C104" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1879,7 +1882,7 @@
         <v>45614</v>
       </c>
       <c r="C105" s="2">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
@@ -1890,13 +1893,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C106" s="2">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,13 +1907,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C107" s="2">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1918,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="C108" s="2">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1935,7 +1938,7 @@
         <v>45617</v>
       </c>
       <c r="C109" s="2">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>5</v>
@@ -1946,13 +1949,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="C110" s="2">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1960,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45617</v>
+        <v>45619</v>
       </c>
       <c r="C111" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -1974,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45618</v>
+        <v>45620</v>
       </c>
       <c r="C112" s="2">
-        <v>8</v>
+        <v>541</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
@@ -1988,13 +1991,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="C113" s="2">
-        <v>770</v>
+        <v>224</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2002,13 +2005,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C114" s="2">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2016,13 +2019,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="C115" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,10 +2033,10 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="C116" s="2">
-        <v>480</v>
+        <v>991</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>5</v>
@@ -2044,13 +2047,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C117" s="2">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2061,7 +2064,7 @@
         <v>45624</v>
       </c>
       <c r="C118" s="2">
-        <v>583</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2072,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45627</v>
+        <v>45624</v>
       </c>
       <c r="C119" s="2">
-        <v>637</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>5</v>
@@ -2086,13 +2089,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45628</v>
+        <v>45625</v>
       </c>
       <c r="C120" s="2">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2100,13 +2103,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45631</v>
+        <v>45626</v>
       </c>
       <c r="C121" s="2">
-        <v>28</v>
+        <v>1024</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,13 +2117,13 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45634</v>
+        <v>45627</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2131,10 +2134,10 @@
         <v>45634</v>
       </c>
       <c r="C123" s="2">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2142,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C124" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
@@ -2156,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="C125" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>5</v>
@@ -2170,13 +2173,13 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C126" s="2">
-        <v>778</v>
+        <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2184,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45604</v>
+        <v>45638</v>
       </c>
       <c r="C127" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
@@ -2198,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45604</v>
+        <v>45639</v>
       </c>
       <c r="C128" s="2">
         <v>1</v>
@@ -2212,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45604</v>
+        <v>45639</v>
       </c>
       <c r="C129" s="2">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2226,13 +2229,13 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45607</v>
+        <v>45640</v>
       </c>
       <c r="C130" s="2">
-        <v>473</v>
+        <v>145</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2240,13 +2243,13 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45608</v>
+        <v>45601</v>
       </c>
       <c r="C131" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2254,13 +2257,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45610</v>
+        <v>45604</v>
       </c>
       <c r="C132" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2268,13 +2271,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45611</v>
+        <v>45605</v>
       </c>
       <c r="C133" s="2">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2282,13 +2285,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45613</v>
+        <v>45605</v>
       </c>
       <c r="C134" s="2">
-        <v>468</v>
+        <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2296,13 +2299,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45614</v>
+        <v>45612</v>
       </c>
       <c r="C135" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2310,10 +2313,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="C136" s="2">
-        <v>3</v>
+        <v>769</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>5</v>
@@ -2324,13 +2327,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="C137" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2341,10 +2344,10 @@
         <v>45618</v>
       </c>
       <c r="C138" s="2">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2355,7 +2358,7 @@
         <v>45619</v>
       </c>
       <c r="C139" s="2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>5</v>
@@ -2366,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C140" s="2">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2380,10 +2383,10 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="C141" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>5</v>
@@ -2394,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45622</v>
+        <v>45620</v>
       </c>
       <c r="C142" s="2">
-        <v>415</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2408,10 +2411,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C143" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>5</v>
@@ -2436,13 +2439,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C145" s="2">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2453,10 +2456,10 @@
         <v>45624</v>
       </c>
       <c r="C146" s="2">
-        <v>326</v>
+        <v>91</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2467,7 +2470,7 @@
         <v>45625</v>
       </c>
       <c r="C147" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>5</v>
@@ -2481,7 +2484,7 @@
         <v>45625</v>
       </c>
       <c r="C148" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
@@ -2492,10 +2495,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C149" s="2">
-        <v>935</v>
+        <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2506,13 +2509,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="C150" s="2">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2520,13 +2523,13 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45628</v>
+        <v>45626</v>
       </c>
       <c r="C151" s="2">
-        <v>388</v>
+        <v>115</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2534,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="C152" s="2">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -2548,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C153" s="2">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
@@ -2562,13 +2565,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45633</v>
+        <v>45629</v>
       </c>
       <c r="C154" s="2">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2576,13 +2579,13 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45636</v>
+        <v>45629</v>
       </c>
       <c r="C155" s="2">
-        <v>642</v>
+        <v>21</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2590,13 +2593,13 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45637</v>
+        <v>45630</v>
       </c>
       <c r="C156" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2604,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45597</v>
+        <v>45631</v>
       </c>
       <c r="C157" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>5</v>
@@ -2618,13 +2621,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45604</v>
+        <v>45632</v>
       </c>
       <c r="C158" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2632,10 +2635,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45606</v>
+        <v>45633</v>
       </c>
       <c r="C159" s="2">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2646,10 +2649,10 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45606</v>
+        <v>45633</v>
       </c>
       <c r="C160" s="2">
-        <v>549</v>
+        <v>1558</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>5</v>
@@ -2660,13 +2663,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45606</v>
+        <v>45634</v>
       </c>
       <c r="C161" s="2">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2674,13 +2677,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45607</v>
+        <v>45634</v>
       </c>
       <c r="C162" s="2">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2688,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45609</v>
+        <v>45636</v>
       </c>
       <c r="C163" s="2">
-        <v>186</v>
+        <v>397</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2702,13 +2705,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45610</v>
+        <v>45637</v>
       </c>
       <c r="C164" s="2">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2716,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45612</v>
+        <v>45637</v>
       </c>
       <c r="C165" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
@@ -2730,13 +2733,13 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45613</v>
+        <v>45638</v>
       </c>
       <c r="C166" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2744,13 +2747,13 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45613</v>
+        <v>45639</v>
       </c>
       <c r="C167" s="2">
-        <v>31</v>
+        <v>573</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2758,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45615</v>
+        <v>45640</v>
       </c>
       <c r="C168" s="2">
-        <v>3</v>
+        <v>570</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2772,10 +2775,10 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45615</v>
+        <v>45640</v>
       </c>
       <c r="C169" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>5</v>
@@ -2786,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45618</v>
+        <v>45601</v>
       </c>
       <c r="C170" s="2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
@@ -2800,13 +2803,13 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45619</v>
+        <v>45604</v>
       </c>
       <c r="C171" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2814,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45619</v>
+        <v>45605</v>
       </c>
       <c r="C172" s="2">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2828,13 +2831,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45620</v>
+        <v>45607</v>
       </c>
       <c r="C173" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2842,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="C174" s="2">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>5</v>
@@ -2856,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45622</v>
+        <v>45613</v>
       </c>
       <c r="C175" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2870,13 +2873,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45623</v>
+        <v>45614</v>
       </c>
       <c r="C176" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2884,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45624</v>
+        <v>45615</v>
       </c>
       <c r="C177" s="2">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>5</v>
@@ -2898,13 +2901,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C178" s="2">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2912,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="B179" s="2">
-        <v>45626</v>
+        <v>45619</v>
       </c>
       <c r="C179" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>5</v>
@@ -2926,13 +2929,13 @@
         <v>4</v>
       </c>
       <c r="B180" s="2">
-        <v>45626</v>
+        <v>45620</v>
       </c>
       <c r="C180" s="2">
-        <v>757</v>
+        <v>245</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2940,13 +2943,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="C181" s="2">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2954,10 +2957,10 @@
         <v>4</v>
       </c>
       <c r="B182" s="2">
-        <v>45629</v>
+        <v>45622</v>
       </c>
       <c r="C182" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>5</v>
@@ -2968,13 +2971,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="2">
-        <v>45629</v>
+        <v>45623</v>
       </c>
       <c r="C183" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2982,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>45632</v>
+        <v>45623</v>
       </c>
       <c r="C184" s="2">
-        <v>893</v>
+        <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>5</v>
@@ -2996,13 +2999,13 @@
         <v>4</v>
       </c>
       <c r="B185" s="2">
-        <v>45632</v>
+        <v>45624</v>
       </c>
       <c r="C185" s="2">
-        <v>711</v>
+        <v>957</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3010,13 +3013,13 @@
         <v>4</v>
       </c>
       <c r="B186" s="2">
-        <v>45633</v>
+        <v>45625</v>
       </c>
       <c r="C186" s="2">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3024,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="B187" s="2">
-        <v>45635</v>
+        <v>45626</v>
       </c>
       <c r="C187" s="2">
-        <v>504</v>
+        <v>7</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
@@ -3038,13 +3041,13 @@
         <v>4</v>
       </c>
       <c r="B188" s="2">
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="C188" s="2">
-        <v>735</v>
+        <v>50</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3052,13 +3055,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="2">
-        <v>45636</v>
+        <v>45627</v>
       </c>
       <c r="C189" s="2">
-        <v>63</v>
+        <v>1018</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3066,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="B190" s="2">
-        <v>45605</v>
+        <v>45627</v>
       </c>
       <c r="C190" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>5</v>
@@ -3080,13 +3083,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>45606</v>
+        <v>45628</v>
       </c>
       <c r="C191" s="2">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3094,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="B192" s="2">
-        <v>45607</v>
+        <v>45629</v>
       </c>
       <c r="C192" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>5</v>
@@ -3108,13 +3111,13 @@
         <v>4</v>
       </c>
       <c r="B193" s="2">
-        <v>45608</v>
+        <v>45630</v>
       </c>
       <c r="C193" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3122,13 +3125,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="2">
-        <v>45609</v>
+        <v>45630</v>
       </c>
       <c r="C194" s="2">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3136,10 +3139,10 @@
         <v>4</v>
       </c>
       <c r="B195" s="2">
-        <v>45610</v>
+        <v>45630</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>5</v>
@@ -3150,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="2">
-        <v>45610</v>
+        <v>45630</v>
       </c>
       <c r="C196" s="2">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>5</v>
@@ -3164,13 +3167,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="2">
-        <v>45612</v>
+        <v>45631</v>
       </c>
       <c r="C197" s="2">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3178,10 +3181,10 @@
         <v>4</v>
       </c>
       <c r="B198" s="2">
-        <v>45613</v>
+        <v>45632</v>
       </c>
       <c r="C198" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>5</v>
@@ -3192,13 +3195,13 @@
         <v>4</v>
       </c>
       <c r="B199" s="2">
-        <v>45613</v>
+        <v>45633</v>
       </c>
       <c r="C199" s="2">
-        <v>606</v>
+        <v>62</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3206,13 +3209,13 @@
         <v>4</v>
       </c>
       <c r="B200" s="2">
-        <v>45615</v>
+        <v>45633</v>
       </c>
       <c r="C200" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3220,10 +3223,10 @@
         <v>4</v>
       </c>
       <c r="B201" s="2">
-        <v>45616</v>
+        <v>45634</v>
       </c>
       <c r="C201" s="2">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>5</v>
@@ -3234,13 +3237,13 @@
         <v>4</v>
       </c>
       <c r="B202" s="2">
-        <v>45616</v>
+        <v>45636</v>
       </c>
       <c r="C202" s="2">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3248,10 +3251,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="2">
-        <v>45619</v>
+        <v>45636</v>
       </c>
       <c r="C203" s="2">
-        <v>779</v>
+        <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>5</v>
@@ -3262,13 +3265,13 @@
         <v>4</v>
       </c>
       <c r="B204" s="2">
-        <v>45619</v>
+        <v>45637</v>
       </c>
       <c r="C204" s="2">
-        <v>719</v>
+        <v>133</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3276,13 +3279,13 @@
         <v>4</v>
       </c>
       <c r="B205" s="2">
-        <v>45620</v>
+        <v>45639</v>
       </c>
       <c r="C205" s="2">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3290,10 +3293,10 @@
         <v>4</v>
       </c>
       <c r="B206" s="2">
-        <v>45622</v>
+        <v>45640</v>
       </c>
       <c r="C206" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>5</v>
@@ -3304,10 +3307,10 @@
         <v>4</v>
       </c>
       <c r="B207" s="2">
-        <v>45622</v>
+        <v>45640</v>
       </c>
       <c r="C207" s="2">
-        <v>560</v>
+        <v>88</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>8</v>
@@ -3318,13 +3321,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="2">
-        <v>45623</v>
+        <v>45602</v>
       </c>
       <c r="C208" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3332,13 +3335,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="2">
-        <v>45623</v>
+        <v>45605</v>
       </c>
       <c r="C209" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3346,10 +3349,10 @@
         <v>4</v>
       </c>
       <c r="B210" s="2">
-        <v>45625</v>
+        <v>45605</v>
       </c>
       <c r="C210" s="2">
-        <v>3</v>
+        <v>760</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>5</v>
@@ -3360,13 +3363,13 @@
         <v>4</v>
       </c>
       <c r="B211" s="2">
-        <v>45625</v>
+        <v>45606</v>
       </c>
       <c r="C211" s="2">
-        <v>1117</v>
+        <v>43</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3374,13 +3377,13 @@
         <v>4</v>
       </c>
       <c r="B212" s="2">
-        <v>45626</v>
+        <v>45611</v>
       </c>
       <c r="C212" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3388,13 +3391,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="2">
-        <v>45626</v>
+        <v>45613</v>
       </c>
       <c r="C213" s="2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3402,7 +3405,7 @@
         <v>4</v>
       </c>
       <c r="B214" s="2">
-        <v>45628</v>
+        <v>45614</v>
       </c>
       <c r="C214" s="2">
         <v>2</v>
@@ -3416,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="B215" s="2">
-        <v>45628</v>
+        <v>45614</v>
       </c>
       <c r="C215" s="2">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>5</v>
@@ -3430,13 +3433,13 @@
         <v>4</v>
       </c>
       <c r="B216" s="2">
-        <v>45629</v>
+        <v>45616</v>
       </c>
       <c r="C216" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3444,10 +3447,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="2">
-        <v>45631</v>
+        <v>45617</v>
       </c>
       <c r="C217" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>5</v>
@@ -3458,13 +3461,13 @@
         <v>4</v>
       </c>
       <c r="B218" s="2">
-        <v>45631</v>
+        <v>45619</v>
       </c>
       <c r="C218" s="2">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3472,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="B219" s="2">
-        <v>45634</v>
+        <v>45620</v>
       </c>
       <c r="C219" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>5</v>
@@ -3486,13 +3489,13 @@
         <v>4</v>
       </c>
       <c r="B220" s="2">
-        <v>45634</v>
+        <v>45621</v>
       </c>
       <c r="C220" s="2">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3500,13 +3503,13 @@
         <v>4</v>
       </c>
       <c r="B221" s="2">
-        <v>45635</v>
+        <v>45623</v>
       </c>
       <c r="C221" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3514,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="2">
-        <v>45636</v>
+        <v>45623</v>
       </c>
       <c r="C222" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>5</v>
@@ -3528,10 +3531,10 @@
         <v>4</v>
       </c>
       <c r="B223" s="2">
-        <v>45637</v>
+        <v>45625</v>
       </c>
       <c r="C223" s="2">
-        <v>64</v>
+        <v>707</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>5</v>
@@ -3542,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="B224" s="2">
-        <v>45604</v>
+        <v>45626</v>
       </c>
       <c r="C224" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>5</v>
@@ -3556,10 +3559,10 @@
         <v>4</v>
       </c>
       <c r="B225" s="2">
-        <v>45604</v>
+        <v>45626</v>
       </c>
       <c r="C225" s="2">
-        <v>789</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>5</v>
@@ -3570,13 +3573,13 @@
         <v>4</v>
       </c>
       <c r="B226" s="2">
-        <v>45605</v>
+        <v>45626</v>
       </c>
       <c r="C226" s="2">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3584,10 +3587,10 @@
         <v>4</v>
       </c>
       <c r="B227" s="2">
-        <v>45606</v>
+        <v>45627</v>
       </c>
       <c r="C227" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>5</v>
@@ -3598,10 +3601,10 @@
         <v>4</v>
       </c>
       <c r="B228" s="2">
-        <v>45607</v>
+        <v>45627</v>
       </c>
       <c r="C228" s="2">
-        <v>904</v>
+        <v>7</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>5</v>
@@ -3612,10 +3615,10 @@
         <v>4</v>
       </c>
       <c r="B229" s="2">
-        <v>45609</v>
+        <v>45628</v>
       </c>
       <c r="C229" s="2">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>5</v>
@@ -3626,13 +3629,13 @@
         <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>45616</v>
+        <v>45629</v>
       </c>
       <c r="C230" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3640,13 +3643,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="2">
-        <v>45619</v>
+        <v>45630</v>
       </c>
       <c r="C231" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3654,13 +3657,13 @@
         <v>4</v>
       </c>
       <c r="B232" s="2">
-        <v>45622</v>
+        <v>45631</v>
       </c>
       <c r="C232" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3668,13 +3671,13 @@
         <v>4</v>
       </c>
       <c r="B233" s="2">
-        <v>45622</v>
+        <v>45631</v>
       </c>
       <c r="C233" s="2">
-        <v>131</v>
+        <v>417</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3682,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B234" s="2">
-        <v>45623</v>
+        <v>45632</v>
       </c>
       <c r="C234" s="2">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3696,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="B235" s="2">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C235" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>5</v>
@@ -3710,13 +3713,13 @@
         <v>4</v>
       </c>
       <c r="B236" s="2">
-        <v>45625</v>
+        <v>45633</v>
       </c>
       <c r="C236" s="2">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3724,13 +3727,13 @@
         <v>4</v>
       </c>
       <c r="B237" s="2">
-        <v>45625</v>
+        <v>45634</v>
       </c>
       <c r="C237" s="2">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3738,13 +3741,13 @@
         <v>4</v>
       </c>
       <c r="B238" s="2">
-        <v>45626</v>
+        <v>45634</v>
       </c>
       <c r="C238" s="2">
-        <v>302</v>
+        <v>1260</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3752,10 +3755,10 @@
         <v>4</v>
       </c>
       <c r="B239" s="2">
-        <v>45627</v>
+        <v>45635</v>
       </c>
       <c r="C239" s="2">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>5</v>
@@ -3766,10 +3769,10 @@
         <v>4</v>
       </c>
       <c r="B240" s="2">
-        <v>45628</v>
+        <v>45635</v>
       </c>
       <c r="C240" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>5</v>
@@ -3780,13 +3783,13 @@
         <v>4</v>
       </c>
       <c r="B241" s="2">
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="C241" s="2">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3794,10 +3797,10 @@
         <v>4</v>
       </c>
       <c r="B242" s="2">
-        <v>45629</v>
+        <v>45637</v>
       </c>
       <c r="C242" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>6</v>
@@ -3808,10 +3811,10 @@
         <v>4</v>
       </c>
       <c r="B243" s="2">
-        <v>45630</v>
+        <v>45638</v>
       </c>
       <c r="C243" s="2">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>5</v>
@@ -3822,10 +3825,10 @@
         <v>4</v>
       </c>
       <c r="B244" s="2">
-        <v>45630</v>
+        <v>45640</v>
       </c>
       <c r="C244" s="2">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>5</v>
@@ -3836,13 +3839,13 @@
         <v>4</v>
       </c>
       <c r="B245" s="2">
-        <v>45631</v>
+        <v>45640</v>
       </c>
       <c r="C245" s="2">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3850,10 +3853,10 @@
         <v>4</v>
       </c>
       <c r="B246" s="2">
-        <v>45632</v>
+        <v>45605</v>
       </c>
       <c r="C246" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>5</v>
@@ -3864,13 +3867,13 @@
         <v>4</v>
       </c>
       <c r="B247" s="2">
-        <v>45632</v>
+        <v>45606</v>
       </c>
       <c r="C247" s="2">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3878,13 +3881,13 @@
         <v>4</v>
       </c>
       <c r="B248" s="2">
-        <v>45633</v>
+        <v>45606</v>
       </c>
       <c r="C248" s="2">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3892,10 +3895,10 @@
         <v>4</v>
       </c>
       <c r="B249" s="2">
-        <v>45633</v>
+        <v>45606</v>
       </c>
       <c r="C249" s="2">
-        <v>881</v>
+        <v>6</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>5</v>
@@ -3906,13 +3909,13 @@
         <v>4</v>
       </c>
       <c r="B250" s="2">
-        <v>45634</v>
+        <v>45612</v>
       </c>
       <c r="C250" s="2">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3920,13 +3923,13 @@
         <v>4</v>
       </c>
       <c r="B251" s="2">
-        <v>45634</v>
+        <v>45612</v>
       </c>
       <c r="C251" s="2">
-        <v>945</v>
+        <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3934,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="B252" s="2">
-        <v>45635</v>
+        <v>45614</v>
       </c>
       <c r="C252" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>5</v>
@@ -3948,12 +3951,432 @@
         <v>4</v>
       </c>
       <c r="B253" s="2">
-        <v>45636</v>
+        <v>45615</v>
       </c>
       <c r="C253" s="2">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="D253" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" s="2">
+        <v>45615</v>
+      </c>
+      <c r="C254" s="2">
+        <v>36</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="2">
+        <v>45615</v>
+      </c>
+      <c r="C255" s="2">
+        <v>2</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="2">
+        <v>45618</v>
+      </c>
+      <c r="C256" s="2">
+        <v>2</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="2">
+        <v>45619</v>
+      </c>
+      <c r="C257" s="2">
+        <v>29</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="2">
+        <v>45620</v>
+      </c>
+      <c r="C258" s="2">
+        <v>93</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="2">
+        <v>45621</v>
+      </c>
+      <c r="C259" s="2">
+        <v>1</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="2">
+        <v>45621</v>
+      </c>
+      <c r="C260" s="2">
+        <v>1</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="2">
+        <v>45622</v>
+      </c>
+      <c r="C261" s="2">
+        <v>1</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="2">
+        <v>45622</v>
+      </c>
+      <c r="C262" s="2">
+        <v>88</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="2">
+        <v>45623</v>
+      </c>
+      <c r="C263" s="2">
+        <v>124</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="2">
+        <v>45624</v>
+      </c>
+      <c r="C264" s="2">
+        <v>3</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" s="2">
+        <v>45624</v>
+      </c>
+      <c r="C265" s="2">
+        <v>1</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="2">
+        <v>45625</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="2">
+        <v>45625</v>
+      </c>
+      <c r="C267" s="2">
+        <v>159</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="2">
+        <v>45625</v>
+      </c>
+      <c r="C268" s="2">
+        <v>132</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="2">
+        <v>45625</v>
+      </c>
+      <c r="C269" s="2">
+        <v>4</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="2">
+        <v>45626</v>
+      </c>
+      <c r="C270" s="2">
+        <v>98</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="2">
+        <v>45628</v>
+      </c>
+      <c r="C271" s="2">
+        <v>15</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C272" s="2">
+        <v>99</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="2">
+        <v>45629</v>
+      </c>
+      <c r="C273" s="2">
+        <v>368</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" s="2">
+        <v>45631</v>
+      </c>
+      <c r="C274" s="2">
+        <v>2</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C275" s="2">
+        <v>1</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" s="2">
+        <v>45632</v>
+      </c>
+      <c r="C276" s="2">
+        <v>580</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C277" s="2">
+        <v>360</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C278" s="2">
+        <v>10</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="2">
+        <v>45638</v>
+      </c>
+      <c r="C279" s="2">
+        <v>457</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" s="2">
+        <v>45638</v>
+      </c>
+      <c r="C280" s="2">
+        <v>193</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="2">
+        <v>45638</v>
+      </c>
+      <c r="C281" s="2">
+        <v>16</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C282" s="2">
+        <v>1</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C283" s="2">
+        <v>7</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/reports/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45611</v>
+        <v>45604</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="C3" s="2">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -465,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45613</v>
+        <v>45605</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -479,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="C6" s="2">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45614</v>
+        <v>45608</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -521,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="C8" s="2">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -535,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -566,10 +563,10 @@
         <v>45618</v>
       </c>
       <c r="C11" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -591,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="C13" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -619,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="C15" s="2">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -633,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="C16" s="2">
+        <v>824</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -675,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>786</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -692,10 +689,10 @@
         <v>45627</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -717,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C22" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -734,10 +731,10 @@
         <v>45630</v>
       </c>
       <c r="C23" s="2">
-        <v>90</v>
+        <v>485</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C24" s="2">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="C25" s="2">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45636</v>
+        <v>45633</v>
       </c>
       <c r="C27" s="2">
-        <v>135</v>
+        <v>1404</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45637</v>
+        <v>45633</v>
       </c>
       <c r="C28" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45638</v>
+        <v>45634</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -829,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45638</v>
+        <v>45634</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>854</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -843,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45639</v>
+        <v>45636</v>
       </c>
       <c r="C31" s="2">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45640</v>
+        <v>45636</v>
       </c>
       <c r="C32" s="2">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45612</v>
+        <v>45637</v>
       </c>
       <c r="C33" s="2">
-        <v>987</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -885,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45613</v>
+        <v>45637</v>
       </c>
       <c r="C34" s="2">
-        <v>7</v>
+        <v>535</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -899,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45614</v>
+        <v>45640</v>
       </c>
       <c r="C35" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -913,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45615</v>
+        <v>45640</v>
       </c>
       <c r="C36" s="2">
-        <v>167</v>
+        <v>829</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -927,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C37" s="2">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -941,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45616</v>
+        <v>45606</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -955,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45617</v>
+        <v>45606</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45618</v>
+        <v>45609</v>
       </c>
       <c r="C40" s="2">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45618</v>
+        <v>45610</v>
       </c>
       <c r="C41" s="2">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45619</v>
+        <v>45612</v>
       </c>
       <c r="C42" s="2">
-        <v>85</v>
+        <v>456</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45620</v>
+        <v>45613</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45620</v>
+        <v>45614</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1039,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="C45" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45622</v>
+        <v>45615</v>
       </c>
       <c r="C46" s="2">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45624</v>
+        <v>45616</v>
       </c>
       <c r="C47" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1081,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45624</v>
+        <v>45616</v>
       </c>
       <c r="C48" s="2">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1095,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45624</v>
+        <v>45617</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1109,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C50" s="2">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1123,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45626</v>
+        <v>45618</v>
       </c>
       <c r="C51" s="2">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45627</v>
+        <v>45618</v>
       </c>
       <c r="C52" s="2">
-        <v>3</v>
+        <v>482</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45629</v>
+        <v>45619</v>
       </c>
       <c r="C53" s="2">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45632</v>
+        <v>45620</v>
       </c>
       <c r="C54" s="2">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45633</v>
+        <v>45620</v>
       </c>
       <c r="C55" s="2">
-        <v>3</v>
+        <v>670</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -1193,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45633</v>
+        <v>45621</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1207,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45634</v>
+        <v>45621</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>529</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1221,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45634</v>
+        <v>45622</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1235,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45634</v>
+        <v>45623</v>
       </c>
       <c r="C59" s="2">
-        <v>160</v>
+        <v>608</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1249,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45635</v>
+        <v>45624</v>
       </c>
       <c r="C60" s="2">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1263,10 +1260,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45639</v>
+        <v>45625</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
@@ -1277,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45639</v>
+        <v>45625</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -1291,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45639</v>
+        <v>45627</v>
       </c>
       <c r="C63" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -1305,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45640</v>
+        <v>45629</v>
       </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1319,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45604</v>
+        <v>45632</v>
       </c>
       <c r="C65" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1333,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45605</v>
+        <v>45635</v>
       </c>
       <c r="C66" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -1347,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45606</v>
+        <v>45635</v>
       </c>
       <c r="C67" s="2">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1361,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45612</v>
+        <v>45638</v>
       </c>
       <c r="C68" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45613</v>
+        <v>45639</v>
       </c>
       <c r="C69" s="2">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45615</v>
+        <v>45640</v>
       </c>
       <c r="C70" s="2">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1403,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45615</v>
+        <v>45597</v>
       </c>
       <c r="C71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1417,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C72" s="2">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1431,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45619</v>
+        <v>45606</v>
       </c>
       <c r="C73" s="2">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
@@ -1445,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45619</v>
+        <v>45606</v>
       </c>
       <c r="C74" s="2">
-        <v>8</v>
+        <v>549</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1459,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45621</v>
+        <v>45606</v>
       </c>
       <c r="C75" s="2">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45622</v>
+        <v>45607</v>
       </c>
       <c r="C76" s="2">
-        <v>454</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1487,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45622</v>
+        <v>45609</v>
       </c>
       <c r="C77" s="2">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1501,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45622</v>
+        <v>45610</v>
       </c>
       <c r="C78" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45624</v>
+        <v>45612</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -1529,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45625</v>
+        <v>45613</v>
       </c>
       <c r="C80" s="2">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1543,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45625</v>
+        <v>45613</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45625</v>
+        <v>45615</v>
       </c>
       <c r="C82" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>5</v>
@@ -1571,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45627</v>
+        <v>45615</v>
       </c>
       <c r="C83" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -1585,10 +1582,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45628</v>
+        <v>45618</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -1599,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45628</v>
+        <v>45619</v>
       </c>
       <c r="C85" s="2">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1613,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45628</v>
+        <v>45619</v>
       </c>
       <c r="C86" s="2">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1627,10 +1624,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45631</v>
+        <v>45620</v>
       </c>
       <c r="C87" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1641,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45631</v>
+        <v>45621</v>
       </c>
       <c r="C88" s="2">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1655,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45634</v>
+        <v>45622</v>
       </c>
       <c r="C89" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1669,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45634</v>
+        <v>45623</v>
       </c>
       <c r="C90" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -1683,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45635</v>
+        <v>45624</v>
       </c>
       <c r="C91" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1697,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45636</v>
+        <v>45625</v>
       </c>
       <c r="C92" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1711,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45637</v>
+        <v>45626</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1725,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45637</v>
+        <v>45626</v>
       </c>
       <c r="C94" s="2">
-        <v>2</v>
+        <v>757</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -1739,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45638</v>
+        <v>45628</v>
       </c>
       <c r="C95" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1753,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45638</v>
+        <v>45629</v>
       </c>
       <c r="C96" s="2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1767,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45639</v>
+        <v>45629</v>
       </c>
       <c r="C97" s="2">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
@@ -1781,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45640</v>
+        <v>45632</v>
       </c>
       <c r="C98" s="2">
-        <v>5</v>
+        <v>893</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -1795,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45606</v>
+        <v>45632</v>
       </c>
       <c r="C99" s="2">
-        <v>5</v>
+        <v>711</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1809,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45610</v>
+        <v>45633</v>
       </c>
       <c r="C100" s="2">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1823,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45610</v>
+        <v>45635</v>
       </c>
       <c r="C101" s="2">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1837,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45612</v>
+        <v>45635</v>
       </c>
       <c r="C102" s="2">
-        <v>5</v>
+        <v>735</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45612</v>
+        <v>45636</v>
       </c>
       <c r="C103" s="2">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1865,13 +1862,13 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45613</v>
+        <v>45638</v>
       </c>
       <c r="C104" s="2">
-        <v>44</v>
+        <v>714</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1879,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45614</v>
+        <v>45639</v>
       </c>
       <c r="C105" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1893,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C106" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1907,10 +1904,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="C107" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
@@ -1921,13 +1918,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45617</v>
+        <v>45604</v>
       </c>
       <c r="C108" s="2">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1935,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45617</v>
+        <v>45607</v>
       </c>
       <c r="C109" s="2">
-        <v>234</v>
+        <v>473</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1949,13 +1946,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45618</v>
+        <v>45608</v>
       </c>
       <c r="C110" s="2">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1963,13 +1960,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45619</v>
+        <v>45610</v>
       </c>
       <c r="C111" s="2">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1977,13 +1974,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C112" s="2">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1991,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="C113" s="2">
-        <v>224</v>
+        <v>468</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2005,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="C114" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2019,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45622</v>
+        <v>45616</v>
       </c>
       <c r="C115" s="2">
         <v>3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2033,13 +2030,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45623</v>
+        <v>45617</v>
       </c>
       <c r="C116" s="2">
-        <v>991</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2047,13 +2044,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45624</v>
+        <v>45618</v>
       </c>
       <c r="C117" s="2">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2061,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45624</v>
+        <v>45619</v>
       </c>
       <c r="C118" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
@@ -2075,13 +2072,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="C119" s="2">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2089,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45625</v>
+        <v>45622</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>5</v>
@@ -2103,10 +2100,10 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45626</v>
+        <v>45622</v>
       </c>
       <c r="C121" s="2">
-        <v>1024</v>
+        <v>415</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>5</v>
@@ -2117,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45627</v>
+        <v>45623</v>
       </c>
       <c r="C122" s="2">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2131,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45634</v>
+        <v>45623</v>
       </c>
       <c r="C123" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
@@ -2145,10 +2142,10 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45635</v>
+        <v>45624</v>
       </c>
       <c r="C124" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
@@ -2159,13 +2156,13 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45636</v>
+        <v>45624</v>
       </c>
       <c r="C125" s="2">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2173,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45638</v>
+        <v>45625</v>
       </c>
       <c r="C126" s="2">
         <v>1</v>
@@ -2187,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45638</v>
+        <v>45625</v>
       </c>
       <c r="C127" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
@@ -2201,10 +2198,10 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45639</v>
+        <v>45625</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>935</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>5</v>
@@ -2215,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45639</v>
+        <v>45627</v>
       </c>
       <c r="C129" s="2">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2229,10 +2226,10 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45640</v>
+        <v>45628</v>
       </c>
       <c r="C130" s="2">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2243,10 +2240,10 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45601</v>
+        <v>45630</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -2257,10 +2254,10 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45604</v>
+        <v>45631</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>5</v>
@@ -2271,13 +2268,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45605</v>
+        <v>45633</v>
       </c>
       <c r="C133" s="2">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2285,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45605</v>
+        <v>45636</v>
       </c>
       <c r="C134" s="2">
+        <v>642</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2299,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45612</v>
+        <v>45637</v>
       </c>
       <c r="C135" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2313,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45613</v>
+        <v>45639</v>
       </c>
       <c r="C136" s="2">
-        <v>769</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>5</v>
@@ -2327,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45615</v>
+        <v>45639</v>
       </c>
       <c r="C137" s="2">
-        <v>2</v>
+        <v>807</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2341,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45618</v>
+        <v>45640</v>
       </c>
       <c r="C138" s="2">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2355,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>45619</v>
+        <v>45605</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2369,10 +2366,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="2">
-        <v>45619</v>
+        <v>45606</v>
       </c>
       <c r="C140" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>5</v>
@@ -2383,10 +2380,10 @@
         <v>4</v>
       </c>
       <c r="B141" s="2">
-        <v>45619</v>
+        <v>45607</v>
       </c>
       <c r="C141" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>5</v>
@@ -2397,13 +2394,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="2">
-        <v>45620</v>
+        <v>45608</v>
       </c>
       <c r="C142" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2411,10 +2408,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="2">
-        <v>45622</v>
+        <v>45609</v>
       </c>
       <c r="C143" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>5</v>
@@ -2425,10 +2422,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>45623</v>
+        <v>45609</v>
       </c>
       <c r="C144" s="2">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
@@ -2439,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="B145" s="2">
-        <v>45623</v>
+        <v>45611</v>
       </c>
       <c r="C145" s="2">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>6</v>
@@ -2453,10 +2450,10 @@
         <v>4</v>
       </c>
       <c r="B146" s="2">
-        <v>45624</v>
+        <v>45612</v>
       </c>
       <c r="C146" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>5</v>
@@ -2467,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="B147" s="2">
-        <v>45625</v>
+        <v>45612</v>
       </c>
       <c r="C147" s="2">
-        <v>7</v>
+        <v>614</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>5</v>
@@ -2481,10 +2478,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="2">
-        <v>45625</v>
+        <v>45614</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
@@ -2495,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2">
-        <v>45626</v>
+        <v>45615</v>
       </c>
       <c r="C149" s="2">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2509,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="2">
-        <v>45626</v>
+        <v>45617</v>
       </c>
       <c r="C150" s="2">
-        <v>297</v>
+        <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2523,13 +2520,13 @@
         <v>4</v>
       </c>
       <c r="B151" s="2">
-        <v>45626</v>
+        <v>45620</v>
       </c>
       <c r="C151" s="2">
-        <v>115</v>
+        <v>681</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2537,10 +2534,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="2">
-        <v>45627</v>
+        <v>45620</v>
       </c>
       <c r="C152" s="2">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -2551,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="B153" s="2">
-        <v>45628</v>
+        <v>45623</v>
       </c>
       <c r="C153" s="2">
-        <v>1</v>
+        <v>802</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2565,13 +2562,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="2">
-        <v>45629</v>
+        <v>45624</v>
       </c>
       <c r="C154" s="2">
-        <v>-3</v>
+        <v>156</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2579,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="B155" s="2">
-        <v>45629</v>
+        <v>45626</v>
       </c>
       <c r="C155" s="2">
-        <v>21</v>
+        <v>785</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2593,10 +2590,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="2">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="C156" s="2">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>5</v>
@@ -2607,13 +2604,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="2">
-        <v>45631</v>
+        <v>45627</v>
       </c>
       <c r="C157" s="2">
+        <v>109</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2621,13 +2618,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C158" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2635,13 +2632,13 @@
         <v>4</v>
       </c>
       <c r="B159" s="2">
-        <v>45633</v>
+        <v>45629</v>
       </c>
       <c r="C159" s="2">
-        <v>149</v>
+        <v>455</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2649,10 +2646,10 @@
         <v>4</v>
       </c>
       <c r="B160" s="2">
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C160" s="2">
-        <v>1558</v>
+        <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>5</v>
@@ -2663,13 +2660,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="2">
-        <v>45634</v>
+        <v>45630</v>
       </c>
       <c r="C161" s="2">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2677,13 +2674,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="2">
-        <v>45634</v>
+        <v>45631</v>
       </c>
       <c r="C162" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2691,10 +2688,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="2">
-        <v>45636</v>
+        <v>45632</v>
       </c>
       <c r="C163" s="2">
-        <v>397</v>
+        <v>68</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
@@ -2705,13 +2702,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="2">
-        <v>45637</v>
+        <v>45633</v>
       </c>
       <c r="C164" s="2">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2719,13 +2716,13 @@
         <v>4</v>
       </c>
       <c r="B165" s="2">
-        <v>45637</v>
+        <v>45634</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2733,13 +2730,13 @@
         <v>4</v>
       </c>
       <c r="B166" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C166" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2747,10 +2744,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="2">
-        <v>45639</v>
+        <v>45636</v>
       </c>
       <c r="C167" s="2">
-        <v>573</v>
+        <v>4</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
@@ -2761,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="2">
-        <v>45640</v>
+        <v>45637</v>
       </c>
       <c r="C168" s="2">
-        <v>570</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2775,10 +2772,10 @@
         <v>4</v>
       </c>
       <c r="B169" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C169" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>5</v>
@@ -2789,10 +2786,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="2">
-        <v>45601</v>
+        <v>45638</v>
       </c>
       <c r="C170" s="2">
-        <v>1</v>
+        <v>514</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
@@ -2803,13 +2800,13 @@
         <v>4</v>
       </c>
       <c r="B171" s="2">
-        <v>45604</v>
+        <v>45640</v>
       </c>
       <c r="C171" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2817,13 +2814,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="2">
-        <v>45605</v>
+        <v>45640</v>
       </c>
       <c r="C172" s="2">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2831,13 +2828,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="2">
-        <v>45607</v>
+        <v>45605</v>
       </c>
       <c r="C173" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2845,13 +2842,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="2">
-        <v>45613</v>
+        <v>45605</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2859,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="B175" s="2">
-        <v>45613</v>
+        <v>45607</v>
       </c>
       <c r="C175" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>5</v>
@@ -2873,13 +2870,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="2">
-        <v>45614</v>
+        <v>45608</v>
       </c>
       <c r="C176" s="2">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2887,13 +2884,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="2">
-        <v>45615</v>
+        <v>45608</v>
       </c>
       <c r="C177" s="2">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2901,13 +2898,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="2">
-        <v>45617</v>
+        <v>45610</v>
       </c>
       <c r="C178" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2915,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="B179" s="2">
-        <v>45619</v>
+        <v>45611</v>
       </c>
       <c r="C179" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2929,13 +2926,13 @@
         <v>4</v>
       </c>
       <c r="B180" s="2">
-        <v>45620</v>
+        <v>45612</v>
       </c>
       <c r="C180" s="2">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2943,10 +2940,10 @@
         <v>4</v>
       </c>
       <c r="B181" s="2">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="C181" s="2">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>5</v>
@@ -2957,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="B182" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="C182" s="2">
         <v>2</v>
@@ -2971,13 +2968,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="2">
-        <v>45623</v>
+        <v>45614</v>
       </c>
       <c r="C183" s="2">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2985,13 +2982,13 @@
         <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>45623</v>
+        <v>45614</v>
       </c>
       <c r="C184" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2999,10 +2996,10 @@
         <v>4</v>
       </c>
       <c r="B185" s="2">
-        <v>45624</v>
+        <v>45616</v>
       </c>
       <c r="C185" s="2">
-        <v>957</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>5</v>
@@ -3013,10 +3010,10 @@
         <v>4</v>
       </c>
       <c r="B186" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C186" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>5</v>
@@ -3027,13 +3024,13 @@
         <v>4</v>
       </c>
       <c r="B187" s="2">
-        <v>45626</v>
+        <v>45617</v>
       </c>
       <c r="C187" s="2">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3041,10 +3038,10 @@
         <v>4</v>
       </c>
       <c r="B188" s="2">
-        <v>45627</v>
+        <v>45617</v>
       </c>
       <c r="C188" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>6</v>
@@ -3055,10 +3052,10 @@
         <v>4</v>
       </c>
       <c r="B189" s="2">
-        <v>45627</v>
+        <v>45618</v>
       </c>
       <c r="C189" s="2">
-        <v>1018</v>
+        <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>5</v>
@@ -3069,10 +3066,10 @@
         <v>4</v>
       </c>
       <c r="B190" s="2">
-        <v>45627</v>
+        <v>45618</v>
       </c>
       <c r="C190" s="2">
-        <v>9</v>
+        <v>770</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>5</v>
@@ -3083,13 +3080,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>45628</v>
+        <v>45620</v>
       </c>
       <c r="C191" s="2">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3097,10 +3094,10 @@
         <v>4</v>
       </c>
       <c r="B192" s="2">
-        <v>45629</v>
+        <v>45621</v>
       </c>
       <c r="C192" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>5</v>
@@ -3111,13 +3108,13 @@
         <v>4</v>
       </c>
       <c r="B193" s="2">
-        <v>45630</v>
+        <v>45621</v>
       </c>
       <c r="C193" s="2">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3125,10 +3122,10 @@
         <v>4</v>
       </c>
       <c r="B194" s="2">
-        <v>45630</v>
+        <v>45623</v>
       </c>
       <c r="C194" s="2">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>5</v>
@@ -3139,10 +3136,10 @@
         <v>4</v>
       </c>
       <c r="B195" s="2">
-        <v>45630</v>
+        <v>45624</v>
       </c>
       <c r="C195" s="2">
-        <v>2</v>
+        <v>583</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>5</v>
@@ -3153,10 +3150,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="2">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="C196" s="2">
-        <v>2</v>
+        <v>637</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>5</v>
@@ -3167,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C197" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3181,13 +3178,13 @@
         <v>4</v>
       </c>
       <c r="B198" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C198" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3195,13 +3192,13 @@
         <v>4</v>
       </c>
       <c r="B199" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C199" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3209,13 +3206,13 @@
         <v>4</v>
       </c>
       <c r="B200" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C200" s="2">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3223,10 +3220,10 @@
         <v>4</v>
       </c>
       <c r="B201" s="2">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C201" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>5</v>
@@ -3237,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="B202" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C202" s="2">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3251,13 +3248,13 @@
         <v>4</v>
       </c>
       <c r="B203" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C203" s="2">
-        <v>6</v>
+        <v>778</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3265,10 +3262,10 @@
         <v>4</v>
       </c>
       <c r="B204" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C204" s="2">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>5</v>
@@ -3279,10 +3276,10 @@
         <v>4</v>
       </c>
       <c r="B205" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C205" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>5</v>
@@ -3310,7 +3307,7 @@
         <v>45640</v>
       </c>
       <c r="C207" s="2">
-        <v>88</v>
+        <v>1649</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>8</v>
@@ -3321,13 +3318,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="2">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="C208" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3335,13 +3332,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C209" s="2">
-        <v>137</v>
+        <v>789</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3352,10 +3349,10 @@
         <v>45605</v>
       </c>
       <c r="C210" s="2">
-        <v>760</v>
+        <v>237</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3366,7 +3363,7 @@
         <v>45606</v>
       </c>
       <c r="C211" s="2">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>5</v>
@@ -3377,13 +3374,13 @@
         <v>4</v>
       </c>
       <c r="B212" s="2">
-        <v>45611</v>
+        <v>45607</v>
       </c>
       <c r="C212" s="2">
-        <v>4</v>
+        <v>904</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3391,13 +3388,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="2">
-        <v>45613</v>
+        <v>45609</v>
       </c>
       <c r="C213" s="2">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3405,13 +3402,13 @@
         <v>4</v>
       </c>
       <c r="B214" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C214" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3419,13 +3416,13 @@
         <v>4</v>
       </c>
       <c r="B215" s="2">
-        <v>45614</v>
+        <v>45619</v>
       </c>
       <c r="C215" s="2">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3433,13 +3430,13 @@
         <v>4</v>
       </c>
       <c r="B216" s="2">
-        <v>45616</v>
+        <v>45622</v>
       </c>
       <c r="C216" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3447,13 +3444,13 @@
         <v>4</v>
       </c>
       <c r="B217" s="2">
-        <v>45617</v>
+        <v>45622</v>
       </c>
       <c r="C217" s="2">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3461,13 +3458,13 @@
         <v>4</v>
       </c>
       <c r="B218" s="2">
-        <v>45619</v>
+        <v>45623</v>
       </c>
       <c r="C218" s="2">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3475,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="B219" s="2">
-        <v>45620</v>
+        <v>45625</v>
       </c>
       <c r="C219" s="2">
         <v>2</v>
@@ -3489,13 +3486,13 @@
         <v>4</v>
       </c>
       <c r="B220" s="2">
-        <v>45621</v>
+        <v>45625</v>
       </c>
       <c r="C220" s="2">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3503,10 +3500,10 @@
         <v>4</v>
       </c>
       <c r="B221" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C221" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>5</v>
@@ -3517,13 +3514,13 @@
         <v>4</v>
       </c>
       <c r="B222" s="2">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="C222" s="2">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3531,10 +3528,10 @@
         <v>4</v>
       </c>
       <c r="B223" s="2">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="C223" s="2">
-        <v>707</v>
+        <v>61</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>5</v>
@@ -3545,10 +3542,10 @@
         <v>4</v>
       </c>
       <c r="B224" s="2">
-        <v>45626</v>
+        <v>45628</v>
       </c>
       <c r="C224" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>5</v>
@@ -3559,13 +3556,13 @@
         <v>4</v>
       </c>
       <c r="B225" s="2">
-        <v>45626</v>
+        <v>45628</v>
       </c>
       <c r="C225" s="2">
-        <v>9</v>
+        <v>476</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3573,13 +3570,13 @@
         <v>4</v>
       </c>
       <c r="B226" s="2">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="C226" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3587,10 +3584,10 @@
         <v>4</v>
       </c>
       <c r="B227" s="2">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="C227" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>5</v>
@@ -3601,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="B228" s="2">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="C228" s="2">
-        <v>7</v>
+        <v>416</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>5</v>
@@ -3615,13 +3612,13 @@
         <v>4</v>
       </c>
       <c r="B229" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="C229" s="2">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3629,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C230" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>5</v>
@@ -3643,13 +3640,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="2">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="C231" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3657,13 +3654,13 @@
         <v>4</v>
       </c>
       <c r="B232" s="2">
-        <v>45631</v>
+        <v>45633</v>
       </c>
       <c r="C232" s="2">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3671,10 +3668,10 @@
         <v>4</v>
       </c>
       <c r="B233" s="2">
-        <v>45631</v>
+        <v>45633</v>
       </c>
       <c r="C233" s="2">
-        <v>417</v>
+        <v>881</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>5</v>
@@ -3685,10 +3682,10 @@
         <v>4</v>
       </c>
       <c r="B234" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C234" s="2">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>5</v>
@@ -3699,13 +3696,13 @@
         <v>4</v>
       </c>
       <c r="B235" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C235" s="2">
-        <v>5</v>
+        <v>945</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3713,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="B236" s="2">
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="C236" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>5</v>
@@ -3727,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="B237" s="2">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C237" s="2">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3741,10 +3738,10 @@
         <v>4</v>
       </c>
       <c r="B238" s="2">
-        <v>45634</v>
+        <v>45638</v>
       </c>
       <c r="C238" s="2">
-        <v>1260</v>
+        <v>2</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>5</v>
@@ -3755,10 +3752,10 @@
         <v>4</v>
       </c>
       <c r="B239" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="C239" s="2">
-        <v>84</v>
+        <v>816</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>5</v>
@@ -3769,10 +3766,10 @@
         <v>4</v>
       </c>
       <c r="B240" s="2">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="C240" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>5</v>
@@ -3783,10 +3780,10 @@
         <v>4</v>
       </c>
       <c r="B241" s="2">
-        <v>45636</v>
+        <v>45640</v>
       </c>
       <c r="C241" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>5</v>
@@ -3797,13 +3794,13 @@
         <v>4</v>
       </c>
       <c r="B242" s="2">
-        <v>45637</v>
+        <v>45605</v>
       </c>
       <c r="C242" s="2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3811,13 +3808,13 @@
         <v>4</v>
       </c>
       <c r="B243" s="2">
-        <v>45638</v>
+        <v>45606</v>
       </c>
       <c r="C243" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3825,10 +3822,10 @@
         <v>4</v>
       </c>
       <c r="B244" s="2">
-        <v>45640</v>
+        <v>45607</v>
       </c>
       <c r="C244" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>5</v>
@@ -3839,13 +3836,13 @@
         <v>4</v>
       </c>
       <c r="B245" s="2">
-        <v>45640</v>
+        <v>45608</v>
       </c>
       <c r="C245" s="2">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3853,13 +3850,13 @@
         <v>4</v>
       </c>
       <c r="B246" s="2">
-        <v>45605</v>
+        <v>45609</v>
       </c>
       <c r="C246" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3867,10 +3864,10 @@
         <v>4</v>
       </c>
       <c r="B247" s="2">
-        <v>45606</v>
+        <v>45610</v>
       </c>
       <c r="C247" s="2">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>5</v>
@@ -3881,13 +3878,13 @@
         <v>4</v>
       </c>
       <c r="B248" s="2">
-        <v>45606</v>
+        <v>45610</v>
       </c>
       <c r="C248" s="2">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3895,13 +3892,13 @@
         <v>4</v>
       </c>
       <c r="B249" s="2">
-        <v>45606</v>
+        <v>45612</v>
       </c>
       <c r="C249" s="2">
+        <v>208</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3909,13 +3906,13 @@
         <v>4</v>
       </c>
       <c r="B250" s="2">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C250" s="2">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3923,10 +3920,10 @@
         <v>4</v>
       </c>
       <c r="B251" s="2">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C251" s="2">
-        <v>14</v>
+        <v>606</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>5</v>
@@ -3937,13 +3934,13 @@
         <v>4</v>
       </c>
       <c r="B252" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="C252" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3951,10 +3948,10 @@
         <v>4</v>
       </c>
       <c r="B253" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="C253" s="2">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>5</v>
@@ -3965,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="B254" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="C254" s="2">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3979,10 +3976,10 @@
         <v>4</v>
       </c>
       <c r="B255" s="2">
-        <v>45615</v>
+        <v>45619</v>
       </c>
       <c r="C255" s="2">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>5</v>
@@ -3993,13 +3990,13 @@
         <v>4</v>
       </c>
       <c r="B256" s="2">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="C256" s="2">
-        <v>2</v>
+        <v>719</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4007,13 +4004,13 @@
         <v>4</v>
       </c>
       <c r="B257" s="2">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C257" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4021,10 +4018,10 @@
         <v>4</v>
       </c>
       <c r="B258" s="2">
-        <v>45620</v>
+        <v>45622</v>
       </c>
       <c r="C258" s="2">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>5</v>
@@ -4035,13 +4032,13 @@
         <v>4</v>
       </c>
       <c r="B259" s="2">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="C259" s="2">
-        <v>1</v>
+        <v>560</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4049,7 +4046,7 @@
         <v>4</v>
       </c>
       <c r="B260" s="2">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="C260" s="2">
         <v>1</v>
@@ -4063,13 +4060,13 @@
         <v>4</v>
       </c>
       <c r="B261" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C261" s="2">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4077,13 +4074,13 @@
         <v>4</v>
       </c>
       <c r="B262" s="2">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="C262" s="2">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4091,13 +4088,13 @@
         <v>4</v>
       </c>
       <c r="B263" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C263" s="2">
-        <v>124</v>
+        <v>1117</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4105,7 +4102,7 @@
         <v>4</v>
       </c>
       <c r="B264" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C264" s="2">
         <v>3</v>
@@ -4119,13 +4116,13 @@
         <v>4</v>
       </c>
       <c r="B265" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C265" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4133,10 +4130,10 @@
         <v>4</v>
       </c>
       <c r="B266" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="C266" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>5</v>
@@ -4147,13 +4144,13 @@
         <v>4</v>
       </c>
       <c r="B267" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="C267" s="2">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4161,13 +4158,13 @@
         <v>4</v>
       </c>
       <c r="B268" s="2">
-        <v>45625</v>
+        <v>45629</v>
       </c>
       <c r="C268" s="2">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4175,13 +4172,13 @@
         <v>4</v>
       </c>
       <c r="B269" s="2">
-        <v>45625</v>
+        <v>45631</v>
       </c>
       <c r="C269" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4189,10 +4186,10 @@
         <v>4</v>
       </c>
       <c r="B270" s="2">
-        <v>45626</v>
+        <v>45631</v>
       </c>
       <c r="C270" s="2">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>5</v>
@@ -4203,13 +4200,13 @@
         <v>4</v>
       </c>
       <c r="B271" s="2">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="C271" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4217,10 +4214,10 @@
         <v>4</v>
       </c>
       <c r="B272" s="2">
-        <v>45629</v>
+        <v>45634</v>
       </c>
       <c r="C272" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>5</v>
@@ -4231,13 +4228,13 @@
         <v>4</v>
       </c>
       <c r="B273" s="2">
-        <v>45629</v>
+        <v>45635</v>
       </c>
       <c r="C273" s="2">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4245,13 +4242,13 @@
         <v>4</v>
       </c>
       <c r="B274" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="C274" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4259,10 +4256,10 @@
         <v>4</v>
       </c>
       <c r="B275" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="C275" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>5</v>
@@ -4273,13 +4270,13 @@
         <v>4</v>
       </c>
       <c r="B276" s="2">
-        <v>45632</v>
+        <v>45638</v>
       </c>
       <c r="C276" s="2">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4287,96 +4284,12 @@
         <v>4</v>
       </c>
       <c r="B277" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="C277" s="2">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B278" s="2">
-        <v>45635</v>
-      </c>
-      <c r="C278" s="2">
-        <v>10</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B279" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C279" s="2">
-        <v>457</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B280" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C280" s="2">
-        <v>193</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B281" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C281" s="2">
-        <v>16</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B282" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C282" s="2">
-        <v>1</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B283" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C283" s="2">
-        <v>7</v>
-      </c>
-      <c r="D283" s="2" t="s">
         <v>5</v>
       </c>
     </row>
